--- a/测试用例V1.0.xlsx
+++ b/测试用例V1.0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="总结" sheetId="10" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="备注" sheetId="16" r:id="rId11"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">community!$A$1:$N$78</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">community!$A$1:$N$79</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">IM!$A$1:$J$98</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">user!$A$1:$N$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">备注!$A$1:$N$1</definedName>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1728" uniqueCount="1298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1677" uniqueCount="1249">
   <si>
     <t>序号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1294,14 +1294,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>评论</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分享</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>消息提醒</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1347,142 +1339,6 @@
   </si>
   <si>
     <t>特别关注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>戏文管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新建戏文</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改戏文</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除戏文</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分享戏文</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>保存戏文</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>戏文浏览</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>评价</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>打赏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>加精</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>相册</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>相册管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新建相册</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>编辑相册</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>相册浏览</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>礼物</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>礼物赠送</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>魅力榜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>魅力总榜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>魅力土豪榜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>同体榜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>个性化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>结婚</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>戒指赠送</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>戒指升级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户离婚</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>祝福墙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>换装系统</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>服装浏览</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>服装更换</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>服装商城</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>服装背包</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>会员系统</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宠物系统</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -4803,18 +4659,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>名朋小说</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>名朋小说入口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>名朋小说浏览</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>个人主页-添加好友跳转</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -5404,75 +5248,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>热门</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建小说</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我-名朋小说</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>标签切换</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开始阅读</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分享</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>名朋小说分享（专区、好友、微信、朋友圈、QQ等）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加小说封面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小说标题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>作品简介</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>作者署名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>作品标签</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>保存</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小说详情</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>投稿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小说编辑</t>
+    <t>评论(切换角色再操作一遍)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>语音聊天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长按“按住说话”反应时间慢。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前为按住说话时，切换app再切换回来未保留语音输入状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按住说话的UI细节调整</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每次启动app时，语音播放默认为听筒。app使用时保留最新一次语音播放设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>聊天气泡按压时无缺少按压效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>聊天气泡缺少动画。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5738,7 +5542,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5966,13 +5770,28 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5982,6 +5801,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6008,26 +5836,11 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -6036,16 +5849,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6053,23 +5857,32 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6897,171 +6710,171 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" ht="21" x14ac:dyDescent="0.2">
-      <c r="B2" s="83" t="s">
-        <v>995</v>
-      </c>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
-      <c r="G2" s="83"/>
-      <c r="H2" s="83"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84"/>
-      <c r="M2" s="84"/>
-      <c r="N2" s="84"/>
+      <c r="B2" s="91" t="s">
+        <v>959</v>
+      </c>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="92"/>
+      <c r="J2" s="92"/>
+      <c r="K2" s="92"/>
+      <c r="L2" s="92"/>
+      <c r="M2" s="92"/>
+      <c r="N2" s="92"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B3" s="24" t="s">
-        <v>913</v>
-      </c>
-      <c r="C3" s="77"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="79"/>
+        <v>877</v>
+      </c>
+      <c r="C3" s="88"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="90"/>
       <c r="H3" s="25" t="s">
-        <v>914</v>
-      </c>
-      <c r="I3" s="85"/>
-      <c r="J3" s="85"/>
-      <c r="K3" s="85"/>
-      <c r="L3" s="85"/>
-      <c r="M3" s="85"/>
-      <c r="N3" s="85"/>
+        <v>878</v>
+      </c>
+      <c r="I3" s="93"/>
+      <c r="J3" s="93"/>
+      <c r="K3" s="93"/>
+      <c r="L3" s="93"/>
+      <c r="M3" s="93"/>
+      <c r="N3" s="93"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B4" s="24" t="s">
-        <v>927</v>
-      </c>
-      <c r="C4" s="77"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="79"/>
+        <v>891</v>
+      </c>
+      <c r="C4" s="88"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="89"/>
+      <c r="F4" s="89"/>
+      <c r="G4" s="90"/>
       <c r="H4" s="25" t="s">
-        <v>915</v>
-      </c>
-      <c r="I4" s="85"/>
-      <c r="J4" s="85"/>
-      <c r="K4" s="85"/>
-      <c r="L4" s="85"/>
-      <c r="M4" s="85"/>
-      <c r="N4" s="85"/>
+        <v>879</v>
+      </c>
+      <c r="I4" s="93"/>
+      <c r="J4" s="93"/>
+      <c r="K4" s="93"/>
+      <c r="L4" s="93"/>
+      <c r="M4" s="93"/>
+      <c r="N4" s="93"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B5" s="86" t="s">
-        <v>916</v>
-      </c>
-      <c r="C5" s="88"/>
-      <c r="D5" s="89"/>
-      <c r="E5" s="89"/>
-      <c r="F5" s="89"/>
-      <c r="G5" s="89"/>
-      <c r="H5" s="89"/>
-      <c r="I5" s="89"/>
-      <c r="J5" s="90"/>
-      <c r="K5" s="78" t="s">
-        <v>917</v>
-      </c>
-      <c r="L5" s="78"/>
-      <c r="M5" s="78"/>
-      <c r="N5" s="79"/>
+      <c r="B5" s="94" t="s">
+        <v>880</v>
+      </c>
+      <c r="C5" s="96"/>
+      <c r="D5" s="97"/>
+      <c r="E5" s="97"/>
+      <c r="F5" s="97"/>
+      <c r="G5" s="97"/>
+      <c r="H5" s="97"/>
+      <c r="I5" s="97"/>
+      <c r="J5" s="98"/>
+      <c r="K5" s="89" t="s">
+        <v>881</v>
+      </c>
+      <c r="L5" s="89"/>
+      <c r="M5" s="89"/>
+      <c r="N5" s="90"/>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B6" s="87"/>
+      <c r="B6" s="95"/>
       <c r="C6" s="26" t="s">
-        <v>918</v>
+        <v>882</v>
       </c>
       <c r="D6" s="26"/>
       <c r="E6" s="26" t="s">
-        <v>919</v>
+        <v>883</v>
       </c>
       <c r="F6" s="26"/>
       <c r="G6" s="26" t="s">
-        <v>920</v>
+        <v>884</v>
       </c>
       <c r="H6" s="26"/>
       <c r="I6" s="27" t="s">
-        <v>921</v>
+        <v>885</v>
       </c>
       <c r="J6" s="27"/>
-      <c r="K6" s="77"/>
-      <c r="L6" s="78"/>
-      <c r="M6" s="78"/>
-      <c r="N6" s="79"/>
+      <c r="K6" s="88"/>
+      <c r="L6" s="89"/>
+      <c r="M6" s="89"/>
+      <c r="N6" s="90"/>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B7" s="24" t="s">
-        <v>922</v>
-      </c>
-      <c r="C7" s="91" t="s">
-        <v>923</v>
-      </c>
-      <c r="D7" s="91"/>
-      <c r="E7" s="91"/>
-      <c r="F7" s="91"/>
-      <c r="G7" s="91"/>
-      <c r="H7" s="91"/>
+        <v>886</v>
+      </c>
+      <c r="C7" s="81" t="s">
+        <v>887</v>
+      </c>
+      <c r="D7" s="81"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="81"/>
+      <c r="G7" s="81"/>
+      <c r="H7" s="81"/>
       <c r="I7" s="25" t="s">
-        <v>924</v>
+        <v>888</v>
       </c>
       <c r="J7" s="25" t="s">
-        <v>925</v>
-      </c>
-      <c r="K7" s="92" t="s">
-        <v>926</v>
-      </c>
-      <c r="L7" s="93"/>
-      <c r="M7" s="93"/>
-      <c r="N7" s="94"/>
+        <v>889</v>
+      </c>
+      <c r="K7" s="82" t="s">
+        <v>890</v>
+      </c>
+      <c r="L7" s="83"/>
+      <c r="M7" s="83"/>
+      <c r="N7" s="84"/>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B8" s="28"/>
-      <c r="C8" s="80"/>
-      <c r="D8" s="81"/>
-      <c r="E8" s="81"/>
-      <c r="F8" s="81"/>
-      <c r="G8" s="81"/>
-      <c r="H8" s="82"/>
+      <c r="C8" s="85"/>
+      <c r="D8" s="86"/>
+      <c r="E8" s="86"/>
+      <c r="F8" s="86"/>
+      <c r="G8" s="86"/>
+      <c r="H8" s="87"/>
       <c r="I8" s="27"/>
       <c r="J8" s="28"/>
-      <c r="K8" s="77"/>
-      <c r="L8" s="78"/>
-      <c r="M8" s="78"/>
-      <c r="N8" s="79"/>
+      <c r="K8" s="88"/>
+      <c r="L8" s="89"/>
+      <c r="M8" s="89"/>
+      <c r="N8" s="90"/>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B9" s="28"/>
-      <c r="C9" s="80"/>
-      <c r="D9" s="81"/>
-      <c r="E9" s="81"/>
-      <c r="F9" s="81"/>
-      <c r="G9" s="81"/>
-      <c r="H9" s="82"/>
+      <c r="C9" s="85"/>
+      <c r="D9" s="86"/>
+      <c r="E9" s="86"/>
+      <c r="F9" s="86"/>
+      <c r="G9" s="86"/>
+      <c r="H9" s="87"/>
       <c r="I9" s="27"/>
       <c r="J9" s="28"/>
-      <c r="K9" s="77"/>
-      <c r="L9" s="78"/>
-      <c r="M9" s="78"/>
-      <c r="N9" s="79"/>
+      <c r="K9" s="88"/>
+      <c r="L9" s="89"/>
+      <c r="M9" s="89"/>
+      <c r="N9" s="90"/>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B10" s="28"/>
-      <c r="C10" s="80"/>
-      <c r="D10" s="81"/>
-      <c r="E10" s="81"/>
-      <c r="F10" s="81"/>
-      <c r="G10" s="81"/>
-      <c r="H10" s="82"/>
+      <c r="C10" s="85"/>
+      <c r="D10" s="86"/>
+      <c r="E10" s="86"/>
+      <c r="F10" s="86"/>
+      <c r="G10" s="86"/>
+      <c r="H10" s="87"/>
       <c r="I10" s="27"/>
       <c r="J10" s="28"/>
-      <c r="K10" s="77"/>
-      <c r="L10" s="78"/>
-      <c r="M10" s="78"/>
-      <c r="N10" s="79"/>
+      <c r="K10" s="88"/>
+      <c r="L10" s="89"/>
+      <c r="M10" s="89"/>
+      <c r="N10" s="90"/>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B11" s="28"/>
@@ -7080,26 +6893,27 @@
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B12" s="28"/>
-      <c r="C12" s="77"/>
-      <c r="D12" s="78"/>
-      <c r="E12" s="78"/>
-      <c r="F12" s="78"/>
-      <c r="G12" s="78"/>
-      <c r="H12" s="79"/>
+      <c r="C12" s="88"/>
+      <c r="D12" s="89"/>
+      <c r="E12" s="89"/>
+      <c r="F12" s="89"/>
+      <c r="G12" s="89"/>
+      <c r="H12" s="90"/>
       <c r="I12" s="28"/>
       <c r="J12" s="28"/>
-      <c r="K12" s="77"/>
-      <c r="L12" s="78"/>
-      <c r="M12" s="78"/>
-      <c r="N12" s="79"/>
+      <c r="K12" s="88"/>
+      <c r="L12" s="89"/>
+      <c r="M12" s="89"/>
+      <c r="N12" s="90"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="K7:N7"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="K8:N8"/>
-    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="K9:N9"/>
+    <mergeCell ref="C10:H10"/>
+    <mergeCell ref="K10:N10"/>
+    <mergeCell ref="C12:H12"/>
+    <mergeCell ref="K12:N12"/>
+    <mergeCell ref="C9:H9"/>
     <mergeCell ref="B2:N2"/>
     <mergeCell ref="I3:N3"/>
     <mergeCell ref="C4:G4"/>
@@ -7108,12 +6922,11 @@
     <mergeCell ref="C5:J5"/>
     <mergeCell ref="K5:N5"/>
     <mergeCell ref="K6:N6"/>
-    <mergeCell ref="K9:N9"/>
-    <mergeCell ref="C10:H10"/>
-    <mergeCell ref="K10:N10"/>
-    <mergeCell ref="C12:H12"/>
-    <mergeCell ref="K12:N12"/>
-    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="K7:N7"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="K8:N8"/>
+    <mergeCell ref="C3:G3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C5:J5">
@@ -7155,24 +6968,24 @@
   <sheetData>
     <row r="1" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A1" s="35" t="s">
-        <v>928</v>
+        <v>892</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>929</v>
+        <v>893</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>930</v>
+        <v>894</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="35" t="s">
-        <v>931</v>
+        <v>895</v>
       </c>
       <c r="B2" s="36" t="s">
-        <v>932</v>
+        <v>896</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>933</v>
+        <v>897</v>
       </c>
     </row>
   </sheetData>
@@ -7234,7 +7047,7 @@
         <v>8</v>
       </c>
       <c r="J1" s="44" t="s">
-        <v>967</v>
+        <v>931</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -7426,9 +7239,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D80" sqref="D80"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H97" sqref="H97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7474,20 +7287,20 @@
         <v>8</v>
       </c>
       <c r="J1" s="62" t="s">
-        <v>994</v>
+        <v>958</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A2" s="12">
         <v>1</v>
       </c>
-      <c r="B2" s="98" t="s">
+      <c r="B2" s="101" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="98" t="s">
+      <c r="C2" s="101" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="98" t="s">
+      <c r="D2" s="101" t="s">
         <v>10</v>
       </c>
       <c r="E2" s="12" t="s">
@@ -7507,9 +7320,9 @@
       <c r="A3" s="12">
         <v>2</v>
       </c>
-      <c r="B3" s="99"/>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
+      <c r="B3" s="102"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="99"/>
       <c r="E3" s="12" t="s">
         <v>18</v>
       </c>
@@ -7527,9 +7340,9 @@
       <c r="A4" s="12">
         <v>3</v>
       </c>
-      <c r="B4" s="99"/>
-      <c r="C4" s="95"/>
-      <c r="D4" s="95"/>
+      <c r="B4" s="102"/>
+      <c r="C4" s="99"/>
+      <c r="D4" s="99"/>
       <c r="E4" s="12" t="s">
         <v>26</v>
       </c>
@@ -7547,9 +7360,9 @@
       <c r="A5" s="12">
         <v>4</v>
       </c>
-      <c r="B5" s="99"/>
-      <c r="C5" s="95"/>
-      <c r="D5" s="95"/>
+      <c r="B5" s="102"/>
+      <c r="C5" s="99"/>
+      <c r="D5" s="99"/>
       <c r="E5" s="12" t="s">
         <v>22</v>
       </c>
@@ -7567,8 +7380,8 @@
       <c r="A6" s="12">
         <v>5</v>
       </c>
-      <c r="B6" s="99"/>
-      <c r="C6" s="95" t="s">
+      <c r="B6" s="102"/>
+      <c r="C6" s="99" t="s">
         <v>24</v>
       </c>
       <c r="D6" s="12" t="s">
@@ -7591,8 +7404,8 @@
       <c r="A7" s="12">
         <v>6</v>
       </c>
-      <c r="B7" s="99"/>
-      <c r="C7" s="95"/>
+      <c r="B7" s="102"/>
+      <c r="C7" s="99"/>
       <c r="D7" s="12" t="s">
         <v>55</v>
       </c>
@@ -7613,8 +7426,8 @@
       <c r="A8" s="12">
         <v>7</v>
       </c>
-      <c r="B8" s="99"/>
-      <c r="C8" s="95"/>
+      <c r="B8" s="102"/>
+      <c r="C8" s="99"/>
       <c r="D8" s="12" t="s">
         <v>25</v>
       </c>
@@ -7635,9 +7448,9 @@
       <c r="A9" s="12">
         <v>8</v>
       </c>
-      <c r="B9" s="99"/>
-      <c r="C9" s="95"/>
-      <c r="D9" s="95" t="s">
+      <c r="B9" s="102"/>
+      <c r="C9" s="99"/>
+      <c r="D9" s="99" t="s">
         <v>32</v>
       </c>
       <c r="E9" s="12" t="s">
@@ -7657,9 +7470,9 @@
       <c r="A10" s="12">
         <v>9</v>
       </c>
-      <c r="B10" s="99"/>
-      <c r="C10" s="95"/>
-      <c r="D10" s="95"/>
+      <c r="B10" s="102"/>
+      <c r="C10" s="99"/>
+      <c r="D10" s="99"/>
       <c r="E10" s="12" t="s">
         <v>34</v>
       </c>
@@ -7677,8 +7490,8 @@
       <c r="A11" s="12">
         <v>10</v>
       </c>
-      <c r="B11" s="99"/>
-      <c r="C11" s="95"/>
+      <c r="B11" s="102"/>
+      <c r="C11" s="99"/>
       <c r="D11" s="12" t="s">
         <v>37</v>
       </c>
@@ -7699,8 +7512,8 @@
       <c r="A12" s="12">
         <v>11</v>
       </c>
-      <c r="B12" s="99"/>
-      <c r="C12" s="95"/>
+      <c r="B12" s="102"/>
+      <c r="C12" s="99"/>
       <c r="D12" s="12" t="s">
         <v>45</v>
       </c>
@@ -7721,8 +7534,8 @@
       <c r="A13" s="12">
         <v>12</v>
       </c>
-      <c r="B13" s="99"/>
-      <c r="C13" s="95" t="s">
+      <c r="B13" s="102"/>
+      <c r="C13" s="99" t="s">
         <v>49</v>
       </c>
       <c r="D13" s="12" t="s">
@@ -7745,8 +7558,8 @@
       <c r="A14" s="12">
         <v>13</v>
       </c>
-      <c r="B14" s="99"/>
-      <c r="C14" s="95"/>
+      <c r="B14" s="102"/>
+      <c r="C14" s="99"/>
       <c r="D14" s="12" t="s">
         <v>58</v>
       </c>
@@ -7767,8 +7580,8 @@
       <c r="A15" s="12">
         <v>14</v>
       </c>
-      <c r="B15" s="99"/>
-      <c r="C15" s="95"/>
+      <c r="B15" s="102"/>
+      <c r="C15" s="99"/>
       <c r="D15" s="12" t="s">
         <v>59</v>
       </c>
@@ -7789,10 +7602,10 @@
       <c r="A16" s="12">
         <v>15</v>
       </c>
-      <c r="B16" s="95" t="s">
+      <c r="B16" s="99" t="s">
         <v>65</v>
       </c>
-      <c r="C16" s="95" t="s">
+      <c r="C16" s="99" t="s">
         <v>69</v>
       </c>
       <c r="D16" s="12" t="s">
@@ -7812,13 +7625,13 @@
       <c r="A17" s="12">
         <v>16</v>
       </c>
-      <c r="B17" s="95"/>
-      <c r="C17" s="95"/>
-      <c r="D17" s="96" t="s">
+      <c r="B17" s="99"/>
+      <c r="C17" s="99"/>
+      <c r="D17" s="100" t="s">
         <v>71</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>899</v>
+        <v>863</v>
       </c>
       <c r="G17" s="12" t="s">
         <v>73</v>
@@ -7831,11 +7644,11 @@
       <c r="A18" s="12">
         <v>17</v>
       </c>
-      <c r="B18" s="95"/>
-      <c r="C18" s="95"/>
-      <c r="D18" s="96"/>
+      <c r="B18" s="99"/>
+      <c r="C18" s="99"/>
+      <c r="D18" s="100"/>
       <c r="E18" s="21" t="s">
-        <v>900</v>
+        <v>864</v>
       </c>
       <c r="G18" s="12" t="s">
         <v>67</v>
@@ -7848,11 +7661,11 @@
       <c r="A19" s="12">
         <v>18</v>
       </c>
-      <c r="B19" s="95"/>
-      <c r="C19" s="95"/>
-      <c r="D19" s="96"/>
+      <c r="B19" s="99"/>
+      <c r="C19" s="99"/>
+      <c r="D19" s="100"/>
       <c r="E19" s="21" t="s">
-        <v>901</v>
+        <v>865</v>
       </c>
       <c r="G19" s="12" t="s">
         <v>74</v>
@@ -7865,9 +7678,9 @@
       <c r="A20" s="12">
         <v>19</v>
       </c>
-      <c r="B20" s="95"/>
-      <c r="C20" s="95"/>
-      <c r="D20" s="96"/>
+      <c r="B20" s="99"/>
+      <c r="C20" s="99"/>
+      <c r="D20" s="100"/>
       <c r="E20" s="12" t="s">
         <v>68</v>
       </c>
@@ -7879,248 +7692,248 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C21" s="95" t="s">
-        <v>983</v>
+      <c r="C21" s="99" t="s">
+        <v>947</v>
       </c>
       <c r="D21" s="21" t="s">
-        <v>984</v>
+        <v>948</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C22" s="95"/>
+      <c r="C22" s="99"/>
       <c r="D22" s="21" t="s">
-        <v>985</v>
+        <v>949</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C23" s="95"/>
+      <c r="C23" s="99"/>
       <c r="D23" s="21" t="s">
-        <v>986</v>
+        <v>950</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C24" s="95"/>
+      <c r="C24" s="99"/>
       <c r="D24" s="21" t="s">
-        <v>987</v>
+        <v>951</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C25" s="95"/>
+      <c r="C25" s="99"/>
       <c r="D25" s="21" t="s">
-        <v>988</v>
+        <v>952</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C26" s="95" t="s">
-        <v>336</v>
+      <c r="C26" s="99" t="s">
+        <v>300</v>
       </c>
       <c r="D26" s="21" t="s">
-        <v>989</v>
+        <v>953</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B27" s="95" t="s">
-        <v>797</v>
-      </c>
-      <c r="C27" s="95"/>
+      <c r="B27" s="99" t="s">
+        <v>761</v>
+      </c>
+      <c r="C27" s="99"/>
       <c r="D27" s="21" t="s">
-        <v>934</v>
+        <v>898</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B28" s="95"/>
-      <c r="C28" s="95"/>
+      <c r="B28" s="99"/>
+      <c r="C28" s="99"/>
       <c r="D28" s="21" t="s">
-        <v>935</v>
+        <v>899</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="B29" s="95"/>
-      <c r="C29" s="95"/>
-      <c r="D29" s="96" t="s">
-        <v>936</v>
+      <c r="B29" s="99"/>
+      <c r="C29" s="99"/>
+      <c r="D29" s="100" t="s">
+        <v>900</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>1056</v>
+        <v>1020</v>
       </c>
       <c r="F29" s="64"/>
       <c r="G29" s="12" t="s">
-        <v>1066</v>
+        <v>1030</v>
       </c>
       <c r="H29" s="65" t="s">
-        <v>1057</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="B30" s="95"/>
-      <c r="C30" s="95"/>
-      <c r="D30" s="96"/>
-      <c r="E30" s="95" t="s">
-        <v>1047</v>
+      <c r="B30" s="99"/>
+      <c r="C30" s="99"/>
+      <c r="D30" s="100"/>
+      <c r="E30" s="99" t="s">
+        <v>1011</v>
       </c>
       <c r="F30" s="64"/>
       <c r="G30" s="12" t="s">
-        <v>1065</v>
+        <v>1029</v>
       </c>
       <c r="H30" s="65" t="s">
-        <v>1048</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="B31" s="95"/>
-      <c r="C31" s="95"/>
-      <c r="D31" s="96"/>
-      <c r="E31" s="95"/>
+      <c r="B31" s="99"/>
+      <c r="C31" s="99"/>
+      <c r="D31" s="100"/>
+      <c r="E31" s="99"/>
       <c r="F31" s="64"/>
       <c r="G31" s="12" t="s">
-        <v>1064</v>
+        <v>1028</v>
       </c>
       <c r="H31" s="65" t="s">
-        <v>1049</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="B32" s="95"/>
-      <c r="C32" s="95"/>
-      <c r="D32" s="96"/>
-      <c r="E32" s="95" t="s">
-        <v>1050</v>
+      <c r="B32" s="99"/>
+      <c r="C32" s="99"/>
+      <c r="D32" s="100"/>
+      <c r="E32" s="99" t="s">
+        <v>1014</v>
       </c>
       <c r="F32" s="64"/>
       <c r="G32" s="12" t="s">
-        <v>1063</v>
+        <v>1027</v>
       </c>
       <c r="H32" s="65" t="s">
-        <v>1051</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="B33" s="95"/>
-      <c r="C33" s="95"/>
-      <c r="D33" s="96"/>
-      <c r="E33" s="95"/>
+      <c r="B33" s="99"/>
+      <c r="C33" s="99"/>
+      <c r="D33" s="100"/>
+      <c r="E33" s="99"/>
       <c r="F33" s="64"/>
       <c r="G33" s="12" t="s">
-        <v>1062</v>
+        <v>1026</v>
       </c>
       <c r="H33" s="65" t="s">
-        <v>1052</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="57" x14ac:dyDescent="0.2">
       <c r="A34" s="12">
         <v>20</v>
       </c>
-      <c r="B34" s="95"/>
-      <c r="C34" s="95"/>
-      <c r="D34" s="96"/>
+      <c r="B34" s="99"/>
+      <c r="C34" s="99"/>
+      <c r="D34" s="100"/>
       <c r="E34" s="12" t="s">
-        <v>1053</v>
+        <v>1017</v>
       </c>
       <c r="G34" s="12" t="s">
-        <v>1061</v>
+        <v>1025</v>
       </c>
       <c r="H34" s="65" t="s">
-        <v>1067</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="B35" s="95"/>
-      <c r="C35" s="95"/>
-      <c r="D35" s="96"/>
+      <c r="B35" s="99"/>
+      <c r="C35" s="99"/>
+      <c r="D35" s="100"/>
       <c r="E35" s="12" t="s">
-        <v>1054</v>
+        <v>1018</v>
       </c>
       <c r="F35" s="64"/>
       <c r="G35" s="12" t="s">
-        <v>1060</v>
+        <v>1024</v>
       </c>
       <c r="H35" s="65" t="s">
-        <v>1058</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="B36" s="95"/>
-      <c r="C36" s="95"/>
-      <c r="D36" s="96"/>
+      <c r="B36" s="99"/>
+      <c r="C36" s="99"/>
+      <c r="D36" s="100"/>
       <c r="E36" s="12" t="s">
-        <v>1055</v>
+        <v>1019</v>
       </c>
       <c r="F36" s="64"/>
       <c r="G36" s="12" t="s">
-        <v>1059</v>
+        <v>1023</v>
       </c>
       <c r="H36" s="65" t="s">
-        <v>1055</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B37" s="95"/>
-      <c r="C37" s="95"/>
+      <c r="B37" s="99"/>
+      <c r="C37" s="99"/>
       <c r="D37" s="21" t="s">
-        <v>937</v>
+        <v>901</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B38" s="95"/>
-      <c r="C38" s="95"/>
+      <c r="B38" s="99"/>
+      <c r="C38" s="99"/>
       <c r="D38" s="21" t="s">
-        <v>938</v>
+        <v>902</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B39" s="95"/>
-      <c r="C39" s="95"/>
+      <c r="B39" s="99"/>
+      <c r="C39" s="99"/>
       <c r="D39" s="21" t="s">
-        <v>939</v>
+        <v>903</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B40" s="95"/>
-      <c r="C40" s="95"/>
+      <c r="B40" s="99"/>
+      <c r="C40" s="99"/>
       <c r="D40" s="21" t="s">
-        <v>940</v>
+        <v>904</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B41" s="95"/>
-      <c r="C41" s="95"/>
+      <c r="B41" s="99"/>
+      <c r="C41" s="99"/>
       <c r="D41" s="12" t="s">
-        <v>941</v>
+        <v>905</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B42" s="95"/>
-      <c r="C42" s="95"/>
+      <c r="B42" s="99"/>
+      <c r="C42" s="99"/>
       <c r="D42" s="12" t="s">
-        <v>990</v>
+        <v>954</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B43" s="95"/>
-      <c r="C43" s="95"/>
+      <c r="B43" s="99"/>
+      <c r="C43" s="99"/>
       <c r="D43" s="12" t="s">
-        <v>991</v>
+        <v>955</v>
       </c>
       <c r="E43" s="12" t="s">
-        <v>1137</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B44" s="95"/>
-      <c r="C44" s="95"/>
+      <c r="B44" s="99"/>
+      <c r="C44" s="99"/>
       <c r="D44" s="12" t="s">
-        <v>992</v>
+        <v>956</v>
       </c>
       <c r="E44" s="70" t="s">
-        <v>1138</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="70"/>
-      <c r="B45" s="95"/>
+      <c r="B45" s="99"/>
       <c r="C45" s="12" t="s">
-        <v>337</v>
+        <v>301</v>
       </c>
       <c r="D45" s="70"/>
       <c r="E45" s="70"/>
@@ -8132,1101 +7945,1115 @@
       <c r="A46" s="12">
         <v>21</v>
       </c>
-      <c r="B46" s="95"/>
-      <c r="C46" s="97" t="s">
-        <v>338</v>
+      <c r="B46" s="99"/>
+      <c r="C46" s="103" t="s">
+        <v>302</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>942</v>
+        <v>906</v>
       </c>
       <c r="E46" s="64"/>
       <c r="G46" s="12" t="s">
-        <v>840</v>
+        <v>804</v>
       </c>
       <c r="H46" s="12" t="s">
-        <v>841</v>
+        <v>805</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A47" s="12">
         <v>22</v>
       </c>
-      <c r="B47" s="95"/>
-      <c r="C47" s="97"/>
+      <c r="B47" s="99"/>
+      <c r="C47" s="103"/>
       <c r="D47" s="12" t="s">
-        <v>943</v>
+        <v>907</v>
       </c>
       <c r="E47" s="64"/>
       <c r="G47" s="12" t="s">
-        <v>759</v>
+        <v>723</v>
       </c>
       <c r="H47" s="12" t="s">
-        <v>760</v>
+        <v>724</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="12">
         <v>23</v>
       </c>
-      <c r="B48" s="95"/>
-      <c r="C48" s="97"/>
+      <c r="B48" s="99"/>
+      <c r="C48" s="103"/>
       <c r="D48" s="12" t="s">
-        <v>944</v>
+        <v>908</v>
       </c>
       <c r="E48" s="64"/>
       <c r="G48" s="12" t="s">
-        <v>756</v>
+        <v>720</v>
       </c>
       <c r="H48" s="12" t="s">
-        <v>763</v>
+        <v>727</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="12">
         <v>24</v>
       </c>
-      <c r="B49" s="95"/>
-      <c r="C49" s="97"/>
+      <c r="B49" s="99"/>
+      <c r="C49" s="103"/>
       <c r="D49" s="12" t="s">
-        <v>945</v>
+        <v>909</v>
       </c>
       <c r="E49" s="64"/>
       <c r="G49" s="12" t="s">
-        <v>755</v>
+        <v>719</v>
       </c>
       <c r="H49" s="12" t="s">
-        <v>763</v>
+        <v>727</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A50" s="12">
         <v>25</v>
       </c>
-      <c r="B50" s="95"/>
-      <c r="C50" s="97"/>
+      <c r="B50" s="99"/>
+      <c r="C50" s="103"/>
       <c r="D50" s="12" t="s">
-        <v>946</v>
+        <v>910</v>
       </c>
       <c r="E50" s="64"/>
       <c r="G50" s="12" t="s">
-        <v>768</v>
+        <v>732</v>
       </c>
       <c r="H50" s="12" t="s">
-        <v>762</v>
+        <v>726</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A51" s="12">
         <v>26</v>
       </c>
-      <c r="B51" s="95"/>
-      <c r="C51" s="97"/>
+      <c r="B51" s="99"/>
+      <c r="C51" s="103"/>
       <c r="D51" s="12" t="s">
-        <v>947</v>
+        <v>911</v>
       </c>
       <c r="E51" s="64"/>
       <c r="G51" s="12" t="s">
-        <v>761</v>
+        <v>725</v>
       </c>
       <c r="H51" s="12" t="s">
-        <v>762</v>
+        <v>726</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A52" s="12">
         <v>27</v>
       </c>
-      <c r="B52" s="95"/>
-      <c r="C52" s="97"/>
+      <c r="B52" s="99"/>
+      <c r="C52" s="103"/>
       <c r="D52" s="12" t="s">
-        <v>948</v>
+        <v>912</v>
       </c>
       <c r="E52" s="64"/>
       <c r="G52" s="12" t="s">
-        <v>771</v>
+        <v>735</v>
       </c>
       <c r="H52" s="12" t="s">
-        <v>762</v>
+        <v>726</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A53" s="12">
         <v>28</v>
       </c>
-      <c r="B53" s="95"/>
-      <c r="C53" s="97"/>
+      <c r="B53" s="99"/>
+      <c r="C53" s="103"/>
       <c r="D53" s="12" t="s">
-        <v>949</v>
+        <v>913</v>
       </c>
       <c r="E53" s="64"/>
       <c r="G53" s="12" t="s">
-        <v>772</v>
+        <v>736</v>
       </c>
       <c r="H53" s="12" t="s">
-        <v>762</v>
+        <v>726</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A54" s="12">
         <v>29</v>
       </c>
-      <c r="B54" s="95"/>
-      <c r="C54" s="97"/>
+      <c r="B54" s="99"/>
+      <c r="C54" s="103"/>
       <c r="D54" s="12" t="s">
-        <v>782</v>
+        <v>746</v>
       </c>
       <c r="E54" s="12" t="s">
-        <v>839</v>
+        <v>803</v>
       </c>
       <c r="F54" s="12" t="s">
-        <v>782</v>
+        <v>746</v>
       </c>
       <c r="G54" s="12" t="s">
-        <v>784</v>
+        <v>748</v>
       </c>
       <c r="H54" s="12" t="s">
-        <v>781</v>
+        <v>745</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="12">
         <v>30</v>
       </c>
-      <c r="B55" s="95"/>
-      <c r="C55" s="97"/>
-      <c r="D55" s="95" t="s">
-        <v>765</v>
+      <c r="B55" s="99"/>
+      <c r="C55" s="103"/>
+      <c r="D55" s="99" t="s">
+        <v>729</v>
       </c>
       <c r="E55" s="12" t="s">
-        <v>774</v>
+        <v>738</v>
       </c>
       <c r="F55" s="12" t="s">
-        <v>766</v>
+        <v>730</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A56" s="12">
         <v>31</v>
       </c>
-      <c r="B56" s="95"/>
-      <c r="C56" s="97"/>
-      <c r="D56" s="95"/>
+      <c r="B56" s="99"/>
+      <c r="C56" s="103"/>
+      <c r="D56" s="99"/>
       <c r="E56" s="12" t="s">
-        <v>775</v>
+        <v>739</v>
       </c>
       <c r="F56" s="12" t="s">
-        <v>769</v>
+        <v>733</v>
       </c>
       <c r="G56" s="65" t="s">
-        <v>788</v>
+        <v>752</v>
       </c>
       <c r="H56" s="12" t="s">
-        <v>789</v>
+        <v>753</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A57" s="12">
         <v>32</v>
       </c>
-      <c r="B57" s="95"/>
-      <c r="C57" s="97"/>
-      <c r="D57" s="95"/>
+      <c r="B57" s="99"/>
+      <c r="C57" s="103"/>
+      <c r="D57" s="99"/>
       <c r="E57" s="12" t="s">
-        <v>776</v>
+        <v>740</v>
       </c>
       <c r="F57" s="12" t="s">
-        <v>770</v>
+        <v>734</v>
       </c>
       <c r="G57" s="65" t="s">
-        <v>792</v>
+        <v>756</v>
       </c>
       <c r="H57" s="12" t="s">
-        <v>757</v>
+        <v>721</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="12">
         <v>33</v>
       </c>
-      <c r="B58" s="95"/>
+      <c r="B58" s="99"/>
       <c r="C58" s="12" t="s">
-        <v>339</v>
-      </c>
-      <c r="D58" s="95" t="s">
-        <v>764</v>
+        <v>303</v>
+      </c>
+      <c r="D58" s="99" t="s">
+        <v>728</v>
       </c>
       <c r="E58" s="12" t="s">
-        <v>777</v>
+        <v>741</v>
       </c>
       <c r="F58" s="12" t="s">
-        <v>767</v>
+        <v>731</v>
       </c>
       <c r="G58" s="65" t="s">
-        <v>794</v>
+        <v>758</v>
       </c>
       <c r="H58" s="12" t="s">
-        <v>795</v>
+        <v>759</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="12">
         <v>34</v>
       </c>
-      <c r="B59" s="95"/>
+      <c r="B59" s="99"/>
       <c r="C59" s="12" t="s">
-        <v>340</v>
-      </c>
-      <c r="D59" s="95"/>
+        <v>304</v>
+      </c>
+      <c r="D59" s="99"/>
       <c r="E59" s="12" t="s">
-        <v>778</v>
+        <v>742</v>
       </c>
       <c r="F59" s="12" t="s">
-        <v>758</v>
+        <v>722</v>
       </c>
       <c r="G59" s="12" t="s">
-        <v>798</v>
+        <v>762</v>
       </c>
       <c r="H59" s="12" t="s">
-        <v>799</v>
+        <v>763</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A60" s="12">
         <v>35</v>
       </c>
-      <c r="B60" s="95"/>
+      <c r="B60" s="99"/>
       <c r="C60" s="12" t="s">
-        <v>341</v>
-      </c>
-      <c r="D60" s="95"/>
+        <v>305</v>
+      </c>
+      <c r="D60" s="99"/>
       <c r="E60" s="12" t="s">
-        <v>779</v>
+        <v>743</v>
       </c>
       <c r="F60" s="12" t="s">
-        <v>769</v>
+        <v>733</v>
       </c>
       <c r="G60" s="12" t="s">
-        <v>801</v>
+        <v>765</v>
       </c>
       <c r="H60" s="12" t="s">
-        <v>802</v>
+        <v>766</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A61" s="12">
         <v>36</v>
       </c>
-      <c r="B61" s="95"/>
-      <c r="C61" s="95" t="s">
-        <v>342</v>
-      </c>
-      <c r="D61" s="95"/>
+      <c r="B61" s="99"/>
+      <c r="C61" s="99" t="s">
+        <v>306</v>
+      </c>
+      <c r="D61" s="99"/>
       <c r="E61" s="12" t="s">
-        <v>780</v>
+        <v>744</v>
       </c>
       <c r="F61" s="12" t="s">
-        <v>770</v>
+        <v>734</v>
       </c>
       <c r="G61" s="12" t="s">
-        <v>808</v>
+        <v>772</v>
       </c>
       <c r="H61" s="12" t="s">
-        <v>809</v>
+        <v>773</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A62" s="12">
         <v>37</v>
       </c>
-      <c r="B62" s="95"/>
-      <c r="C62" s="95"/>
+      <c r="B62" s="99"/>
+      <c r="C62" s="99"/>
       <c r="D62" s="12" t="s">
-        <v>773</v>
+        <v>737</v>
       </c>
       <c r="E62" s="12" t="s">
-        <v>783</v>
+        <v>747</v>
       </c>
       <c r="F62" s="12" t="s">
-        <v>782</v>
+        <v>746</v>
       </c>
       <c r="G62" s="12" t="s">
-        <v>814</v>
+        <v>778</v>
       </c>
       <c r="H62" s="12" t="s">
-        <v>816</v>
+        <v>780</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="57" x14ac:dyDescent="0.2">
       <c r="A63" s="12">
         <v>38</v>
       </c>
-      <c r="B63" s="95"/>
-      <c r="C63" s="95"/>
+      <c r="B63" s="99"/>
+      <c r="C63" s="99"/>
       <c r="D63" s="12" t="s">
-        <v>786</v>
+        <v>750</v>
       </c>
       <c r="E63" s="65" t="s">
-        <v>785</v>
+        <v>749</v>
       </c>
       <c r="G63" s="12" t="s">
-        <v>815</v>
+        <v>779</v>
       </c>
       <c r="H63" s="12" t="s">
-        <v>817</v>
+        <v>781</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="12">
         <v>39</v>
       </c>
-      <c r="B64" s="95"/>
-      <c r="C64" s="95"/>
-      <c r="D64" s="95" t="s">
-        <v>787</v>
+      <c r="B64" s="99"/>
+      <c r="C64" s="99"/>
+      <c r="D64" s="99" t="s">
+        <v>751</v>
       </c>
       <c r="E64" s="12" t="s">
-        <v>787</v>
+        <v>751</v>
       </c>
       <c r="F64" s="12" t="s">
-        <v>782</v>
+        <v>746</v>
       </c>
       <c r="G64" s="12" t="s">
-        <v>810</v>
+        <v>774</v>
       </c>
       <c r="H64" s="12" t="s">
-        <v>811</v>
+        <v>775</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="12">
         <v>40</v>
       </c>
-      <c r="B65" s="95"/>
-      <c r="C65" s="95" t="s">
-        <v>820</v>
-      </c>
-      <c r="D65" s="95"/>
+      <c r="B65" s="99"/>
+      <c r="C65" s="99" t="s">
+        <v>784</v>
+      </c>
+      <c r="D65" s="99"/>
       <c r="E65" s="12" t="s">
-        <v>790</v>
+        <v>754</v>
       </c>
       <c r="F65" s="12" t="s">
-        <v>791</v>
+        <v>755</v>
       </c>
       <c r="G65" s="64" t="s">
-        <v>822</v>
+        <v>786</v>
       </c>
       <c r="H65" s="12" t="s">
-        <v>823</v>
+        <v>787</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A66" s="12">
         <v>41</v>
       </c>
-      <c r="B66" s="95"/>
-      <c r="C66" s="95"/>
+      <c r="B66" s="99"/>
+      <c r="C66" s="99"/>
       <c r="D66" s="12" t="s">
-        <v>782</v>
+        <v>746</v>
       </c>
       <c r="E66" s="12" t="s">
-        <v>793</v>
+        <v>757</v>
       </c>
       <c r="F66" s="12" t="s">
-        <v>782</v>
+        <v>746</v>
       </c>
       <c r="G66" s="12" t="s">
-        <v>826</v>
+        <v>790</v>
       </c>
       <c r="H66" s="12" t="s">
-        <v>828</v>
+        <v>792</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A67" s="12">
         <v>42</v>
       </c>
-      <c r="B67" s="95"/>
-      <c r="C67" s="95"/>
+      <c r="B67" s="99"/>
+      <c r="C67" s="99"/>
       <c r="D67" s="12" t="s">
-        <v>782</v>
+        <v>746</v>
       </c>
       <c r="E67" s="12" t="s">
-        <v>796</v>
+        <v>760</v>
       </c>
       <c r="F67" s="12" t="s">
-        <v>782</v>
+        <v>746</v>
       </c>
       <c r="G67" s="12" t="s">
-        <v>827</v>
+        <v>791</v>
       </c>
       <c r="H67" s="12" t="s">
-        <v>829</v>
+        <v>793</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="12">
         <v>43</v>
       </c>
-      <c r="B68" s="95"/>
+      <c r="B68" s="99"/>
       <c r="C68" s="12" t="s">
-        <v>343</v>
+        <v>307</v>
       </c>
       <c r="D68" s="12" t="s">
-        <v>782</v>
+        <v>746</v>
       </c>
       <c r="E68" s="12" t="s">
-        <v>800</v>
+        <v>764</v>
       </c>
       <c r="F68" s="12" t="s">
-        <v>782</v>
+        <v>746</v>
       </c>
       <c r="G68" s="12" t="s">
-        <v>831</v>
+        <v>795</v>
       </c>
       <c r="H68" s="12" t="s">
-        <v>832</v>
+        <v>796</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="12">
         <v>44</v>
       </c>
-      <c r="B69" s="95"/>
-      <c r="C69" s="95" t="s">
-        <v>344</v>
+      <c r="B69" s="99"/>
+      <c r="C69" s="99" t="s">
+        <v>308</v>
       </c>
       <c r="D69" s="12" t="s">
-        <v>807</v>
+        <v>771</v>
       </c>
       <c r="E69" s="12" t="s">
-        <v>803</v>
+        <v>767</v>
       </c>
       <c r="F69" s="12" t="s">
-        <v>782</v>
+        <v>746</v>
       </c>
       <c r="G69" s="12" t="s">
-        <v>838</v>
+        <v>802</v>
       </c>
       <c r="H69" s="12" t="s">
-        <v>842</v>
+        <v>806</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A70" s="12">
         <v>45</v>
       </c>
-      <c r="B70" s="95"/>
-      <c r="C70" s="95"/>
+      <c r="B70" s="99"/>
+      <c r="C70" s="99"/>
       <c r="D70" s="12" t="s">
-        <v>804</v>
+        <v>768</v>
       </c>
       <c r="E70" s="12" t="s">
-        <v>813</v>
+        <v>777</v>
       </c>
       <c r="F70" s="12" t="s">
-        <v>782</v>
+        <v>746</v>
       </c>
       <c r="G70" s="12" t="s">
-        <v>843</v>
+        <v>807</v>
       </c>
       <c r="H70" s="12" t="s">
-        <v>844</v>
+        <v>808</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" s="12">
         <v>46</v>
       </c>
-      <c r="B71" s="95"/>
-      <c r="C71" s="95"/>
+      <c r="B71" s="99"/>
+      <c r="C71" s="99"/>
       <c r="D71" s="12" t="s">
-        <v>805</v>
+        <v>769</v>
       </c>
       <c r="E71" s="12" t="s">
-        <v>812</v>
+        <v>776</v>
       </c>
       <c r="F71" s="12" t="s">
-        <v>782</v>
+        <v>746</v>
       </c>
       <c r="G71" s="12" t="s">
-        <v>782</v>
+        <v>746</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" s="12">
         <v>47</v>
       </c>
-      <c r="B72" s="95"/>
-      <c r="C72" s="95"/>
+      <c r="B72" s="99"/>
+      <c r="C72" s="99"/>
       <c r="D72" s="12" t="s">
-        <v>806</v>
+        <v>770</v>
       </c>
       <c r="E72" s="12" t="s">
-        <v>810</v>
+        <v>774</v>
       </c>
       <c r="F72" s="12" t="s">
-        <v>782</v>
+        <v>746</v>
       </c>
       <c r="G72" s="12" t="s">
-        <v>782</v>
+        <v>746</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A73" s="12">
         <v>48</v>
       </c>
-      <c r="B73" s="95"/>
-      <c r="C73" s="95"/>
+      <c r="B73" s="99"/>
+      <c r="C73" s="99"/>
       <c r="D73" s="12" t="s">
-        <v>821</v>
+        <v>785</v>
       </c>
       <c r="E73" s="12" t="s">
-        <v>821</v>
+        <v>785</v>
       </c>
       <c r="F73" s="12" t="s">
-        <v>782</v>
+        <v>746</v>
       </c>
       <c r="G73" s="12" t="s">
-        <v>845</v>
+        <v>809</v>
       </c>
       <c r="H73" s="12" t="s">
-        <v>846</v>
+        <v>810</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A74" s="12">
         <v>49</v>
       </c>
-      <c r="B74" s="95"/>
+      <c r="B74" s="99"/>
       <c r="C74" s="12" t="s">
-        <v>345</v>
+        <v>309</v>
       </c>
       <c r="D74" s="12" t="s">
-        <v>818</v>
+        <v>782</v>
       </c>
       <c r="E74" s="12" t="s">
-        <v>824</v>
+        <v>788</v>
       </c>
       <c r="F74" s="12" t="s">
-        <v>782</v>
+        <v>746</v>
       </c>
       <c r="G74" s="12" t="s">
-        <v>849</v>
+        <v>813</v>
       </c>
       <c r="H74" s="12" t="s">
-        <v>848</v>
+        <v>812</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" s="12">
         <v>50</v>
       </c>
-      <c r="B75" s="95"/>
-      <c r="C75" s="95" t="s">
-        <v>346</v>
+      <c r="B75" s="99"/>
+      <c r="C75" s="99" t="s">
+        <v>310</v>
       </c>
       <c r="D75" s="12" t="s">
+        <v>783</v>
+      </c>
+      <c r="E75" s="12" t="s">
+        <v>789</v>
+      </c>
+      <c r="F75" s="12" t="s">
+        <v>746</v>
+      </c>
+      <c r="G75" s="64" t="s">
+        <v>820</v>
+      </c>
+      <c r="H75" s="12" t="s">
         <v>819</v>
-      </c>
-      <c r="E75" s="12" t="s">
-        <v>825</v>
-      </c>
-      <c r="F75" s="12" t="s">
-        <v>782</v>
-      </c>
-      <c r="G75" s="64" t="s">
-        <v>856</v>
-      </c>
-      <c r="H75" s="12" t="s">
-        <v>855</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="12">
         <v>51</v>
       </c>
-      <c r="B76" s="95"/>
-      <c r="C76" s="95"/>
+      <c r="B76" s="99"/>
+      <c r="C76" s="99"/>
       <c r="D76" s="12" t="s">
-        <v>782</v>
+        <v>746</v>
       </c>
       <c r="E76" s="12" t="s">
-        <v>830</v>
+        <v>794</v>
       </c>
       <c r="F76" s="12" t="s">
-        <v>782</v>
+        <v>746</v>
       </c>
       <c r="G76" s="12" t="s">
-        <v>857</v>
+        <v>821</v>
       </c>
       <c r="H76" s="64" t="s">
-        <v>854</v>
+        <v>818</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" s="12">
         <v>52</v>
       </c>
-      <c r="B77" s="95"/>
-      <c r="C77" s="95"/>
+      <c r="B77" s="99"/>
+      <c r="C77" s="99"/>
       <c r="D77" s="12" t="s">
-        <v>833</v>
+        <v>797</v>
       </c>
       <c r="E77" s="12" t="s">
-        <v>833</v>
+        <v>797</v>
       </c>
       <c r="F77" s="12" t="s">
-        <v>782</v>
+        <v>746</v>
       </c>
       <c r="G77" s="12" t="s">
-        <v>859</v>
+        <v>823</v>
       </c>
       <c r="H77" s="12" t="s">
-        <v>860</v>
+        <v>824</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" s="12">
         <v>53</v>
       </c>
-      <c r="B78" s="95"/>
-      <c r="C78" s="95" t="s">
-        <v>347</v>
+      <c r="B78" s="99"/>
+      <c r="C78" s="99" t="s">
+        <v>311</v>
       </c>
       <c r="D78" s="12" t="s">
-        <v>834</v>
+        <v>798</v>
       </c>
       <c r="E78" s="12" t="s">
-        <v>834</v>
+        <v>798</v>
       </c>
       <c r="F78" s="12" t="s">
-        <v>782</v>
+        <v>746</v>
       </c>
       <c r="G78" s="12" t="s">
-        <v>866</v>
+        <v>830</v>
       </c>
       <c r="H78" s="12" t="s">
-        <v>867</v>
+        <v>831</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A79" s="12">
         <v>54</v>
       </c>
-      <c r="B79" s="95"/>
-      <c r="C79" s="95"/>
+      <c r="B79" s="99"/>
+      <c r="C79" s="99"/>
       <c r="D79" s="12" t="s">
-        <v>835</v>
+        <v>799</v>
       </c>
       <c r="E79" s="12" t="s">
-        <v>835</v>
+        <v>799</v>
       </c>
       <c r="F79" s="12" t="s">
-        <v>782</v>
+        <v>746</v>
       </c>
       <c r="G79" s="12" t="s">
-        <v>868</v>
+        <v>832</v>
       </c>
       <c r="H79" s="12" t="s">
-        <v>869</v>
+        <v>833</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" s="12">
         <v>55</v>
       </c>
-      <c r="B80" s="95"/>
-      <c r="C80" s="97" t="s">
-        <v>348</v>
+      <c r="B80" s="99"/>
+      <c r="C80" s="103" t="s">
+        <v>312</v>
       </c>
       <c r="D80" s="12" t="s">
-        <v>836</v>
+        <v>800</v>
       </c>
       <c r="E80" s="12" t="s">
-        <v>836</v>
+        <v>800</v>
       </c>
       <c r="F80" s="12" t="s">
-        <v>782</v>
+        <v>746</v>
       </c>
       <c r="G80" s="12" t="s">
-        <v>870</v>
+        <v>834</v>
       </c>
       <c r="H80" s="12" t="s">
-        <v>871</v>
+        <v>835</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" s="12">
         <v>56</v>
       </c>
-      <c r="B81" s="95"/>
-      <c r="C81" s="97"/>
+      <c r="B81" s="99"/>
+      <c r="C81" s="103"/>
       <c r="D81" s="12" t="s">
+        <v>801</v>
+      </c>
+      <c r="E81" s="12" t="s">
+        <v>801</v>
+      </c>
+      <c r="F81" s="12" t="s">
+        <v>746</v>
+      </c>
+      <c r="G81" s="12" t="s">
+        <v>836</v>
+      </c>
+      <c r="H81" s="12" t="s">
         <v>837</v>
-      </c>
-      <c r="E81" s="12" t="s">
-        <v>837</v>
-      </c>
-      <c r="F81" s="12" t="s">
-        <v>782</v>
-      </c>
-      <c r="G81" s="12" t="s">
-        <v>872</v>
-      </c>
-      <c r="H81" s="12" t="s">
-        <v>873</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" s="12">
         <v>57</v>
       </c>
-      <c r="B82" s="95"/>
-      <c r="C82" s="97"/>
+      <c r="B82" s="99"/>
+      <c r="C82" s="103"/>
       <c r="D82" s="12" t="s">
-        <v>782</v>
+        <v>746</v>
       </c>
       <c r="E82" s="12" t="s">
-        <v>847</v>
+        <v>811</v>
       </c>
       <c r="F82" s="12" t="s">
-        <v>782</v>
+        <v>746</v>
       </c>
       <c r="G82" s="12" t="s">
-        <v>875</v>
+        <v>839</v>
       </c>
       <c r="H82" s="12" t="s">
-        <v>876</v>
+        <v>840</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A83" s="12">
         <v>58</v>
       </c>
-      <c r="B83" s="95"/>
-      <c r="C83" s="97"/>
+      <c r="B83" s="99"/>
+      <c r="C83" s="103"/>
       <c r="D83" s="12" t="s">
-        <v>850</v>
+        <v>814</v>
       </c>
       <c r="E83" s="12" t="s">
-        <v>853</v>
+        <v>817</v>
       </c>
       <c r="F83" s="12" t="s">
-        <v>782</v>
+        <v>746</v>
       </c>
       <c r="G83" s="12" t="s">
-        <v>879</v>
+        <v>843</v>
       </c>
       <c r="H83" s="12" t="s">
-        <v>880</v>
+        <v>844</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" s="12">
         <v>59</v>
       </c>
-      <c r="B84" s="95"/>
-      <c r="C84" s="97"/>
+      <c r="B84" s="99"/>
+      <c r="C84" s="103"/>
       <c r="D84" s="12" t="s">
-        <v>851</v>
+        <v>815</v>
       </c>
       <c r="E84" s="12" t="s">
-        <v>854</v>
+        <v>818</v>
       </c>
       <c r="F84" s="12" t="s">
-        <v>782</v>
+        <v>746</v>
       </c>
       <c r="G84" s="12" t="s">
-        <v>881</v>
+        <v>845</v>
       </c>
       <c r="H84" s="12" t="s">
-        <v>882</v>
+        <v>846</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A85" s="12">
         <v>60</v>
       </c>
-      <c r="B85" s="95"/>
-      <c r="C85" s="97"/>
+      <c r="B85" s="99"/>
+      <c r="C85" s="103"/>
       <c r="D85" s="12" t="s">
-        <v>852</v>
+        <v>816</v>
       </c>
       <c r="E85" s="12" t="s">
-        <v>858</v>
+        <v>822</v>
       </c>
       <c r="F85" s="12" t="s">
-        <v>782</v>
+        <v>746</v>
       </c>
       <c r="G85" s="12" t="s">
-        <v>884</v>
+        <v>848</v>
       </c>
       <c r="H85" s="12" t="s">
-        <v>885</v>
+        <v>849</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A86" s="12">
         <v>61</v>
       </c>
-      <c r="B86" s="95"/>
-      <c r="C86" s="97"/>
+      <c r="B86" s="99"/>
+      <c r="C86" s="103"/>
       <c r="D86" s="12" t="s">
-        <v>861</v>
+        <v>825</v>
       </c>
       <c r="E86" s="12" t="s">
-        <v>865</v>
+        <v>829</v>
       </c>
       <c r="F86" s="12" t="s">
-        <v>782</v>
+        <v>746</v>
       </c>
       <c r="G86" s="12" t="s">
-        <v>889</v>
+        <v>853</v>
       </c>
       <c r="H86" s="12" t="s">
-        <v>890</v>
+        <v>854</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A87" s="12">
         <v>62</v>
       </c>
-      <c r="B87" s="95"/>
-      <c r="C87" s="97"/>
+      <c r="B87" s="99"/>
+      <c r="C87" s="103"/>
       <c r="D87" s="12" t="s">
-        <v>862</v>
+        <v>826</v>
       </c>
       <c r="E87" s="12" t="s">
-        <v>862</v>
+        <v>826</v>
       </c>
       <c r="F87" s="12" t="s">
-        <v>782</v>
+        <v>746</v>
       </c>
       <c r="G87" s="12" t="s">
-        <v>891</v>
+        <v>855</v>
       </c>
       <c r="H87" s="12" t="s">
-        <v>892</v>
+        <v>856</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A88" s="12">
         <v>63</v>
       </c>
-      <c r="B88" s="95"/>
-      <c r="C88" s="97"/>
+      <c r="B88" s="99"/>
+      <c r="C88" s="103"/>
       <c r="D88" s="12" t="s">
-        <v>349</v>
+        <v>313</v>
       </c>
       <c r="E88" s="12" t="s">
-        <v>863</v>
+        <v>827</v>
       </c>
       <c r="F88" s="12" t="s">
-        <v>782</v>
+        <v>746</v>
       </c>
       <c r="G88" s="12" t="s">
-        <v>893</v>
+        <v>857</v>
       </c>
       <c r="H88" s="12" t="s">
-        <v>894</v>
+        <v>858</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" s="12">
         <v>64</v>
       </c>
-      <c r="B89" s="95"/>
-      <c r="C89" s="97"/>
+      <c r="B89" s="99"/>
+      <c r="C89" s="103"/>
       <c r="D89" s="12" t="s">
-        <v>350</v>
+        <v>314</v>
       </c>
       <c r="E89" s="12" t="s">
-        <v>864</v>
+        <v>828</v>
       </c>
       <c r="F89" s="12" t="s">
-        <v>782</v>
+        <v>746</v>
       </c>
       <c r="G89" s="12" t="s">
-        <v>902</v>
+        <v>866</v>
       </c>
       <c r="H89" s="12" t="s">
-        <v>903</v>
+        <v>867</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A90" s="12">
         <v>65</v>
       </c>
-      <c r="B90" s="95"/>
-      <c r="C90" s="97"/>
+      <c r="B90" s="99"/>
+      <c r="C90" s="103"/>
       <c r="D90" s="12" t="s">
-        <v>351</v>
+        <v>315</v>
       </c>
       <c r="E90" s="12" t="s">
-        <v>874</v>
+        <v>838</v>
       </c>
       <c r="F90" s="12" t="s">
-        <v>782</v>
+        <v>746</v>
       </c>
       <c r="G90" s="12" t="s">
-        <v>904</v>
+        <v>868</v>
       </c>
       <c r="H90" s="12" t="s">
-        <v>905</v>
+        <v>869</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" s="12">
         <v>66</v>
       </c>
-      <c r="B91" s="95"/>
-      <c r="C91" s="97"/>
-      <c r="D91" s="95" t="s">
-        <v>352</v>
+      <c r="B91" s="99"/>
+      <c r="C91" s="103"/>
+      <c r="D91" s="99" t="s">
+        <v>316</v>
       </c>
       <c r="E91" s="12" t="s">
-        <v>877</v>
+        <v>841</v>
       </c>
       <c r="F91" s="12" t="s">
-        <v>782</v>
+        <v>746</v>
       </c>
       <c r="G91" s="12" t="s">
-        <v>908</v>
+        <v>872</v>
       </c>
       <c r="H91" s="12" t="s">
-        <v>909</v>
+        <v>873</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" s="12">
         <v>67</v>
       </c>
-      <c r="B92" s="95"/>
-      <c r="C92" s="97"/>
-      <c r="D92" s="95"/>
+      <c r="B92" s="99"/>
+      <c r="C92" s="103"/>
+      <c r="D92" s="99"/>
       <c r="E92" s="12" t="s">
-        <v>878</v>
+        <v>842</v>
       </c>
       <c r="F92" s="12" t="s">
-        <v>782</v>
+        <v>746</v>
       </c>
       <c r="G92" s="12" t="s">
-        <v>906</v>
+        <v>870</v>
       </c>
       <c r="H92" s="12" t="s">
-        <v>907</v>
+        <v>871</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" s="12">
         <v>68</v>
       </c>
-      <c r="B93" s="95"/>
-      <c r="C93" s="97"/>
+      <c r="B93" s="99"/>
+      <c r="C93" s="103"/>
       <c r="D93" s="12" t="s">
-        <v>353</v>
+        <v>317</v>
       </c>
       <c r="E93" s="12" t="s">
-        <v>883</v>
+        <v>847</v>
       </c>
       <c r="F93" s="12" t="s">
-        <v>782</v>
+        <v>746</v>
       </c>
       <c r="G93" s="12" t="s">
-        <v>911</v>
+        <v>875</v>
       </c>
       <c r="H93" s="12" t="s">
-        <v>912</v>
+        <v>876</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C94" s="97"/>
-      <c r="D94" s="95" t="s">
-        <v>354</v>
+      <c r="C94" s="103"/>
+      <c r="D94" s="99" t="s">
+        <v>318</v>
       </c>
       <c r="E94" s="12" t="s">
-        <v>886</v>
+        <v>850</v>
       </c>
       <c r="F94" s="12" t="s">
-        <v>782</v>
+        <v>746</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C95" s="97"/>
-      <c r="D95" s="95"/>
+      <c r="C95" s="103"/>
+      <c r="D95" s="99"/>
       <c r="E95" s="12" t="s">
-        <v>887</v>
+        <v>851</v>
       </c>
       <c r="F95" s="12" t="s">
-        <v>782</v>
+        <v>746</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C96" s="97"/>
-      <c r="D96" s="95"/>
+      <c r="C96" s="103"/>
+      <c r="D96" s="99"/>
       <c r="E96" s="12" t="s">
-        <v>888</v>
+        <v>852</v>
       </c>
       <c r="F96" s="12" t="s">
-        <v>782</v>
+        <v>746</v>
       </c>
     </row>
     <row r="97" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C97" s="97"/>
-      <c r="D97" s="95" t="s">
-        <v>290</v>
+      <c r="C97" s="103"/>
+      <c r="D97" s="99" t="s">
+        <v>288</v>
       </c>
       <c r="E97" s="12" t="s">
-        <v>895</v>
+        <v>859</v>
       </c>
       <c r="F97" s="12" t="s">
-        <v>782</v>
+        <v>746</v>
       </c>
     </row>
     <row r="98" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C98" s="97"/>
-      <c r="D98" s="95"/>
+      <c r="C98" s="103"/>
+      <c r="D98" s="99"/>
       <c r="E98" s="12" t="s">
-        <v>896</v>
+        <v>860</v>
       </c>
       <c r="F98" s="12" t="s">
-        <v>782</v>
+        <v>746</v>
       </c>
     </row>
     <row r="99" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C99" s="97"/>
-      <c r="D99" s="95"/>
+      <c r="C99" s="103"/>
+      <c r="D99" s="99"/>
       <c r="E99" s="12" t="s">
-        <v>897</v>
+        <v>861</v>
       </c>
       <c r="F99" s="12" t="s">
-        <v>782</v>
+        <v>746</v>
       </c>
     </row>
     <row r="100" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C100" s="97"/>
-      <c r="D100" s="95"/>
+      <c r="C100" s="103"/>
+      <c r="D100" s="99"/>
       <c r="E100" s="12" t="s">
-        <v>898</v>
+        <v>862</v>
       </c>
       <c r="F100" s="12" t="s">
-        <v>782</v>
+        <v>746</v>
       </c>
     </row>
     <row r="101" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C101" s="97"/>
+      <c r="C101" s="103"/>
       <c r="D101" s="12" t="s">
-        <v>429</v>
+        <v>393</v>
       </c>
       <c r="E101" s="12" t="s">
-        <v>910</v>
+        <v>874</v>
       </c>
       <c r="F101" s="12" t="s">
-        <v>782</v>
+        <v>746</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="D94:D96"/>
+    <mergeCell ref="D97:D100"/>
+    <mergeCell ref="C16:C20"/>
+    <mergeCell ref="D17:D20"/>
+    <mergeCell ref="D55:D57"/>
+    <mergeCell ref="D58:D61"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="C78:C79"/>
+    <mergeCell ref="C21:C25"/>
+    <mergeCell ref="C26:C44"/>
+    <mergeCell ref="C61:C64"/>
+    <mergeCell ref="C65:C67"/>
+    <mergeCell ref="C69:C73"/>
+    <mergeCell ref="C80:C101"/>
     <mergeCell ref="E30:E31"/>
     <mergeCell ref="E32:E33"/>
     <mergeCell ref="D29:D36"/>
@@ -9241,20 +9068,6 @@
     <mergeCell ref="C75:C77"/>
     <mergeCell ref="C46:C57"/>
     <mergeCell ref="D91:D92"/>
-    <mergeCell ref="D94:D96"/>
-    <mergeCell ref="D97:D100"/>
-    <mergeCell ref="C16:C20"/>
-    <mergeCell ref="D17:D20"/>
-    <mergeCell ref="D55:D57"/>
-    <mergeCell ref="D58:D61"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="C78:C79"/>
-    <mergeCell ref="C21:C25"/>
-    <mergeCell ref="C26:C44"/>
-    <mergeCell ref="C61:C64"/>
-    <mergeCell ref="C65:C67"/>
-    <mergeCell ref="C69:C73"/>
-    <mergeCell ref="C80:C101"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I2:I154">
@@ -9276,11 +9089,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J98"/>
+  <dimension ref="A1:J104"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D85" sqref="D85"/>
+      <selection pane="bottomLeft" activeCell="E101" sqref="E101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -9326,7 +9139,7 @@
         <v>8</v>
       </c>
       <c r="J1" s="44" t="s">
-        <v>994</v>
+        <v>958</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="85.5" x14ac:dyDescent="0.15">
@@ -9361,8 +9174,8 @@
       <c r="A3" s="18">
         <v>2</v>
       </c>
-      <c r="B3" s="102"/>
-      <c r="C3" s="97"/>
+      <c r="B3" s="106"/>
+      <c r="C3" s="103"/>
       <c r="D3" s="38" t="s">
         <v>81</v>
       </c>
@@ -9385,8 +9198,8 @@
       <c r="A4" s="18">
         <v>3</v>
       </c>
-      <c r="B4" s="102"/>
-      <c r="C4" s="97" t="s">
+      <c r="B4" s="106"/>
+      <c r="C4" s="103" t="s">
         <v>77</v>
       </c>
       <c r="D4" s="37" t="s">
@@ -9411,8 +9224,8 @@
       <c r="A5" s="18">
         <v>4</v>
       </c>
-      <c r="B5" s="102"/>
-      <c r="C5" s="97"/>
+      <c r="B5" s="106"/>
+      <c r="C5" s="103"/>
       <c r="D5" s="38" t="s">
         <v>82</v>
       </c>
@@ -9435,7 +9248,7 @@
       <c r="A6" s="18">
         <v>5</v>
       </c>
-      <c r="B6" s="102"/>
+      <c r="B6" s="106"/>
       <c r="C6" s="15" t="s">
         <v>78</v>
       </c>
@@ -9461,7 +9274,7 @@
       <c r="A7" s="18">
         <v>6</v>
       </c>
-      <c r="B7" s="102"/>
+      <c r="B7" s="106"/>
       <c r="C7" s="15" t="s">
         <v>79</v>
       </c>
@@ -9485,7 +9298,7 @@
       <c r="A8" s="18">
         <v>7</v>
       </c>
-      <c r="B8" s="101" t="s">
+      <c r="B8" s="107" t="s">
         <v>84</v>
       </c>
       <c r="C8" s="15" t="s">
@@ -9513,8 +9326,8 @@
       <c r="A9" s="18">
         <v>8</v>
       </c>
-      <c r="B9" s="101"/>
-      <c r="C9" s="97" t="s">
+      <c r="B9" s="107"/>
+      <c r="C9" s="103" t="s">
         <v>104</v>
       </c>
       <c r="D9" s="38" t="s">
@@ -9539,8 +9352,8 @@
       <c r="A10" s="18">
         <v>9</v>
       </c>
-      <c r="B10" s="101"/>
-      <c r="C10" s="97"/>
+      <c r="B10" s="107"/>
+      <c r="C10" s="103"/>
       <c r="D10" s="37" t="s">
         <v>124</v>
       </c>
@@ -9563,7 +9376,7 @@
       <c r="A11" s="18">
         <v>10</v>
       </c>
-      <c r="B11" s="101"/>
+      <c r="B11" s="107"/>
       <c r="C11" s="15" t="s">
         <v>105</v>
       </c>
@@ -9589,7 +9402,7 @@
       <c r="A12" s="18">
         <v>11</v>
       </c>
-      <c r="B12" s="101"/>
+      <c r="B12" s="107"/>
       <c r="C12" s="15" t="s">
         <v>106</v>
       </c>
@@ -9615,8 +9428,8 @@
       <c r="A13" s="18">
         <v>12</v>
       </c>
-      <c r="B13" s="101"/>
-      <c r="C13" s="97" t="s">
+      <c r="B13" s="107"/>
+      <c r="C13" s="103" t="s">
         <v>112</v>
       </c>
       <c r="D13" s="38" t="s">
@@ -9641,8 +9454,8 @@
       <c r="A14" s="18">
         <v>13</v>
       </c>
-      <c r="B14" s="101"/>
-      <c r="C14" s="97"/>
+      <c r="B14" s="107"/>
+      <c r="C14" s="103"/>
       <c r="D14" s="38" t="s">
         <v>142</v>
       </c>
@@ -9665,13 +9478,13 @@
       <c r="A15" s="18">
         <v>14</v>
       </c>
-      <c r="B15" s="101" t="s">
+      <c r="B15" s="107" t="s">
         <v>114</v>
       </c>
-      <c r="C15" s="97" t="s">
+      <c r="C15" s="103" t="s">
         <v>115</v>
       </c>
-      <c r="D15" s="100" t="s">
+      <c r="D15" s="108" t="s">
         <v>145</v>
       </c>
       <c r="E15" s="38" t="s">
@@ -9693,9 +9506,9 @@
       <c r="A16" s="18">
         <v>15</v>
       </c>
-      <c r="B16" s="101"/>
-      <c r="C16" s="97"/>
-      <c r="D16" s="100"/>
+      <c r="B16" s="107"/>
+      <c r="C16" s="103"/>
+      <c r="D16" s="108"/>
       <c r="E16" s="38" t="s">
         <v>148</v>
       </c>
@@ -9715,9 +9528,9 @@
       <c r="A17" s="18">
         <v>16</v>
       </c>
-      <c r="B17" s="101"/>
-      <c r="C17" s="97"/>
-      <c r="D17" s="100"/>
+      <c r="B17" s="107"/>
+      <c r="C17" s="103"/>
+      <c r="D17" s="108"/>
       <c r="E17" s="38" t="s">
         <v>147</v>
       </c>
@@ -9737,8 +9550,8 @@
       <c r="A18" s="18">
         <v>17</v>
       </c>
-      <c r="B18" s="101"/>
-      <c r="C18" s="97"/>
+      <c r="B18" s="107"/>
+      <c r="C18" s="103"/>
       <c r="D18" s="38" t="s">
         <v>146</v>
       </c>
@@ -9761,11 +9574,11 @@
       <c r="A19" s="18">
         <v>18</v>
       </c>
-      <c r="B19" s="101"/>
-      <c r="C19" s="97" t="s">
+      <c r="B19" s="107"/>
+      <c r="C19" s="103" t="s">
         <v>116</v>
       </c>
-      <c r="D19" s="100" t="s">
+      <c r="D19" s="108" t="s">
         <v>198</v>
       </c>
       <c r="E19" s="38" t="s">
@@ -9787,17 +9600,17 @@
       <c r="A20" s="18">
         <v>19</v>
       </c>
-      <c r="B20" s="101"/>
-      <c r="C20" s="97"/>
-      <c r="D20" s="100"/>
+      <c r="B20" s="107"/>
+      <c r="C20" s="103"/>
+      <c r="D20" s="108"/>
       <c r="E20" s="38" t="s">
-        <v>387</v>
+        <v>351</v>
       </c>
       <c r="F20" s="38" t="s">
         <v>203</v>
       </c>
       <c r="G20" s="38" t="s">
-        <v>388</v>
+        <v>352</v>
       </c>
       <c r="H20" s="38" t="s">
         <v>207</v>
@@ -9809,9 +9622,9 @@
       <c r="A21" s="18">
         <v>20</v>
       </c>
-      <c r="B21" s="101"/>
-      <c r="C21" s="97"/>
-      <c r="D21" s="100"/>
+      <c r="B21" s="107"/>
+      <c r="C21" s="103"/>
+      <c r="D21" s="108"/>
       <c r="E21" s="38" t="s">
         <v>201</v>
       </c>
@@ -9831,8 +9644,8 @@
       <c r="A22" s="18">
         <v>21</v>
       </c>
-      <c r="B22" s="101"/>
-      <c r="C22" s="97"/>
+      <c r="B22" s="107"/>
+      <c r="C22" s="103"/>
       <c r="D22" s="38" t="s">
         <v>202</v>
       </c>
@@ -9855,24 +9668,24 @@
       <c r="A23" s="18">
         <v>22</v>
       </c>
-      <c r="B23" s="101"/>
-      <c r="C23" s="97" t="s">
+      <c r="B23" s="107"/>
+      <c r="C23" s="103" t="s">
         <v>117</v>
       </c>
-      <c r="D23" s="100" t="s">
-        <v>403</v>
+      <c r="D23" s="108" t="s">
+        <v>367</v>
       </c>
       <c r="E23" s="38" t="s">
-        <v>404</v>
+        <v>368</v>
       </c>
       <c r="F23" s="38" t="s">
-        <v>455</v>
+        <v>419</v>
       </c>
       <c r="G23" s="38" t="s">
-        <v>449</v>
+        <v>413</v>
       </c>
       <c r="H23" s="38" t="s">
-        <v>452</v>
+        <v>416</v>
       </c>
       <c r="I23" s="37"/>
       <c r="J23" s="37"/>
@@ -9881,20 +9694,20 @@
       <c r="A24" s="18">
         <v>23</v>
       </c>
-      <c r="B24" s="101"/>
-      <c r="C24" s="97"/>
-      <c r="D24" s="100"/>
+      <c r="B24" s="107"/>
+      <c r="C24" s="103"/>
+      <c r="D24" s="108"/>
       <c r="E24" s="38" t="s">
-        <v>405</v>
+        <v>369</v>
       </c>
       <c r="F24" s="38" t="s">
-        <v>455</v>
+        <v>419</v>
       </c>
       <c r="G24" s="38" t="s">
-        <v>450</v>
+        <v>414</v>
       </c>
       <c r="H24" s="38" t="s">
-        <v>453</v>
+        <v>417</v>
       </c>
       <c r="I24" s="37"/>
       <c r="J24" s="37"/>
@@ -9903,20 +9716,20 @@
       <c r="A25" s="18">
         <v>24</v>
       </c>
-      <c r="B25" s="101"/>
-      <c r="C25" s="97"/>
-      <c r="D25" s="100"/>
+      <c r="B25" s="107"/>
+      <c r="C25" s="103"/>
+      <c r="D25" s="108"/>
       <c r="E25" s="38" t="s">
-        <v>448</v>
+        <v>412</v>
       </c>
       <c r="F25" s="38" t="s">
-        <v>455</v>
+        <v>419</v>
       </c>
       <c r="G25" s="38" t="s">
-        <v>451</v>
+        <v>415</v>
       </c>
       <c r="H25" s="38" t="s">
-        <v>454</v>
+        <v>418</v>
       </c>
       <c r="I25" s="37"/>
       <c r="J25" s="37"/>
@@ -9925,24 +9738,24 @@
       <c r="A26" s="18">
         <v>25</v>
       </c>
-      <c r="B26" s="101"/>
-      <c r="C26" s="97" t="s">
-        <v>409</v>
+      <c r="B26" s="107"/>
+      <c r="C26" s="103" t="s">
+        <v>373</v>
       </c>
       <c r="D26" s="38" t="s">
-        <v>408</v>
+        <v>372</v>
       </c>
       <c r="E26" s="38" t="s">
-        <v>457</v>
+        <v>421</v>
       </c>
       <c r="F26" s="38" t="s">
-        <v>473</v>
+        <v>437</v>
       </c>
       <c r="G26" s="38" t="s">
-        <v>456</v>
+        <v>420</v>
       </c>
       <c r="H26" s="38" t="s">
-        <v>463</v>
+        <v>427</v>
       </c>
       <c r="I26" s="37"/>
       <c r="J26" s="37"/>
@@ -9951,22 +9764,22 @@
       <c r="A27" s="18">
         <v>26</v>
       </c>
-      <c r="B27" s="101"/>
-      <c r="C27" s="97"/>
+      <c r="B27" s="107"/>
+      <c r="C27" s="103"/>
       <c r="D27" s="38" t="s">
-        <v>458</v>
+        <v>422</v>
       </c>
       <c r="E27" s="38" t="s">
-        <v>407</v>
+        <v>371</v>
       </c>
       <c r="F27" s="38" t="s">
-        <v>473</v>
+        <v>437</v>
       </c>
       <c r="G27" s="38" t="s">
-        <v>459</v>
+        <v>423</v>
       </c>
       <c r="H27" s="38" t="s">
-        <v>462</v>
+        <v>426</v>
       </c>
       <c r="I27" s="37"/>
       <c r="J27" s="37"/>
@@ -9975,22 +9788,22 @@
       <c r="A28" s="18">
         <v>27</v>
       </c>
-      <c r="B28" s="101"/>
-      <c r="C28" s="97"/>
+      <c r="B28" s="107"/>
+      <c r="C28" s="103"/>
       <c r="D28" s="38" t="s">
         <v>118</v>
       </c>
       <c r="E28" s="38" t="s">
-        <v>406</v>
+        <v>370</v>
       </c>
       <c r="F28" s="38" t="s">
-        <v>473</v>
+        <v>437</v>
       </c>
       <c r="G28" s="38" t="s">
-        <v>460</v>
+        <v>424</v>
       </c>
       <c r="H28" s="38" t="s">
-        <v>461</v>
+        <v>425</v>
       </c>
       <c r="I28" s="37"/>
       <c r="J28" s="37"/>
@@ -9999,22 +9812,22 @@
       <c r="A29" s="18">
         <v>28</v>
       </c>
-      <c r="B29" s="101"/>
-      <c r="C29" s="97"/>
+      <c r="B29" s="107"/>
+      <c r="C29" s="103"/>
       <c r="D29" s="38" t="s">
-        <v>410</v>
+        <v>374</v>
       </c>
       <c r="E29" s="38" t="s">
-        <v>410</v>
+        <v>374</v>
       </c>
       <c r="F29" s="38" t="s">
-        <v>473</v>
+        <v>437</v>
       </c>
       <c r="G29" s="38" t="s">
-        <v>464</v>
+        <v>428</v>
       </c>
       <c r="H29" s="38" t="s">
-        <v>465</v>
+        <v>429</v>
       </c>
       <c r="I29" s="37"/>
       <c r="J29" s="37"/>
@@ -10023,26 +9836,26 @@
       <c r="A30" s="18">
         <v>29</v>
       </c>
-      <c r="B30" s="101" t="s">
+      <c r="B30" s="107" t="s">
         <v>179</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>419</v>
+        <v>383</v>
       </c>
       <c r="D30" s="38" t="s">
         <v>160</v>
       </c>
       <c r="E30" s="38" t="s">
-        <v>411</v>
+        <v>375</v>
       </c>
       <c r="F30" s="38" t="s">
-        <v>472</v>
+        <v>436</v>
       </c>
       <c r="G30" s="38" t="s">
-        <v>466</v>
+        <v>430</v>
       </c>
       <c r="H30" s="38" t="s">
-        <v>488</v>
+        <v>452</v>
       </c>
       <c r="I30" s="37"/>
       <c r="J30" s="37"/>
@@ -10051,24 +9864,24 @@
       <c r="A31" s="18">
         <v>30</v>
       </c>
-      <c r="B31" s="101"/>
+      <c r="B31" s="107"/>
       <c r="C31" s="15" t="s">
-        <v>420</v>
+        <v>384</v>
       </c>
       <c r="D31" s="38" t="s">
         <v>161</v>
       </c>
       <c r="E31" s="38" t="s">
-        <v>412</v>
+        <v>376</v>
       </c>
       <c r="F31" s="38" t="s">
-        <v>472</v>
+        <v>436</v>
       </c>
       <c r="G31" s="38" t="s">
-        <v>467</v>
+        <v>431</v>
       </c>
       <c r="H31" s="38" t="s">
-        <v>488</v>
+        <v>452</v>
       </c>
       <c r="I31" s="37"/>
       <c r="J31" s="37"/>
@@ -10077,24 +9890,24 @@
       <c r="A32" s="18">
         <v>31</v>
       </c>
-      <c r="B32" s="101"/>
-      <c r="C32" s="97" t="s">
-        <v>421</v>
+      <c r="B32" s="107"/>
+      <c r="C32" s="103" t="s">
+        <v>385</v>
       </c>
       <c r="D32" s="38" t="s">
         <v>162</v>
       </c>
       <c r="E32" s="38" t="s">
-        <v>470</v>
+        <v>434</v>
       </c>
       <c r="F32" s="38" t="s">
-        <v>472</v>
+        <v>436</v>
       </c>
       <c r="G32" s="38" t="s">
-        <v>468</v>
+        <v>432</v>
       </c>
       <c r="H32" s="38" t="s">
-        <v>489</v>
+        <v>453</v>
       </c>
       <c r="I32" s="37"/>
       <c r="J32" s="37"/>
@@ -10103,22 +9916,22 @@
       <c r="A33" s="18">
         <v>32</v>
       </c>
-      <c r="B33" s="101"/>
-      <c r="C33" s="97"/>
+      <c r="B33" s="107"/>
+      <c r="C33" s="103"/>
       <c r="D33" s="38" t="s">
-        <v>469</v>
+        <v>433</v>
       </c>
       <c r="E33" s="38" t="s">
-        <v>471</v>
+        <v>435</v>
       </c>
       <c r="F33" s="38" t="s">
-        <v>472</v>
+        <v>436</v>
       </c>
       <c r="G33" s="38" t="s">
-        <v>474</v>
+        <v>438</v>
       </c>
       <c r="H33" s="38" t="s">
-        <v>490</v>
+        <v>454</v>
       </c>
       <c r="I33" s="37"/>
       <c r="J33" s="37"/>
@@ -10127,7 +9940,7 @@
       <c r="A34" s="18">
         <v>33</v>
       </c>
-      <c r="B34" s="101"/>
+      <c r="B34" s="107"/>
       <c r="C34" s="15" t="s">
         <v>163</v>
       </c>
@@ -10135,16 +9948,16 @@
         <v>163</v>
       </c>
       <c r="E34" s="38" t="s">
-        <v>475</v>
+        <v>439</v>
       </c>
       <c r="F34" s="38" t="s">
-        <v>472</v>
+        <v>436</v>
       </c>
       <c r="G34" s="38" t="s">
-        <v>476</v>
+        <v>440</v>
       </c>
       <c r="H34" s="38" t="s">
-        <v>492</v>
+        <v>456</v>
       </c>
       <c r="I34" s="37"/>
       <c r="J34" s="37"/>
@@ -10153,24 +9966,24 @@
       <c r="A35" s="18">
         <v>34</v>
       </c>
-      <c r="B35" s="101"/>
+      <c r="B35" s="107"/>
       <c r="C35" s="15" t="s">
-        <v>413</v>
+        <v>377</v>
       </c>
       <c r="D35" s="38" t="s">
-        <v>413</v>
+        <v>377</v>
       </c>
       <c r="E35" s="38" t="s">
-        <v>414</v>
+        <v>378</v>
       </c>
       <c r="F35" s="38" t="s">
-        <v>472</v>
+        <v>436</v>
       </c>
       <c r="G35" s="38" t="s">
-        <v>477</v>
+        <v>441</v>
       </c>
       <c r="H35" s="38" t="s">
-        <v>491</v>
+        <v>455</v>
       </c>
       <c r="I35" s="37"/>
       <c r="J35" s="37"/>
@@ -10179,24 +9992,24 @@
       <c r="A36" s="18">
         <v>35</v>
       </c>
-      <c r="B36" s="101"/>
+      <c r="B36" s="107"/>
       <c r="C36" s="15" t="s">
-        <v>423</v>
+        <v>387</v>
       </c>
       <c r="D36" s="38" t="s">
-        <v>422</v>
+        <v>386</v>
       </c>
       <c r="E36" s="38" t="s">
-        <v>415</v>
+        <v>379</v>
       </c>
       <c r="F36" s="38" t="s">
-        <v>472</v>
+        <v>436</v>
       </c>
       <c r="G36" s="38" t="s">
-        <v>478</v>
+        <v>442</v>
       </c>
       <c r="H36" s="38" t="s">
-        <v>486</v>
+        <v>450</v>
       </c>
       <c r="I36" s="37"/>
       <c r="J36" s="37"/>
@@ -10205,24 +10018,24 @@
       <c r="A37" s="18">
         <v>36</v>
       </c>
-      <c r="B37" s="101"/>
+      <c r="B37" s="107"/>
       <c r="C37" s="15" t="s">
-        <v>424</v>
+        <v>388</v>
       </c>
       <c r="D37" s="38" t="s">
         <v>164</v>
       </c>
       <c r="E37" s="38" t="s">
-        <v>416</v>
+        <v>380</v>
       </c>
       <c r="F37" s="38" t="s">
-        <v>472</v>
+        <v>436</v>
       </c>
       <c r="G37" s="38" t="s">
-        <v>479</v>
+        <v>443</v>
       </c>
       <c r="H37" s="38" t="s">
-        <v>487</v>
+        <v>451</v>
       </c>
       <c r="I37" s="37"/>
       <c r="J37" s="37"/>
@@ -10231,24 +10044,24 @@
       <c r="A38" s="18">
         <v>37</v>
       </c>
-      <c r="B38" s="101"/>
+      <c r="B38" s="107"/>
       <c r="C38" s="15" t="s">
-        <v>425</v>
+        <v>389</v>
       </c>
       <c r="D38" s="38" t="s">
         <v>165</v>
       </c>
       <c r="E38" s="38" t="s">
-        <v>417</v>
+        <v>381</v>
       </c>
       <c r="F38" s="38" t="s">
-        <v>472</v>
+        <v>436</v>
       </c>
       <c r="G38" s="38" t="s">
-        <v>480</v>
+        <v>444</v>
       </c>
       <c r="H38" s="38" t="s">
-        <v>485</v>
+        <v>449</v>
       </c>
       <c r="I38" s="37"/>
       <c r="J38" s="37"/>
@@ -10257,24 +10070,24 @@
       <c r="A39" s="18">
         <v>38</v>
       </c>
-      <c r="B39" s="101"/>
-      <c r="C39" s="97" t="s">
-        <v>426</v>
+      <c r="B39" s="107"/>
+      <c r="C39" s="103" t="s">
+        <v>390</v>
       </c>
       <c r="D39" s="38" t="s">
-        <v>428</v>
+        <v>392</v>
       </c>
       <c r="E39" s="38" t="s">
-        <v>427</v>
+        <v>391</v>
       </c>
       <c r="F39" s="38" t="s">
-        <v>472</v>
+        <v>436</v>
       </c>
       <c r="G39" s="38" t="s">
-        <v>481</v>
+        <v>445</v>
       </c>
       <c r="H39" s="38" t="s">
-        <v>482</v>
+        <v>446</v>
       </c>
       <c r="I39" s="37"/>
       <c r="J39" s="37"/>
@@ -10283,22 +10096,22 @@
       <c r="A40" s="18">
         <v>39</v>
       </c>
-      <c r="B40" s="101"/>
-      <c r="C40" s="97"/>
+      <c r="B40" s="107"/>
+      <c r="C40" s="103"/>
       <c r="D40" s="38" t="s">
         <v>166</v>
       </c>
       <c r="E40" s="38" t="s">
-        <v>418</v>
+        <v>382</v>
       </c>
       <c r="F40" s="38" t="s">
-        <v>472</v>
+        <v>436</v>
       </c>
       <c r="G40" s="38" t="s">
-        <v>483</v>
+        <v>447</v>
       </c>
       <c r="H40" s="38" t="s">
-        <v>484</v>
+        <v>448</v>
       </c>
       <c r="I40" s="37"/>
       <c r="J40" s="37"/>
@@ -10307,10 +10120,10 @@
       <c r="A41" s="18">
         <v>40</v>
       </c>
-      <c r="B41" s="97" t="s">
-        <v>493</v>
-      </c>
-      <c r="C41" s="97" t="s">
+      <c r="B41" s="103" t="s">
+        <v>457</v>
+      </c>
+      <c r="C41" s="103" t="s">
         <v>173</v>
       </c>
       <c r="D41" s="38" t="s">
@@ -10320,13 +10133,13 @@
         <v>170</v>
       </c>
       <c r="F41" s="38" t="s">
-        <v>495</v>
+        <v>459</v>
       </c>
       <c r="G41" s="37" t="s">
-        <v>496</v>
+        <v>460</v>
       </c>
       <c r="H41" s="38" t="s">
-        <v>497</v>
+        <v>461</v>
       </c>
       <c r="I41" s="37"/>
       <c r="J41" s="37"/>
@@ -10335,22 +10148,22 @@
       <c r="A42" s="18">
         <v>41</v>
       </c>
-      <c r="B42" s="97"/>
-      <c r="C42" s="97"/>
+      <c r="B42" s="103"/>
+      <c r="C42" s="103"/>
       <c r="D42" s="38" t="s">
         <v>171</v>
       </c>
       <c r="E42" s="38" t="s">
-        <v>502</v>
+        <v>466</v>
       </c>
       <c r="F42" s="38" t="s">
-        <v>494</v>
+        <v>458</v>
       </c>
       <c r="G42" s="38" t="s">
-        <v>498</v>
+        <v>462</v>
       </c>
       <c r="H42" s="38" t="s">
-        <v>499</v>
+        <v>463</v>
       </c>
       <c r="I42" s="37"/>
       <c r="J42" s="37"/>
@@ -10359,22 +10172,22 @@
       <c r="A43" s="18">
         <v>42</v>
       </c>
-      <c r="B43" s="97"/>
-      <c r="C43" s="97"/>
+      <c r="B43" s="103"/>
+      <c r="C43" s="103"/>
       <c r="D43" s="38" t="s">
         <v>172</v>
       </c>
       <c r="E43" s="38" t="s">
-        <v>503</v>
+        <v>467</v>
       </c>
       <c r="F43" s="38" t="s">
-        <v>494</v>
+        <v>458</v>
       </c>
       <c r="G43" s="38" t="s">
-        <v>500</v>
+        <v>464</v>
       </c>
       <c r="H43" s="38" t="s">
-        <v>501</v>
+        <v>465</v>
       </c>
       <c r="I43" s="37"/>
       <c r="J43" s="37"/>
@@ -10383,26 +10196,26 @@
       <c r="A44" s="18">
         <v>43</v>
       </c>
-      <c r="B44" s="97" t="s">
+      <c r="B44" s="103" t="s">
         <v>158</v>
       </c>
-      <c r="C44" s="97" t="s">
+      <c r="C44" s="103" t="s">
         <v>174</v>
       </c>
       <c r="D44" s="38" t="s">
         <v>175</v>
       </c>
       <c r="E44" s="38" t="s">
-        <v>515</v>
+        <v>479</v>
       </c>
       <c r="F44" s="38" t="s">
-        <v>520</v>
+        <v>484</v>
       </c>
       <c r="G44" s="38" t="s">
-        <v>504</v>
+        <v>468</v>
       </c>
       <c r="H44" s="38" t="s">
-        <v>505</v>
+        <v>469</v>
       </c>
       <c r="I44" s="37"/>
       <c r="J44" s="37"/>
@@ -10411,22 +10224,22 @@
       <c r="A45" s="18">
         <v>44</v>
       </c>
-      <c r="B45" s="97"/>
-      <c r="C45" s="97"/>
+      <c r="B45" s="103"/>
+      <c r="C45" s="103"/>
       <c r="D45" s="38" t="s">
         <v>176</v>
       </c>
       <c r="E45" s="38" t="s">
-        <v>516</v>
+        <v>480</v>
       </c>
       <c r="F45" s="38" t="s">
-        <v>506</v>
+        <v>470</v>
       </c>
       <c r="G45" s="38" t="s">
-        <v>507</v>
+        <v>471</v>
       </c>
       <c r="H45" s="38" t="s">
-        <v>508</v>
+        <v>472</v>
       </c>
       <c r="I45" s="37"/>
       <c r="J45" s="37"/>
@@ -10435,22 +10248,22 @@
       <c r="A46" s="18">
         <v>45</v>
       </c>
-      <c r="B46" s="97"/>
-      <c r="C46" s="97"/>
+      <c r="B46" s="103"/>
+      <c r="C46" s="103"/>
       <c r="D46" s="38" t="s">
         <v>172</v>
       </c>
       <c r="E46" s="38" t="s">
-        <v>517</v>
+        <v>481</v>
       </c>
       <c r="F46" s="38" t="s">
-        <v>506</v>
+        <v>470</v>
       </c>
       <c r="G46" s="38" t="s">
-        <v>509</v>
+        <v>473</v>
       </c>
       <c r="H46" s="38" t="s">
-        <v>510</v>
+        <v>474</v>
       </c>
       <c r="I46" s="37"/>
       <c r="J46" s="37"/>
@@ -10459,22 +10272,22 @@
       <c r="A47" s="18">
         <v>46</v>
       </c>
-      <c r="B47" s="97"/>
-      <c r="C47" s="97"/>
+      <c r="B47" s="103"/>
+      <c r="C47" s="103"/>
       <c r="D47" s="38" t="s">
         <v>177</v>
       </c>
       <c r="E47" s="38" t="s">
-        <v>518</v>
+        <v>482</v>
       </c>
       <c r="F47" s="38" t="s">
-        <v>506</v>
+        <v>470</v>
       </c>
       <c r="G47" s="38" t="s">
-        <v>511</v>
+        <v>475</v>
       </c>
       <c r="H47" s="38" t="s">
-        <v>512</v>
+        <v>476</v>
       </c>
       <c r="I47" s="37"/>
       <c r="J47" s="37"/>
@@ -10483,22 +10296,22 @@
       <c r="A48" s="18">
         <v>47</v>
       </c>
-      <c r="B48" s="97"/>
-      <c r="C48" s="97"/>
+      <c r="B48" s="103"/>
+      <c r="C48" s="103"/>
       <c r="D48" s="38" t="s">
         <v>178</v>
       </c>
       <c r="E48" s="38" t="s">
-        <v>519</v>
+        <v>483</v>
       </c>
       <c r="F48" s="38" t="s">
-        <v>506</v>
+        <v>470</v>
       </c>
       <c r="G48" s="38" t="s">
-        <v>513</v>
+        <v>477</v>
       </c>
       <c r="H48" s="38" t="s">
-        <v>514</v>
+        <v>478</v>
       </c>
       <c r="I48" s="37"/>
       <c r="J48" s="37"/>
@@ -10507,8 +10320,8 @@
       <c r="A49" s="18">
         <v>48</v>
       </c>
-      <c r="B49" s="97"/>
-      <c r="C49" s="97" t="s">
+      <c r="B49" s="103"/>
+      <c r="C49" s="103" t="s">
         <v>181</v>
       </c>
       <c r="D49" s="38" t="s">
@@ -10518,13 +10331,13 @@
         <v>182</v>
       </c>
       <c r="F49" s="38" t="s">
-        <v>521</v>
+        <v>485</v>
       </c>
       <c r="G49" s="38" t="s">
-        <v>522</v>
+        <v>486</v>
       </c>
       <c r="H49" s="38" t="s">
-        <v>524</v>
+        <v>488</v>
       </c>
       <c r="I49" s="37"/>
       <c r="J49" s="37"/>
@@ -10533,8 +10346,8 @@
       <c r="A50" s="18">
         <v>49</v>
       </c>
-      <c r="B50" s="97"/>
-      <c r="C50" s="97"/>
+      <c r="B50" s="103"/>
+      <c r="C50" s="103"/>
       <c r="D50" s="38" t="s">
         <v>183</v>
       </c>
@@ -10542,13 +10355,13 @@
         <v>183</v>
       </c>
       <c r="F50" s="38" t="s">
-        <v>521</v>
+        <v>485</v>
       </c>
       <c r="G50" s="38" t="s">
-        <v>523</v>
+        <v>487</v>
       </c>
       <c r="H50" s="38" t="s">
-        <v>525</v>
+        <v>489</v>
       </c>
       <c r="I50" s="37"/>
       <c r="J50" s="37"/>
@@ -10557,22 +10370,22 @@
       <c r="A51" s="18">
         <v>50</v>
       </c>
-      <c r="B51" s="97"/>
-      <c r="C51" s="97"/>
+      <c r="B51" s="103"/>
+      <c r="C51" s="103"/>
       <c r="D51" s="38" t="s">
-        <v>535</v>
+        <v>499</v>
       </c>
       <c r="E51" s="38" t="s">
         <v>184</v>
       </c>
       <c r="F51" s="38" t="s">
-        <v>521</v>
+        <v>485</v>
       </c>
       <c r="G51" s="38" t="s">
-        <v>526</v>
+        <v>490</v>
       </c>
       <c r="H51" s="38" t="s">
-        <v>527</v>
+        <v>491</v>
       </c>
       <c r="I51" s="37"/>
       <c r="J51" s="37"/>
@@ -10581,8 +10394,8 @@
       <c r="A52" s="18">
         <v>51</v>
       </c>
-      <c r="B52" s="97"/>
-      <c r="C52" s="97"/>
+      <c r="B52" s="103"/>
+      <c r="C52" s="103"/>
       <c r="D52" s="38" t="s">
         <v>185</v>
       </c>
@@ -10590,13 +10403,13 @@
         <v>185</v>
       </c>
       <c r="F52" s="38" t="s">
-        <v>521</v>
+        <v>485</v>
       </c>
       <c r="G52" s="38" t="s">
-        <v>528</v>
+        <v>492</v>
       </c>
       <c r="H52" s="38" t="s">
-        <v>529</v>
+        <v>493</v>
       </c>
       <c r="I52" s="37"/>
       <c r="J52" s="37"/>
@@ -10605,8 +10418,8 @@
       <c r="A53" s="18">
         <v>52</v>
       </c>
-      <c r="B53" s="97"/>
-      <c r="C53" s="97"/>
+      <c r="B53" s="103"/>
+      <c r="C53" s="103"/>
       <c r="D53" s="38" t="s">
         <v>186</v>
       </c>
@@ -10614,13 +10427,13 @@
         <v>186</v>
       </c>
       <c r="F53" s="38" t="s">
-        <v>521</v>
+        <v>485</v>
       </c>
       <c r="G53" s="38" t="s">
-        <v>530</v>
+        <v>494</v>
       </c>
       <c r="H53" s="38" t="s">
-        <v>531</v>
+        <v>495</v>
       </c>
       <c r="I53" s="37"/>
       <c r="J53" s="37"/>
@@ -10629,22 +10442,22 @@
       <c r="A54" s="18">
         <v>53</v>
       </c>
-      <c r="B54" s="97"/>
-      <c r="C54" s="97"/>
+      <c r="B54" s="103"/>
+      <c r="C54" s="103"/>
       <c r="D54" s="38" t="s">
-        <v>536</v>
+        <v>500</v>
       </c>
       <c r="E54" s="38" t="s">
         <v>187</v>
       </c>
       <c r="F54" s="38" t="s">
-        <v>521</v>
+        <v>485</v>
       </c>
       <c r="G54" s="38" t="s">
-        <v>532</v>
+        <v>496</v>
       </c>
       <c r="H54" s="38" t="s">
-        <v>533</v>
+        <v>497</v>
       </c>
       <c r="I54" s="37"/>
       <c r="J54" s="37"/>
@@ -10653,8 +10466,8 @@
       <c r="A55" s="18">
         <v>54</v>
       </c>
-      <c r="B55" s="97"/>
-      <c r="C55" s="97"/>
+      <c r="B55" s="103"/>
+      <c r="C55" s="103"/>
       <c r="D55" s="38" t="s">
         <v>175</v>
       </c>
@@ -10662,13 +10475,13 @@
         <v>175</v>
       </c>
       <c r="F55" s="38" t="s">
-        <v>521</v>
+        <v>485</v>
       </c>
       <c r="G55" s="38" t="s">
-        <v>504</v>
+        <v>468</v>
       </c>
       <c r="H55" s="38" t="s">
-        <v>505</v>
+        <v>469</v>
       </c>
       <c r="I55" s="37"/>
       <c r="J55" s="37"/>
@@ -10677,8 +10490,8 @@
       <c r="A56" s="18">
         <v>55</v>
       </c>
-      <c r="B56" s="97"/>
-      <c r="C56" s="97"/>
+      <c r="B56" s="103"/>
+      <c r="C56" s="103"/>
       <c r="D56" s="38" t="s">
         <v>176</v>
       </c>
@@ -10686,13 +10499,13 @@
         <v>176</v>
       </c>
       <c r="F56" s="38" t="s">
-        <v>521</v>
+        <v>485</v>
       </c>
       <c r="G56" s="38" t="s">
-        <v>507</v>
+        <v>471</v>
       </c>
       <c r="H56" s="38" t="s">
-        <v>508</v>
+        <v>472</v>
       </c>
       <c r="I56" s="37"/>
       <c r="J56" s="37"/>
@@ -10701,8 +10514,8 @@
       <c r="A57" s="18">
         <v>56</v>
       </c>
-      <c r="B57" s="97"/>
-      <c r="C57" s="97"/>
+      <c r="B57" s="103"/>
+      <c r="C57" s="103"/>
       <c r="D57" s="38" t="s">
         <v>172</v>
       </c>
@@ -10710,13 +10523,13 @@
         <v>172</v>
       </c>
       <c r="F57" s="38" t="s">
-        <v>521</v>
+        <v>485</v>
       </c>
       <c r="G57" s="38" t="s">
-        <v>509</v>
+        <v>473</v>
       </c>
       <c r="H57" s="38" t="s">
-        <v>510</v>
+        <v>474</v>
       </c>
       <c r="I57" s="37"/>
       <c r="J57" s="37"/>
@@ -10725,8 +10538,8 @@
       <c r="A58" s="18">
         <v>57</v>
       </c>
-      <c r="B58" s="97"/>
-      <c r="C58" s="97"/>
+      <c r="B58" s="103"/>
+      <c r="C58" s="103"/>
       <c r="D58" s="38" t="s">
         <v>177</v>
       </c>
@@ -10734,13 +10547,13 @@
         <v>177</v>
       </c>
       <c r="F58" s="38" t="s">
-        <v>521</v>
+        <v>485</v>
       </c>
       <c r="G58" s="38" t="s">
-        <v>538</v>
+        <v>502</v>
       </c>
       <c r="H58" s="38" t="s">
-        <v>539</v>
+        <v>503</v>
       </c>
       <c r="I58" s="37"/>
       <c r="J58" s="37"/>
@@ -10749,22 +10562,22 @@
       <c r="A59" s="18">
         <v>58</v>
       </c>
-      <c r="B59" s="97"/>
-      <c r="C59" s="97"/>
+      <c r="B59" s="103"/>
+      <c r="C59" s="103"/>
       <c r="D59" s="38" t="s">
-        <v>537</v>
+        <v>501</v>
       </c>
       <c r="E59" s="38" t="s">
         <v>188</v>
       </c>
       <c r="F59" s="38" t="s">
-        <v>521</v>
+        <v>485</v>
       </c>
       <c r="G59" s="38" t="s">
-        <v>534</v>
+        <v>498</v>
       </c>
       <c r="H59" s="38" t="s">
-        <v>540</v>
+        <v>504</v>
       </c>
       <c r="I59" s="37"/>
       <c r="J59" s="37"/>
@@ -10773,24 +10586,24 @@
       <c r="A60" s="18">
         <v>59</v>
       </c>
-      <c r="B60" s="97"/>
-      <c r="C60" s="102" t="s">
-        <v>544</v>
+      <c r="B60" s="103"/>
+      <c r="C60" s="106" t="s">
+        <v>508</v>
       </c>
       <c r="D60" s="38" t="s">
-        <v>541</v>
+        <v>505</v>
       </c>
       <c r="E60" s="37" t="s">
-        <v>543</v>
+        <v>507</v>
       </c>
       <c r="F60" s="38" t="s">
-        <v>550</v>
+        <v>514</v>
       </c>
       <c r="G60" s="38" t="s">
-        <v>542</v>
+        <v>506</v>
       </c>
       <c r="H60" s="38" t="s">
-        <v>552</v>
+        <v>516</v>
       </c>
       <c r="I60" s="37"/>
       <c r="J60" s="37"/>
@@ -10799,8 +10612,8 @@
       <c r="A61" s="18">
         <v>60</v>
       </c>
-      <c r="B61" s="97"/>
-      <c r="C61" s="102"/>
+      <c r="B61" s="103"/>
+      <c r="C61" s="106"/>
       <c r="D61" s="38" t="s">
         <v>189</v>
       </c>
@@ -10808,13 +10621,13 @@
         <v>189</v>
       </c>
       <c r="F61" s="38" t="s">
-        <v>555</v>
+        <v>519</v>
       </c>
       <c r="G61" s="38" t="s">
-        <v>554</v>
+        <v>518</v>
       </c>
       <c r="H61" s="38" t="s">
-        <v>553</v>
+        <v>517</v>
       </c>
       <c r="I61" s="37"/>
       <c r="J61" s="37"/>
@@ -10823,8 +10636,8 @@
       <c r="A62" s="18">
         <v>61</v>
       </c>
-      <c r="B62" s="97"/>
-      <c r="C62" s="102"/>
+      <c r="B62" s="103"/>
+      <c r="C62" s="106"/>
       <c r="D62" s="38" t="s">
         <v>190</v>
       </c>
@@ -10832,13 +10645,13 @@
         <v>190</v>
       </c>
       <c r="F62" s="38" t="s">
-        <v>555</v>
+        <v>519</v>
       </c>
       <c r="G62" s="38" t="s">
-        <v>556</v>
+        <v>520</v>
       </c>
       <c r="H62" s="38" t="s">
-        <v>557</v>
+        <v>521</v>
       </c>
       <c r="I62" s="37"/>
       <c r="J62" s="37"/>
@@ -10847,22 +10660,22 @@
       <c r="A63" s="18">
         <v>62</v>
       </c>
-      <c r="B63" s="97"/>
-      <c r="C63" s="102"/>
+      <c r="B63" s="103"/>
+      <c r="C63" s="106"/>
       <c r="D63" s="38" t="s">
-        <v>546</v>
+        <v>510</v>
       </c>
       <c r="E63" s="38" t="s">
         <v>191</v>
       </c>
       <c r="F63" s="38" t="s">
-        <v>550</v>
+        <v>514</v>
       </c>
       <c r="G63" s="38" t="s">
-        <v>558</v>
+        <v>522</v>
       </c>
       <c r="H63" s="38" t="s">
-        <v>559</v>
+        <v>523</v>
       </c>
       <c r="I63" s="37"/>
       <c r="J63" s="37"/>
@@ -10871,22 +10684,22 @@
       <c r="A64" s="18">
         <v>63</v>
       </c>
-      <c r="B64" s="97"/>
-      <c r="C64" s="102"/>
+      <c r="B64" s="103"/>
+      <c r="C64" s="106"/>
       <c r="D64" s="38" t="s">
-        <v>549</v>
+        <v>513</v>
       </c>
       <c r="E64" s="38" t="s">
         <v>192</v>
       </c>
       <c r="F64" s="38" t="s">
-        <v>551</v>
+        <v>515</v>
       </c>
       <c r="G64" s="38" t="s">
-        <v>560</v>
+        <v>524</v>
       </c>
       <c r="H64" s="38" t="s">
-        <v>561</v>
+        <v>525</v>
       </c>
       <c r="I64" s="37"/>
       <c r="J64" s="37"/>
@@ -10895,22 +10708,22 @@
       <c r="A65" s="18">
         <v>64</v>
       </c>
-      <c r="B65" s="97"/>
-      <c r="C65" s="102"/>
+      <c r="B65" s="103"/>
+      <c r="C65" s="106"/>
       <c r="D65" s="38" t="s">
-        <v>547</v>
+        <v>511</v>
       </c>
       <c r="E65" s="38" t="s">
         <v>193</v>
       </c>
       <c r="F65" s="38" t="s">
-        <v>550</v>
+        <v>514</v>
       </c>
       <c r="G65" s="38" t="s">
-        <v>562</v>
+        <v>526</v>
       </c>
       <c r="H65" s="38" t="s">
-        <v>563</v>
+        <v>527</v>
       </c>
       <c r="I65" s="37"/>
       <c r="J65" s="37"/>
@@ -10919,22 +10732,22 @@
       <c r="A66" s="18">
         <v>65</v>
       </c>
-      <c r="B66" s="97"/>
-      <c r="C66" s="102"/>
+      <c r="B66" s="103"/>
+      <c r="C66" s="106"/>
       <c r="D66" s="38" t="s">
-        <v>548</v>
+        <v>512</v>
       </c>
       <c r="E66" s="38" t="s">
         <v>194</v>
       </c>
       <c r="F66" s="38" t="s">
-        <v>551</v>
+        <v>515</v>
       </c>
       <c r="G66" s="38" t="s">
-        <v>564</v>
+        <v>528</v>
       </c>
       <c r="H66" s="38" t="s">
-        <v>565</v>
+        <v>529</v>
       </c>
       <c r="I66" s="37"/>
       <c r="J66" s="37"/>
@@ -10943,22 +10756,22 @@
       <c r="A67" s="18">
         <v>66</v>
       </c>
-      <c r="B67" s="97"/>
-      <c r="C67" s="102"/>
+      <c r="B67" s="103"/>
+      <c r="C67" s="106"/>
       <c r="D67" s="38" t="s">
-        <v>545</v>
+        <v>509</v>
       </c>
       <c r="E67" s="38" t="s">
         <v>178</v>
       </c>
       <c r="F67" s="38" t="s">
-        <v>555</v>
+        <v>519</v>
       </c>
       <c r="G67" s="38" t="s">
-        <v>566</v>
+        <v>530</v>
       </c>
       <c r="H67" s="38" t="s">
-        <v>567</v>
+        <v>531</v>
       </c>
       <c r="I67" s="37"/>
       <c r="J67" s="37"/>
@@ -10967,8 +10780,8 @@
       <c r="A68" s="18">
         <v>67</v>
       </c>
-      <c r="B68" s="97"/>
-      <c r="C68" s="102"/>
+      <c r="B68" s="103"/>
+      <c r="C68" s="106"/>
       <c r="D68" s="38" t="s">
         <v>195</v>
       </c>
@@ -10976,13 +10789,13 @@
         <v>195</v>
       </c>
       <c r="F68" s="38" t="s">
-        <v>555</v>
+        <v>519</v>
       </c>
       <c r="G68" s="38" t="s">
-        <v>568</v>
+        <v>532</v>
       </c>
       <c r="H68" s="38" t="s">
-        <v>569</v>
+        <v>533</v>
       </c>
       <c r="I68" s="37"/>
       <c r="J68" s="37"/>
@@ -10991,26 +10804,26 @@
       <c r="A69" s="18">
         <v>68</v>
       </c>
-      <c r="B69" s="97" t="s">
+      <c r="B69" s="103" t="s">
         <v>159</v>
       </c>
       <c r="C69" s="15" t="s">
         <v>169</v>
       </c>
       <c r="D69" s="38" t="s">
-        <v>573</v>
+        <v>537</v>
       </c>
       <c r="E69" s="38" t="s">
-        <v>574</v>
+        <v>538</v>
       </c>
       <c r="F69" s="38" t="s">
-        <v>575</v>
+        <v>539</v>
       </c>
       <c r="G69" s="38" t="s">
-        <v>576</v>
+        <v>540</v>
       </c>
       <c r="H69" s="38" t="s">
-        <v>577</v>
+        <v>541</v>
       </c>
       <c r="I69" s="37"/>
       <c r="J69" s="37"/>
@@ -11019,9 +10832,9 @@
       <c r="A70" s="18">
         <v>69</v>
       </c>
-      <c r="B70" s="97"/>
+      <c r="B70" s="103"/>
       <c r="C70" s="15" t="s">
-        <v>572</v>
+        <v>536</v>
       </c>
       <c r="D70" s="38" t="s">
         <v>196</v>
@@ -11030,13 +10843,13 @@
         <v>196</v>
       </c>
       <c r="F70" s="38" t="s">
-        <v>578</v>
+        <v>542</v>
       </c>
       <c r="G70" s="38" t="s">
-        <v>579</v>
+        <v>543</v>
       </c>
       <c r="H70" s="38" t="s">
-        <v>580</v>
+        <v>544</v>
       </c>
       <c r="I70" s="37"/>
       <c r="J70" s="37"/>
@@ -11045,24 +10858,24 @@
       <c r="A71" s="18">
         <v>70</v>
       </c>
-      <c r="B71" s="97"/>
+      <c r="B71" s="103"/>
       <c r="C71" s="15" t="s">
         <v>180</v>
       </c>
       <c r="D71" s="38" t="s">
-        <v>570</v>
+        <v>534</v>
       </c>
       <c r="E71" s="38" t="s">
-        <v>581</v>
+        <v>545</v>
       </c>
       <c r="F71" s="38" t="s">
-        <v>582</v>
+        <v>546</v>
       </c>
       <c r="G71" s="38" t="s">
-        <v>583</v>
+        <v>547</v>
       </c>
       <c r="H71" s="38" t="s">
-        <v>584</v>
+        <v>548</v>
       </c>
       <c r="I71" s="37"/>
       <c r="J71" s="37"/>
@@ -11071,24 +10884,24 @@
       <c r="A72" s="18">
         <v>71</v>
       </c>
-      <c r="B72" s="97"/>
-      <c r="C72" s="97" t="s">
-        <v>585</v>
+      <c r="B72" s="103"/>
+      <c r="C72" s="103" t="s">
+        <v>549</v>
       </c>
       <c r="D72" s="38" t="s">
-        <v>586</v>
+        <v>550</v>
       </c>
       <c r="E72" s="38" t="s">
-        <v>589</v>
+        <v>553</v>
       </c>
       <c r="F72" s="38" t="s">
-        <v>592</v>
+        <v>556</v>
       </c>
       <c r="G72" s="38" t="s">
-        <v>593</v>
+        <v>557</v>
       </c>
       <c r="H72" s="38" t="s">
-        <v>594</v>
+        <v>558</v>
       </c>
       <c r="I72" s="37"/>
       <c r="J72" s="37"/>
@@ -11097,22 +10910,22 @@
       <c r="A73" s="18">
         <v>72</v>
       </c>
-      <c r="B73" s="97"/>
-      <c r="C73" s="97"/>
+      <c r="B73" s="103"/>
+      <c r="C73" s="103"/>
       <c r="D73" s="38" t="s">
-        <v>587</v>
+        <v>551</v>
       </c>
       <c r="E73" s="38" t="s">
-        <v>590</v>
+        <v>554</v>
       </c>
       <c r="F73" s="38" t="s">
-        <v>592</v>
+        <v>556</v>
       </c>
       <c r="G73" s="38" t="s">
-        <v>590</v>
+        <v>554</v>
       </c>
       <c r="H73" s="38" t="s">
-        <v>595</v>
+        <v>559</v>
       </c>
       <c r="I73" s="37"/>
       <c r="J73" s="37"/>
@@ -11121,22 +10934,22 @@
       <c r="A74" s="18">
         <v>73</v>
       </c>
-      <c r="B74" s="97"/>
-      <c r="C74" s="97"/>
+      <c r="B74" s="103"/>
+      <c r="C74" s="103"/>
       <c r="D74" s="38" t="s">
-        <v>588</v>
+        <v>552</v>
       </c>
       <c r="E74" s="38" t="s">
-        <v>591</v>
+        <v>555</v>
       </c>
       <c r="F74" s="38" t="s">
-        <v>592</v>
+        <v>556</v>
       </c>
       <c r="G74" s="38" t="s">
-        <v>591</v>
+        <v>555</v>
       </c>
       <c r="H74" s="38" t="s">
-        <v>596</v>
+        <v>560</v>
       </c>
       <c r="I74" s="37"/>
       <c r="J74" s="37"/>
@@ -11145,22 +10958,22 @@
       <c r="A75" s="18">
         <v>74</v>
       </c>
-      <c r="B75" s="97"/>
-      <c r="C75" s="97"/>
+      <c r="B75" s="103"/>
+      <c r="C75" s="103"/>
       <c r="D75" s="37" t="s">
-        <v>606</v>
+        <v>570</v>
       </c>
       <c r="E75" s="38" t="s">
-        <v>601</v>
+        <v>565</v>
       </c>
       <c r="F75" s="38" t="s">
-        <v>592</v>
+        <v>556</v>
       </c>
       <c r="G75" s="38" t="s">
-        <v>602</v>
+        <v>566</v>
       </c>
       <c r="H75" s="38" t="s">
-        <v>603</v>
+        <v>567</v>
       </c>
       <c r="I75" s="37"/>
       <c r="J75" s="37"/>
@@ -11169,24 +10982,24 @@
       <c r="A76" s="18">
         <v>75</v>
       </c>
-      <c r="B76" s="97"/>
-      <c r="C76" s="97" t="s">
-        <v>600</v>
-      </c>
-      <c r="D76" s="103" t="s">
-        <v>598</v>
+      <c r="B76" s="103"/>
+      <c r="C76" s="103" t="s">
+        <v>564</v>
+      </c>
+      <c r="D76" s="109" t="s">
+        <v>562</v>
       </c>
       <c r="E76" s="39" t="s">
-        <v>617</v>
+        <v>581</v>
       </c>
       <c r="F76" s="38" t="s">
-        <v>592</v>
+        <v>556</v>
       </c>
       <c r="G76" s="38" t="s">
-        <v>607</v>
+        <v>571</v>
       </c>
       <c r="H76" s="38" t="s">
-        <v>608</v>
+        <v>572</v>
       </c>
       <c r="I76" s="37"/>
       <c r="J76" s="37"/>
@@ -11195,20 +11008,20 @@
       <c r="A77" s="18">
         <v>76</v>
       </c>
-      <c r="B77" s="97"/>
-      <c r="C77" s="97"/>
-      <c r="D77" s="103"/>
+      <c r="B77" s="103"/>
+      <c r="C77" s="103"/>
+      <c r="D77" s="109"/>
       <c r="E77" s="39" t="s">
-        <v>599</v>
+        <v>563</v>
       </c>
       <c r="F77" s="38" t="s">
-        <v>592</v>
+        <v>556</v>
       </c>
       <c r="G77" s="38" t="s">
-        <v>609</v>
+        <v>573</v>
       </c>
       <c r="H77" s="38" t="s">
-        <v>610</v>
+        <v>574</v>
       </c>
       <c r="I77" s="37"/>
       <c r="J77" s="37"/>
@@ -11217,20 +11030,20 @@
       <c r="A78" s="18">
         <v>77</v>
       </c>
-      <c r="B78" s="97"/>
-      <c r="C78" s="97"/>
-      <c r="D78" s="103"/>
+      <c r="B78" s="103"/>
+      <c r="C78" s="103"/>
+      <c r="D78" s="109"/>
       <c r="E78" s="38" t="s">
-        <v>616</v>
+        <v>580</v>
       </c>
       <c r="F78" s="38" t="s">
-        <v>592</v>
+        <v>556</v>
       </c>
       <c r="G78" s="38" t="s">
-        <v>611</v>
+        <v>575</v>
       </c>
       <c r="H78" s="38" t="s">
-        <v>612</v>
+        <v>576</v>
       </c>
       <c r="I78" s="37"/>
       <c r="J78" s="37"/>
@@ -11239,20 +11052,20 @@
       <c r="A79" s="18">
         <v>78</v>
       </c>
-      <c r="B79" s="97"/>
-      <c r="C79" s="97"/>
-      <c r="D79" s="103"/>
+      <c r="B79" s="103"/>
+      <c r="C79" s="103"/>
+      <c r="D79" s="109"/>
       <c r="E79" s="38" t="s">
-        <v>615</v>
+        <v>579</v>
       </c>
       <c r="F79" s="38" t="s">
-        <v>592</v>
+        <v>556</v>
       </c>
       <c r="G79" s="38" t="s">
-        <v>613</v>
+        <v>577</v>
       </c>
       <c r="H79" s="38" t="s">
-        <v>614</v>
+        <v>578</v>
       </c>
       <c r="I79" s="37"/>
       <c r="J79" s="37"/>
@@ -11261,22 +11074,22 @@
       <c r="A80" s="18">
         <v>79</v>
       </c>
-      <c r="B80" s="97"/>
-      <c r="C80" s="97"/>
-      <c r="D80" s="100" t="s">
-        <v>605</v>
+      <c r="B80" s="103"/>
+      <c r="C80" s="103"/>
+      <c r="D80" s="108" t="s">
+        <v>569</v>
       </c>
       <c r="E80" s="38" t="s">
-        <v>621</v>
+        <v>585</v>
       </c>
       <c r="F80" s="38" t="s">
-        <v>592</v>
+        <v>556</v>
       </c>
       <c r="G80" s="38" t="s">
-        <v>618</v>
+        <v>582</v>
       </c>
       <c r="H80" s="38" t="s">
-        <v>604</v>
+        <v>568</v>
       </c>
       <c r="I80" s="37"/>
       <c r="J80" s="37"/>
@@ -11285,17 +11098,17 @@
       <c r="A81" s="18">
         <v>80</v>
       </c>
-      <c r="B81" s="97"/>
-      <c r="C81" s="97"/>
-      <c r="D81" s="100"/>
+      <c r="B81" s="103"/>
+      <c r="C81" s="103"/>
+      <c r="D81" s="108"/>
       <c r="E81" s="38" t="s">
-        <v>622</v>
+        <v>586</v>
       </c>
       <c r="F81" s="38" t="s">
-        <v>592</v>
+        <v>556</v>
       </c>
       <c r="G81" s="38" t="s">
-        <v>618</v>
+        <v>582</v>
       </c>
       <c r="H81" s="38" t="s">
         <v>167</v>
@@ -11307,20 +11120,20 @@
       <c r="A82" s="18">
         <v>81</v>
       </c>
-      <c r="B82" s="97"/>
-      <c r="C82" s="97"/>
-      <c r="D82" s="100"/>
+      <c r="B82" s="103"/>
+      <c r="C82" s="103"/>
+      <c r="D82" s="108"/>
       <c r="E82" s="38" t="s">
-        <v>619</v>
+        <v>583</v>
       </c>
       <c r="F82" s="38" t="s">
-        <v>592</v>
+        <v>556</v>
       </c>
       <c r="G82" s="38" t="s">
-        <v>623</v>
+        <v>587</v>
       </c>
       <c r="H82" s="38" t="s">
-        <v>571</v>
+        <v>535</v>
       </c>
       <c r="I82" s="37"/>
       <c r="J82" s="37"/>
@@ -11329,17 +11142,17 @@
       <c r="A83" s="18">
         <v>82</v>
       </c>
-      <c r="B83" s="97"/>
-      <c r="C83" s="97"/>
-      <c r="D83" s="100"/>
+      <c r="B83" s="103"/>
+      <c r="C83" s="103"/>
+      <c r="D83" s="108"/>
       <c r="E83" s="38" t="s">
-        <v>620</v>
+        <v>584</v>
       </c>
       <c r="F83" s="38" t="s">
-        <v>592</v>
+        <v>556</v>
       </c>
       <c r="G83" s="38" t="s">
-        <v>624</v>
+        <v>588</v>
       </c>
       <c r="H83" s="38" t="s">
         <v>168</v>
@@ -11351,10 +11164,10 @@
       <c r="A84" s="18">
         <v>83</v>
       </c>
-      <c r="B84" s="97" t="s">
-        <v>402</v>
-      </c>
-      <c r="C84" s="97" t="s">
+      <c r="B84" s="103" t="s">
+        <v>366</v>
+      </c>
+      <c r="C84" s="103" t="s">
         <v>216</v>
       </c>
       <c r="D84" s="38" t="s">
@@ -11379,8 +11192,8 @@
       <c r="A85" s="18">
         <v>84</v>
       </c>
-      <c r="B85" s="97"/>
-      <c r="C85" s="97"/>
+      <c r="B85" s="103"/>
+      <c r="C85" s="103"/>
       <c r="D85" s="38" t="s">
         <v>261</v>
       </c>
@@ -11403,8 +11216,8 @@
       <c r="A86" s="18">
         <v>85</v>
       </c>
-      <c r="B86" s="97"/>
-      <c r="C86" s="97" t="s">
+      <c r="B86" s="103"/>
+      <c r="C86" s="103" t="s">
         <v>212</v>
       </c>
       <c r="D86" s="38" t="s">
@@ -11414,7 +11227,7 @@
         <v>211</v>
       </c>
       <c r="F86" s="38" t="s">
-        <v>597</v>
+        <v>561</v>
       </c>
       <c r="G86" s="38" t="s">
         <v>221</v>
@@ -11429,9 +11242,9 @@
       <c r="A87" s="18">
         <v>86</v>
       </c>
-      <c r="B87" s="97"/>
-      <c r="C87" s="97"/>
-      <c r="D87" s="100" t="s">
+      <c r="B87" s="103"/>
+      <c r="C87" s="103"/>
+      <c r="D87" s="108" t="s">
         <v>246</v>
       </c>
       <c r="E87" s="38" t="s">
@@ -11453,9 +11266,9 @@
       <c r="A88" s="18">
         <v>87</v>
       </c>
-      <c r="B88" s="97"/>
-      <c r="C88" s="97"/>
-      <c r="D88" s="100"/>
+      <c r="B88" s="103"/>
+      <c r="C88" s="103"/>
+      <c r="D88" s="108"/>
       <c r="E88" s="38" t="s">
         <v>252</v>
       </c>
@@ -11475,9 +11288,9 @@
       <c r="A89" s="18">
         <v>88</v>
       </c>
-      <c r="B89" s="97"/>
-      <c r="C89" s="97"/>
-      <c r="D89" s="100"/>
+      <c r="B89" s="103"/>
+      <c r="C89" s="103"/>
+      <c r="D89" s="108"/>
       <c r="E89" s="38" t="s">
         <v>250</v>
       </c>
@@ -11497,9 +11310,9 @@
       <c r="A90" s="18">
         <v>89</v>
       </c>
-      <c r="B90" s="97"/>
-      <c r="C90" s="97"/>
-      <c r="D90" s="100"/>
+      <c r="B90" s="103"/>
+      <c r="C90" s="103"/>
+      <c r="D90" s="108"/>
       <c r="E90" s="38" t="s">
         <v>249</v>
       </c>
@@ -11519,9 +11332,9 @@
       <c r="A91" s="18">
         <v>90</v>
       </c>
-      <c r="B91" s="97"/>
-      <c r="C91" s="97"/>
-      <c r="D91" s="100" t="s">
+      <c r="B91" s="103"/>
+      <c r="C91" s="103"/>
+      <c r="D91" s="108" t="s">
         <v>251</v>
       </c>
       <c r="E91" s="38" t="s">
@@ -11543,9 +11356,9 @@
       <c r="A92" s="18">
         <v>91</v>
       </c>
-      <c r="B92" s="97"/>
-      <c r="C92" s="97"/>
-      <c r="D92" s="100"/>
+      <c r="B92" s="103"/>
+      <c r="C92" s="103"/>
+      <c r="D92" s="108"/>
       <c r="E92" s="38" t="s">
         <v>254</v>
       </c>
@@ -11565,9 +11378,9 @@
       <c r="A93" s="18">
         <v>92</v>
       </c>
-      <c r="B93" s="97"/>
-      <c r="C93" s="97"/>
-      <c r="D93" s="100"/>
+      <c r="B93" s="103"/>
+      <c r="C93" s="103"/>
+      <c r="D93" s="108"/>
       <c r="E93" s="38" t="s">
         <v>258</v>
       </c>
@@ -11587,9 +11400,9 @@
       <c r="A94" s="18">
         <v>93</v>
       </c>
-      <c r="B94" s="97"/>
-      <c r="C94" s="97"/>
-      <c r="D94" s="100" t="s">
+      <c r="B94" s="103"/>
+      <c r="C94" s="103"/>
+      <c r="D94" s="108" t="s">
         <v>248</v>
       </c>
       <c r="E94" s="38" t="s">
@@ -11611,9 +11424,9 @@
       <c r="A95" s="18">
         <v>94</v>
       </c>
-      <c r="B95" s="97"/>
-      <c r="C95" s="97"/>
-      <c r="D95" s="100"/>
+      <c r="B95" s="103"/>
+      <c r="C95" s="103"/>
+      <c r="D95" s="108"/>
       <c r="E95" s="38" t="s">
         <v>227</v>
       </c>
@@ -11633,12 +11446,12 @@
       <c r="A96" s="18">
         <v>95</v>
       </c>
-      <c r="B96" s="97"/>
-      <c r="C96" s="97" t="s">
+      <c r="B96" s="103"/>
+      <c r="C96" s="103" t="s">
         <v>213</v>
       </c>
       <c r="D96" s="38" t="s">
-        <v>430</v>
+        <v>394</v>
       </c>
       <c r="E96" s="38" t="s">
         <v>263</v>
@@ -11659,8 +11472,8 @@
       <c r="A97" s="18">
         <v>96</v>
       </c>
-      <c r="B97" s="97"/>
-      <c r="C97" s="97"/>
+      <c r="B97" s="103"/>
+      <c r="C97" s="103"/>
       <c r="D97" s="38" t="s">
         <v>266</v>
       </c>
@@ -11674,7 +11487,7 @@
         <v>267</v>
       </c>
       <c r="H97" s="38" t="s">
-        <v>355</v>
+        <v>319</v>
       </c>
       <c r="I97" s="37"/>
       <c r="J97" s="37"/>
@@ -11683,8 +11496,8 @@
       <c r="A98" s="18">
         <v>97</v>
       </c>
-      <c r="B98" s="97"/>
-      <c r="C98" s="97"/>
+      <c r="B98" s="103"/>
+      <c r="C98" s="103"/>
       <c r="D98" s="38" t="s">
         <v>236</v>
       </c>
@@ -11692,7 +11505,7 @@
         <v>236</v>
       </c>
       <c r="F98" s="38" t="s">
-        <v>373</v>
+        <v>337</v>
       </c>
       <c r="G98" s="38" t="s">
         <v>270</v>
@@ -11703,24 +11516,46 @@
       <c r="I98" s="37"/>
       <c r="J98" s="37"/>
     </row>
+    <row r="99" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="B99" s="19" t="s">
+        <v>1242</v>
+      </c>
+      <c r="C99" s="72" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="C100" s="72" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="C101" s="72" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="C102" s="72" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="C103" s="72" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" ht="54" x14ac:dyDescent="0.15">
+      <c r="C104" s="72" t="s">
+        <v>1246</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="B2:B7"/>
-    <mergeCell ref="B8:B14"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="C76:C83"/>
-    <mergeCell ref="C41:C43"/>
-    <mergeCell ref="C44:C48"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="D23:D25"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="D80:D83"/>
-    <mergeCell ref="C72:C75"/>
-    <mergeCell ref="D76:D79"/>
+    <mergeCell ref="D94:D95"/>
+    <mergeCell ref="D87:D90"/>
+    <mergeCell ref="C86:C95"/>
+    <mergeCell ref="C96:C98"/>
+    <mergeCell ref="D91:D93"/>
     <mergeCell ref="C84:C85"/>
     <mergeCell ref="B84:B98"/>
     <mergeCell ref="B69:B83"/>
@@ -11735,11 +11570,22 @@
     <mergeCell ref="C26:C29"/>
     <mergeCell ref="C39:C40"/>
     <mergeCell ref="C60:C68"/>
-    <mergeCell ref="D94:D95"/>
-    <mergeCell ref="D87:D90"/>
-    <mergeCell ref="C86:C95"/>
-    <mergeCell ref="C96:C98"/>
-    <mergeCell ref="D91:D93"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="C76:C83"/>
+    <mergeCell ref="C41:C43"/>
+    <mergeCell ref="C44:C48"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="D23:D25"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="D80:D83"/>
+    <mergeCell ref="C72:C75"/>
+    <mergeCell ref="D76:D79"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="B8:B14"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C13:C14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I2:I163">
@@ -11762,11 +11608,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J133"/>
+  <dimension ref="A1:J134"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C39" sqref="C39:C43"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -11813,16 +11659,16 @@
         <v>8</v>
       </c>
       <c r="J1" s="44" t="s">
-        <v>994</v>
+        <v>958</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="46"/>
-      <c r="B2" s="101" t="s">
-        <v>955</v>
+      <c r="B2" s="107" t="s">
+        <v>919</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>951</v>
+        <v>915</v>
       </c>
       <c r="D2" s="48"/>
       <c r="E2" s="48"/>
@@ -11832,9 +11678,9 @@
     </row>
     <row r="3" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="46"/>
-      <c r="B3" s="101"/>
+      <c r="B3" s="107"/>
       <c r="C3" s="12" t="s">
-        <v>950</v>
+        <v>914</v>
       </c>
       <c r="D3" s="48"/>
       <c r="E3" s="48"/>
@@ -11844,9 +11690,9 @@
     </row>
     <row r="4" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="46"/>
-      <c r="B4" s="101"/>
+      <c r="B4" s="107"/>
       <c r="C4" s="12" t="s">
-        <v>952</v>
+        <v>916</v>
       </c>
       <c r="D4" s="48"/>
       <c r="E4" s="48"/>
@@ -11856,9 +11702,9 @@
     </row>
     <row r="5" spans="1:10" s="17" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A5" s="46"/>
-      <c r="B5" s="101"/>
+      <c r="B5" s="107"/>
       <c r="C5" s="12" t="s">
-        <v>953</v>
+        <v>917</v>
       </c>
       <c r="D5" s="48"/>
       <c r="E5" s="48"/>
@@ -11868,12 +11714,12 @@
     </row>
     <row r="6" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="46"/>
-      <c r="B6" s="101"/>
-      <c r="C6" s="97" t="s">
-        <v>954</v>
+      <c r="B6" s="107"/>
+      <c r="C6" s="103" t="s">
+        <v>918</v>
       </c>
       <c r="D6" s="48" t="s">
-        <v>956</v>
+        <v>920</v>
       </c>
       <c r="E6" s="48"/>
       <c r="F6" s="48"/>
@@ -11882,10 +11728,10 @@
     </row>
     <row r="7" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="46"/>
-      <c r="B7" s="101"/>
-      <c r="C7" s="97"/>
+      <c r="B7" s="107"/>
+      <c r="C7" s="103"/>
       <c r="D7" s="48" t="s">
-        <v>957</v>
+        <v>921</v>
       </c>
       <c r="E7" s="48"/>
       <c r="F7" s="48"/>
@@ -11894,15 +11740,15 @@
     </row>
     <row r="8" spans="1:10" s="17" customFormat="1" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A8" s="46"/>
-      <c r="B8" s="101"/>
-      <c r="C8" s="97" t="s">
-        <v>958</v>
+      <c r="B8" s="107"/>
+      <c r="C8" s="103" t="s">
+        <v>922</v>
       </c>
       <c r="D8" s="48" t="s">
-        <v>959</v>
+        <v>923</v>
       </c>
       <c r="E8" s="48" t="s">
-        <v>961</v>
+        <v>925</v>
       </c>
       <c r="F8" s="48"/>
       <c r="G8" s="48"/>
@@ -11910,13 +11756,13 @@
     </row>
     <row r="9" spans="1:10" s="17" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A9" s="46"/>
-      <c r="B9" s="101"/>
-      <c r="C9" s="97"/>
+      <c r="B9" s="107"/>
+      <c r="C9" s="103"/>
       <c r="D9" s="48" t="s">
-        <v>960</v>
+        <v>924</v>
       </c>
       <c r="E9" s="48" t="s">
-        <v>962</v>
+        <v>926</v>
       </c>
       <c r="F9" s="48"/>
       <c r="G9" s="48"/>
@@ -11924,13 +11770,13 @@
     </row>
     <row r="10" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="46"/>
-      <c r="B10" s="101"/>
-      <c r="C10" s="97"/>
+      <c r="B10" s="107"/>
+      <c r="C10" s="103"/>
       <c r="D10" s="48" t="s">
-        <v>963</v>
+        <v>927</v>
       </c>
       <c r="E10" s="48" t="s">
-        <v>970</v>
+        <v>934</v>
       </c>
       <c r="F10" s="48"/>
       <c r="G10" s="48"/>
@@ -11938,60 +11784,60 @@
     </row>
     <row r="11" spans="1:10" s="17" customFormat="1" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A11" s="46"/>
-      <c r="B11" s="101"/>
-      <c r="C11" s="97"/>
+      <c r="B11" s="107"/>
+      <c r="C11" s="103"/>
       <c r="D11" s="17" t="s">
-        <v>964</v>
+        <v>928</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>973</v>
+        <v>937</v>
       </c>
       <c r="F11" s="48"/>
       <c r="G11" s="48"/>
       <c r="H11" s="48" t="s">
-        <v>972</v>
+        <v>936</v>
       </c>
     </row>
     <row r="12" spans="1:10" s="17" customFormat="1" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A12" s="46"/>
-      <c r="B12" s="101"/>
-      <c r="C12" s="97"/>
+      <c r="B12" s="107"/>
+      <c r="C12" s="103"/>
       <c r="D12" s="17" t="s">
-        <v>965</v>
+        <v>929</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>971</v>
+        <v>935</v>
       </c>
       <c r="G12" s="48"/>
       <c r="H12" s="48" t="s">
-        <v>974</v>
+        <v>938</v>
       </c>
     </row>
     <row r="13" spans="1:10" s="17" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A13" s="46"/>
-      <c r="B13" s="101"/>
-      <c r="C13" s="97"/>
+      <c r="B13" s="107"/>
+      <c r="C13" s="103"/>
       <c r="D13" s="17" t="s">
-        <v>975</v>
+        <v>939</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>977</v>
+        <v>941</v>
       </c>
       <c r="F13" s="48"/>
       <c r="G13" s="48"/>
       <c r="H13" s="48" t="s">
-        <v>976</v>
+        <v>940</v>
       </c>
     </row>
     <row r="14" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="46"/>
-      <c r="B14" s="101"/>
-      <c r="C14" s="97"/>
+      <c r="B14" s="107"/>
+      <c r="C14" s="103"/>
       <c r="D14" s="17" t="s">
-        <v>966</v>
+        <v>930</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>978</v>
+        <v>942</v>
       </c>
       <c r="F14" s="48"/>
       <c r="G14" s="48"/>
@@ -11999,10 +11845,10 @@
     </row>
     <row r="15" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="46"/>
-      <c r="B15" s="101"/>
-      <c r="C15" s="97"/>
+      <c r="B15" s="107"/>
+      <c r="C15" s="103"/>
       <c r="D15" s="48" t="s">
-        <v>967</v>
+        <v>931</v>
       </c>
       <c r="E15" s="48"/>
       <c r="F15" s="48"/>
@@ -12011,13 +11857,13 @@
     </row>
     <row r="16" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="46"/>
-      <c r="B16" s="101"/>
-      <c r="C16" s="97"/>
+      <c r="B16" s="107"/>
+      <c r="C16" s="103"/>
       <c r="D16" s="48" t="s">
-        <v>968</v>
+        <v>932</v>
       </c>
       <c r="E16" s="48" t="s">
-        <v>979</v>
+        <v>943</v>
       </c>
       <c r="F16" s="48"/>
       <c r="G16" s="48"/>
@@ -12025,10 +11871,10 @@
     </row>
     <row r="17" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="46"/>
-      <c r="B17" s="101"/>
-      <c r="C17" s="97"/>
+      <c r="B17" s="107"/>
+      <c r="C17" s="103"/>
       <c r="D17" s="48" t="s">
-        <v>969</v>
+        <v>933</v>
       </c>
       <c r="E17" s="48"/>
       <c r="F17" s="48"/>
@@ -12037,10 +11883,10 @@
     </row>
     <row r="18" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="46"/>
-      <c r="B18" s="101"/>
-      <c r="C18" s="97"/>
+      <c r="B18" s="107"/>
+      <c r="C18" s="103"/>
       <c r="D18" s="48" t="s">
-        <v>980</v>
+        <v>944</v>
       </c>
       <c r="E18" s="48"/>
       <c r="F18" s="48"/>
@@ -12049,12 +11895,12 @@
     </row>
     <row r="19" spans="1:8" s="17" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A19" s="46"/>
-      <c r="B19" s="101"/>
+      <c r="B19" s="107"/>
       <c r="C19" s="12" t="s">
-        <v>981</v>
+        <v>945</v>
       </c>
       <c r="D19" s="48" t="s">
-        <v>982</v>
+        <v>946</v>
       </c>
       <c r="E19" s="48"/>
       <c r="F19" s="48"/>
@@ -12063,1206 +11909,1213 @@
     </row>
     <row r="20" spans="1:8" s="17" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A20" s="46"/>
-      <c r="B20" s="101" t="s">
-        <v>628</v>
-      </c>
-      <c r="C20" s="97" t="s">
-        <v>432</v>
+      <c r="B20" s="107" t="s">
+        <v>592</v>
+      </c>
+      <c r="C20" s="103" t="s">
+        <v>396</v>
       </c>
       <c r="D20" s="48" t="s">
-        <v>626</v>
+        <v>590</v>
       </c>
       <c r="E20" s="48" t="s">
-        <v>625</v>
+        <v>589</v>
       </c>
       <c r="F20" s="48" t="s">
-        <v>627</v>
+        <v>591</v>
       </c>
       <c r="G20" s="48" t="s">
-        <v>630</v>
+        <v>594</v>
       </c>
       <c r="H20" s="48" t="s">
-        <v>631</v>
+        <v>595</v>
       </c>
     </row>
     <row r="21" spans="1:8" s="17" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A21" s="18"/>
-      <c r="B21" s="101"/>
-      <c r="C21" s="97"/>
+      <c r="B21" s="107"/>
+      <c r="C21" s="103"/>
       <c r="D21" s="48" t="s">
-        <v>629</v>
+        <v>593</v>
       </c>
       <c r="E21" s="48" t="s">
-        <v>629</v>
+        <v>593</v>
       </c>
       <c r="F21" s="14" t="s">
-        <v>632</v>
+        <v>596</v>
       </c>
       <c r="G21" s="14" t="s">
-        <v>633</v>
+        <v>597</v>
       </c>
       <c r="H21" s="14" t="s">
-        <v>634</v>
+        <v>598</v>
       </c>
     </row>
     <row r="22" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="18"/>
-      <c r="B22" s="101"/>
-      <c r="C22" s="97"/>
+      <c r="B22" s="107"/>
+      <c r="C22" s="103"/>
       <c r="D22" s="12" t="s">
-        <v>636</v>
+        <v>600</v>
       </c>
       <c r="E22" s="48" t="s">
-        <v>638</v>
+        <v>602</v>
       </c>
       <c r="F22" s="14" t="s">
-        <v>632</v>
+        <v>596</v>
       </c>
       <c r="G22" s="14" t="s">
-        <v>637</v>
+        <v>601</v>
       </c>
       <c r="H22" s="14" t="s">
-        <v>639</v>
+        <v>603</v>
       </c>
     </row>
     <row r="23" spans="1:8" s="17" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A23" s="18"/>
-      <c r="B23" s="101"/>
-      <c r="C23" s="97"/>
+      <c r="B23" s="107"/>
+      <c r="C23" s="103"/>
       <c r="D23" s="48" t="s">
-        <v>635</v>
+        <v>599</v>
       </c>
       <c r="E23" s="48" t="s">
-        <v>635</v>
+        <v>599</v>
       </c>
       <c r="F23" s="14" t="s">
-        <v>640</v>
+        <v>604</v>
       </c>
       <c r="G23" s="14" t="s">
-        <v>641</v>
+        <v>605</v>
       </c>
       <c r="H23" s="14" t="s">
-        <v>642</v>
+        <v>606</v>
       </c>
     </row>
     <row r="24" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="18"/>
-      <c r="B24" s="101"/>
-      <c r="C24" s="97"/>
-      <c r="D24" s="97" t="s">
-        <v>400</v>
+      <c r="B24" s="107"/>
+      <c r="C24" s="103"/>
+      <c r="D24" s="103" t="s">
+        <v>364</v>
       </c>
       <c r="E24" s="48" t="s">
-        <v>644</v>
+        <v>608</v>
       </c>
       <c r="F24" s="14" t="s">
-        <v>632</v>
+        <v>596</v>
       </c>
       <c r="G24" s="14" t="s">
-        <v>663</v>
+        <v>627</v>
       </c>
       <c r="H24" s="14" t="s">
-        <v>667</v>
+        <v>631</v>
       </c>
     </row>
     <row r="25" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="18"/>
-      <c r="B25" s="101"/>
-      <c r="C25" s="97"/>
-      <c r="D25" s="97"/>
+      <c r="B25" s="107"/>
+      <c r="C25" s="103"/>
+      <c r="D25" s="103"/>
       <c r="E25" s="48" t="s">
-        <v>662</v>
+        <v>626</v>
       </c>
       <c r="F25" s="14" t="s">
-        <v>632</v>
+        <v>596</v>
       </c>
       <c r="G25" s="14" t="s">
-        <v>664</v>
+        <v>628</v>
       </c>
       <c r="H25" s="14" t="s">
-        <v>667</v>
+        <v>631</v>
       </c>
     </row>
     <row r="26" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="18"/>
-      <c r="B26" s="101"/>
-      <c r="C26" s="97"/>
-      <c r="D26" s="97"/>
+      <c r="B26" s="107"/>
+      <c r="C26" s="103"/>
+      <c r="D26" s="103"/>
       <c r="E26" s="48" t="s">
-        <v>401</v>
+        <v>365</v>
       </c>
       <c r="F26" s="14" t="s">
-        <v>632</v>
+        <v>596</v>
       </c>
       <c r="G26" s="14" t="s">
-        <v>665</v>
+        <v>629</v>
       </c>
       <c r="H26" s="14" t="s">
-        <v>667</v>
+        <v>631</v>
       </c>
     </row>
     <row r="27" spans="1:8" s="17" customFormat="1" ht="57" x14ac:dyDescent="0.2">
       <c r="A27" s="18"/>
-      <c r="B27" s="101"/>
-      <c r="C27" s="97"/>
-      <c r="D27" s="97"/>
+      <c r="B27" s="107"/>
+      <c r="C27" s="103"/>
+      <c r="D27" s="103"/>
       <c r="E27" s="48" t="s">
-        <v>643</v>
+        <v>607</v>
       </c>
       <c r="F27" s="14" t="s">
-        <v>632</v>
+        <v>596</v>
       </c>
       <c r="G27" s="14" t="s">
-        <v>666</v>
+        <v>630</v>
       </c>
       <c r="H27" s="14" t="s">
-        <v>667</v>
+        <v>631</v>
       </c>
     </row>
     <row r="28" spans="1:8" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A28" s="18"/>
-      <c r="B28" s="101"/>
-      <c r="C28" s="97"/>
-      <c r="D28" s="97" t="s">
-        <v>292</v>
+      <c r="B28" s="107"/>
+      <c r="C28" s="103"/>
+      <c r="D28" s="103" t="s">
+        <v>290</v>
       </c>
       <c r="E28" s="48" t="s">
-        <v>647</v>
+        <v>611</v>
       </c>
       <c r="F28" s="14" t="s">
-        <v>645</v>
+        <v>609</v>
       </c>
       <c r="G28" s="14" t="s">
-        <v>646</v>
+        <v>610</v>
       </c>
       <c r="H28" s="14" t="s">
-        <v>652</v>
+        <v>616</v>
       </c>
     </row>
     <row r="29" spans="1:8" s="17" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A29" s="18"/>
-      <c r="B29" s="101"/>
-      <c r="C29" s="97"/>
-      <c r="D29" s="97"/>
+      <c r="B29" s="107"/>
+      <c r="C29" s="103"/>
+      <c r="D29" s="103"/>
       <c r="E29" s="48" t="s">
-        <v>648</v>
+        <v>612</v>
       </c>
       <c r="F29" s="14" t="s">
-        <v>645</v>
+        <v>609</v>
       </c>
       <c r="G29" s="14" t="s">
-        <v>650</v>
+        <v>614</v>
       </c>
       <c r="H29" s="14" t="s">
-        <v>654</v>
+        <v>618</v>
       </c>
     </row>
     <row r="30" spans="1:8" s="17" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A30" s="18"/>
-      <c r="B30" s="101"/>
-      <c r="C30" s="97"/>
-      <c r="D30" s="97"/>
+      <c r="B30" s="107"/>
+      <c r="C30" s="103"/>
+      <c r="D30" s="103"/>
       <c r="E30" s="48" t="s">
-        <v>649</v>
+        <v>613</v>
       </c>
       <c r="F30" s="14" t="s">
-        <v>645</v>
+        <v>609</v>
       </c>
       <c r="G30" s="14" t="s">
-        <v>651</v>
+        <v>615</v>
       </c>
       <c r="H30" s="14" t="s">
-        <v>653</v>
+        <v>617</v>
       </c>
     </row>
     <row r="31" spans="1:8" s="17" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A31" s="18"/>
-      <c r="B31" s="101"/>
-      <c r="C31" s="97"/>
+      <c r="B31" s="107"/>
+      <c r="C31" s="103"/>
       <c r="D31" s="48" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E31" s="48" t="s">
-        <v>398</v>
+        <v>362</v>
       </c>
       <c r="F31" s="14" t="s">
-        <v>655</v>
+        <v>619</v>
       </c>
       <c r="G31" s="14" t="s">
-        <v>656</v>
+        <v>620</v>
       </c>
       <c r="H31" s="14" t="s">
-        <v>657</v>
+        <v>621</v>
       </c>
     </row>
     <row r="32" spans="1:8" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A32" s="18"/>
-      <c r="B32" s="101"/>
-      <c r="C32" s="97"/>
+      <c r="B32" s="107"/>
+      <c r="C32" s="103"/>
       <c r="D32" s="48" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E32" s="48" t="s">
-        <v>399</v>
+        <v>363</v>
       </c>
       <c r="F32" s="14" t="s">
-        <v>655</v>
+        <v>619</v>
       </c>
       <c r="G32" s="14" t="s">
-        <v>658</v>
+        <v>622</v>
       </c>
       <c r="H32" s="14" t="s">
-        <v>659</v>
+        <v>623</v>
       </c>
     </row>
     <row r="33" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="18"/>
-      <c r="B33" s="101"/>
-      <c r="C33" s="97"/>
+      <c r="B33" s="107"/>
+      <c r="C33" s="103"/>
       <c r="D33" s="48" t="s">
-        <v>432</v>
+        <v>396</v>
       </c>
       <c r="E33" s="48" t="s">
-        <v>439</v>
+        <v>403</v>
       </c>
       <c r="F33" s="14" t="s">
-        <v>655</v>
+        <v>619</v>
       </c>
       <c r="G33" s="14" t="s">
-        <v>660</v>
+        <v>624</v>
       </c>
       <c r="H33" s="14" t="s">
-        <v>661</v>
+        <v>625</v>
       </c>
     </row>
     <row r="34" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="18"/>
-      <c r="B34" s="97" t="s">
-        <v>295</v>
-      </c>
-      <c r="C34" s="102" t="s">
-        <v>433</v>
+      <c r="B34" s="103" t="s">
+        <v>293</v>
+      </c>
+      <c r="C34" s="106" t="s">
+        <v>397</v>
       </c>
       <c r="D34" s="48" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E34" s="48" t="s">
-        <v>434</v>
+        <v>398</v>
       </c>
       <c r="F34" s="14" t="s">
-        <v>668</v>
+        <v>632</v>
       </c>
       <c r="G34" s="14" t="s">
-        <v>434</v>
+        <v>398</v>
       </c>
       <c r="H34" s="14" t="s">
-        <v>673</v>
+        <v>637</v>
       </c>
     </row>
     <row r="35" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="18"/>
-      <c r="B35" s="97"/>
-      <c r="C35" s="102"/>
+      <c r="B35" s="103"/>
+      <c r="C35" s="106"/>
       <c r="D35" s="48" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E35" s="48" t="s">
-        <v>435</v>
+        <v>399</v>
       </c>
       <c r="F35" s="14" t="s">
-        <v>668</v>
+        <v>632</v>
       </c>
       <c r="G35" s="14" t="s">
-        <v>435</v>
+        <v>399</v>
       </c>
       <c r="H35" s="14" t="s">
-        <v>674</v>
+        <v>638</v>
       </c>
     </row>
     <row r="36" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="18"/>
-      <c r="B36" s="97"/>
-      <c r="C36" s="102"/>
+      <c r="B36" s="103"/>
+      <c r="C36" s="106"/>
       <c r="D36" s="48" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E36" s="48" t="s">
-        <v>436</v>
+        <v>400</v>
       </c>
       <c r="F36" s="14" t="s">
-        <v>668</v>
+        <v>632</v>
       </c>
       <c r="G36" s="14" t="s">
-        <v>436</v>
+        <v>400</v>
       </c>
       <c r="H36" s="14" t="s">
-        <v>675</v>
+        <v>639</v>
       </c>
     </row>
     <row r="37" spans="1:8" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A37" s="18"/>
-      <c r="B37" s="97"/>
-      <c r="C37" s="102"/>
+      <c r="B37" s="103"/>
+      <c r="C37" s="106"/>
       <c r="D37" s="48" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E37" s="48" t="s">
-        <v>437</v>
+        <v>401</v>
       </c>
       <c r="F37" s="14" t="s">
-        <v>668</v>
+        <v>632</v>
       </c>
       <c r="G37" s="14" t="s">
-        <v>670</v>
+        <v>634</v>
       </c>
       <c r="H37" s="14" t="s">
-        <v>671</v>
+        <v>635</v>
       </c>
     </row>
     <row r="38" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="18"/>
-      <c r="B38" s="97"/>
-      <c r="C38" s="102"/>
+      <c r="B38" s="103"/>
+      <c r="C38" s="106"/>
       <c r="D38" s="48" t="s">
-        <v>433</v>
+        <v>397</v>
       </c>
       <c r="E38" s="48" t="s">
-        <v>438</v>
+        <v>402</v>
       </c>
       <c r="F38" s="14" t="s">
-        <v>668</v>
+        <v>632</v>
       </c>
       <c r="G38" s="14" t="s">
-        <v>669</v>
+        <v>633</v>
       </c>
       <c r="H38" s="14" t="s">
-        <v>672</v>
+        <v>636</v>
       </c>
     </row>
     <row r="39" spans="1:8" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A39" s="18"/>
-      <c r="B39" s="97" t="s">
-        <v>440</v>
-      </c>
-      <c r="C39" s="97" t="s">
-        <v>441</v>
-      </c>
-      <c r="D39" s="97" t="s">
-        <v>442</v>
+      <c r="B39" s="103" t="s">
+        <v>404</v>
+      </c>
+      <c r="C39" s="103" t="s">
+        <v>405</v>
+      </c>
+      <c r="D39" s="103" t="s">
+        <v>406</v>
       </c>
       <c r="E39" s="48" t="s">
-        <v>679</v>
+        <v>643</v>
       </c>
       <c r="F39" s="14" t="s">
-        <v>677</v>
+        <v>641</v>
       </c>
       <c r="G39" s="14" t="s">
-        <v>678</v>
+        <v>642</v>
       </c>
       <c r="H39" s="14" t="s">
-        <v>680</v>
+        <v>644</v>
       </c>
     </row>
     <row r="40" spans="1:8" s="17" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A40" s="18"/>
-      <c r="B40" s="97"/>
-      <c r="C40" s="97"/>
-      <c r="D40" s="97"/>
+      <c r="B40" s="103"/>
+      <c r="C40" s="103"/>
+      <c r="D40" s="103"/>
       <c r="E40" s="48" t="s">
-        <v>389</v>
+        <v>353</v>
       </c>
       <c r="F40" s="14" t="s">
-        <v>676</v>
+        <v>640</v>
       </c>
       <c r="G40" s="14" t="s">
-        <v>681</v>
+        <v>645</v>
       </c>
       <c r="H40" s="14" t="s">
-        <v>682</v>
+        <v>646</v>
       </c>
     </row>
     <row r="41" spans="1:8" s="17" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A41" s="18"/>
-      <c r="B41" s="97"/>
-      <c r="C41" s="97"/>
-      <c r="D41" s="97"/>
+      <c r="B41" s="103"/>
+      <c r="C41" s="103"/>
+      <c r="D41" s="103"/>
       <c r="E41" s="48" t="s">
-        <v>390</v>
+        <v>354</v>
       </c>
       <c r="F41" s="14" t="s">
-        <v>676</v>
+        <v>640</v>
       </c>
       <c r="G41" s="14" t="s">
-        <v>684</v>
+        <v>648</v>
       </c>
       <c r="H41" s="14" t="s">
-        <v>683</v>
+        <v>647</v>
       </c>
     </row>
     <row r="42" spans="1:8" s="17" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A42" s="18"/>
-      <c r="B42" s="97"/>
-      <c r="C42" s="97"/>
-      <c r="D42" s="97"/>
+      <c r="B42" s="103"/>
+      <c r="C42" s="103"/>
+      <c r="D42" s="103"/>
       <c r="E42" s="48" t="s">
-        <v>391</v>
+        <v>355</v>
       </c>
       <c r="F42" s="14" t="s">
-        <v>676</v>
+        <v>640</v>
       </c>
       <c r="G42" s="14" t="s">
-        <v>685</v>
+        <v>649</v>
       </c>
       <c r="H42" s="14" t="s">
-        <v>686</v>
+        <v>650</v>
       </c>
     </row>
     <row r="43" spans="1:8" s="17" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A43" s="18"/>
-      <c r="B43" s="97"/>
-      <c r="C43" s="97"/>
-      <c r="D43" s="97"/>
+      <c r="B43" s="103"/>
+      <c r="C43" s="103"/>
+      <c r="D43" s="103"/>
       <c r="E43" s="48" t="s">
-        <v>392</v>
+        <v>356</v>
       </c>
       <c r="F43" s="14" t="s">
-        <v>676</v>
+        <v>640</v>
       </c>
       <c r="G43" s="14" t="s">
-        <v>687</v>
+        <v>651</v>
       </c>
       <c r="H43" s="14" t="s">
-        <v>688</v>
+        <v>652</v>
       </c>
     </row>
     <row r="44" spans="1:8" s="17" customFormat="1" ht="57" x14ac:dyDescent="0.2">
       <c r="A44" s="18"/>
-      <c r="B44" s="97"/>
-      <c r="C44" s="101" t="s">
-        <v>288</v>
+      <c r="B44" s="103"/>
+      <c r="C44" s="107" t="s">
+        <v>1241</v>
       </c>
       <c r="D44" s="12" t="s">
-        <v>394</v>
+        <v>358</v>
       </c>
       <c r="E44" s="48" t="s">
-        <v>689</v>
+        <v>653</v>
       </c>
       <c r="F44" s="14" t="s">
-        <v>692</v>
+        <v>656</v>
       </c>
       <c r="G44" s="14" t="s">
-        <v>693</v>
+        <v>657</v>
       </c>
       <c r="H44" s="14" t="s">
-        <v>694</v>
+        <v>658</v>
       </c>
     </row>
     <row r="45" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="18"/>
-      <c r="B45" s="97"/>
-      <c r="C45" s="101"/>
-      <c r="D45" s="12" t="s">
-        <v>395</v>
-      </c>
-      <c r="E45" s="48" t="s">
-        <v>690</v>
-      </c>
-      <c r="F45" s="14" t="s">
-        <v>692</v>
-      </c>
-      <c r="G45" s="14" t="s">
-        <v>699</v>
-      </c>
-      <c r="H45" s="14" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A45" s="79"/>
+      <c r="B45" s="103"/>
+      <c r="C45" s="107"/>
+      <c r="D45" s="78"/>
+      <c r="E45" s="80"/>
+      <c r="F45" s="80"/>
+      <c r="G45" s="80"/>
+      <c r="H45" s="80"/>
+    </row>
+    <row r="46" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="18"/>
-      <c r="B46" s="97"/>
-      <c r="C46" s="101"/>
+      <c r="B46" s="103"/>
+      <c r="C46" s="107"/>
       <c r="D46" s="12" t="s">
-        <v>393</v>
+        <v>359</v>
       </c>
       <c r="E46" s="48" t="s">
-        <v>691</v>
+        <v>654</v>
       </c>
       <c r="F46" s="14" t="s">
-        <v>692</v>
+        <v>656</v>
       </c>
       <c r="G46" s="14" t="s">
-        <v>697</v>
+        <v>663</v>
       </c>
       <c r="H46" s="14" t="s">
-        <v>698</v>
+        <v>664</v>
       </c>
     </row>
     <row r="47" spans="1:8" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A47" s="18"/>
-      <c r="B47" s="97"/>
-      <c r="C47" s="16" t="s">
-        <v>695</v>
-      </c>
+      <c r="B47" s="103"/>
+      <c r="C47" s="107"/>
       <c r="D47" s="12" t="s">
-        <v>696</v>
+        <v>357</v>
       </c>
       <c r="E47" s="48" t="s">
-        <v>701</v>
+        <v>655</v>
       </c>
       <c r="F47" s="14" t="s">
-        <v>695</v>
+        <v>656</v>
       </c>
       <c r="G47" s="14" t="s">
-        <v>702</v>
+        <v>661</v>
       </c>
       <c r="H47" s="14" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" s="17" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A48" s="18"/>
-      <c r="B48" s="97" t="s">
-        <v>290</v>
-      </c>
-      <c r="C48" s="97" t="s">
-        <v>299</v>
-      </c>
-      <c r="D48" s="21" t="s">
-        <v>443</v>
+      <c r="B48" s="103"/>
+      <c r="C48" s="16" t="s">
+        <v>659</v>
+      </c>
+      <c r="D48" s="12" t="s">
+        <v>660</v>
       </c>
       <c r="E48" s="48" t="s">
-        <v>707</v>
+        <v>665</v>
       </c>
       <c r="F48" s="14" t="s">
-        <v>708</v>
+        <v>659</v>
       </c>
       <c r="G48" s="14" t="s">
-        <v>709</v>
+        <v>666</v>
       </c>
       <c r="H48" s="14" t="s">
-        <v>720</v>
+        <v>667</v>
       </c>
     </row>
     <row r="49" spans="1:8" s="17" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A49" s="18"/>
-      <c r="B49" s="97"/>
-      <c r="C49" s="97"/>
+      <c r="B49" s="103" t="s">
+        <v>288</v>
+      </c>
+      <c r="C49" s="103" t="s">
+        <v>297</v>
+      </c>
       <c r="D49" s="21" t="s">
-        <v>444</v>
+        <v>407</v>
       </c>
       <c r="E49" s="48" t="s">
-        <v>706</v>
+        <v>671</v>
       </c>
       <c r="F49" s="14" t="s">
-        <v>708</v>
+        <v>672</v>
       </c>
       <c r="G49" s="14" t="s">
-        <v>710</v>
+        <v>673</v>
       </c>
       <c r="H49" s="14" t="s">
-        <v>719</v>
+        <v>684</v>
       </c>
     </row>
     <row r="50" spans="1:8" s="17" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A50" s="18"/>
-      <c r="B50" s="97"/>
-      <c r="C50" s="97"/>
+      <c r="B50" s="103"/>
+      <c r="C50" s="103"/>
       <c r="D50" s="21" t="s">
-        <v>445</v>
-      </c>
-      <c r="E50" s="21" t="s">
-        <v>705</v>
+        <v>408</v>
+      </c>
+      <c r="E50" s="48" t="s">
+        <v>670</v>
       </c>
       <c r="F50" s="14" t="s">
-        <v>708</v>
+        <v>672</v>
       </c>
       <c r="G50" s="14" t="s">
-        <v>711</v>
+        <v>674</v>
       </c>
       <c r="H50" s="14" t="s">
-        <v>721</v>
+        <v>683</v>
       </c>
     </row>
     <row r="51" spans="1:8" s="17" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A51" s="18"/>
-      <c r="B51" s="97"/>
-      <c r="C51" s="97"/>
+      <c r="B51" s="103"/>
+      <c r="C51" s="103"/>
       <c r="D51" s="21" t="s">
-        <v>446</v>
+        <v>409</v>
       </c>
       <c r="E51" s="21" t="s">
-        <v>704</v>
-      </c>
-      <c r="F51" s="71" t="s">
+        <v>669</v>
+      </c>
+      <c r="F51" s="14" t="s">
+        <v>672</v>
+      </c>
+      <c r="G51" s="14" t="s">
+        <v>675</v>
+      </c>
+      <c r="H51" s="14" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" s="17" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A52" s="18"/>
+      <c r="B52" s="103"/>
+      <c r="C52" s="103"/>
+      <c r="D52" s="21" t="s">
+        <v>410</v>
+      </c>
+      <c r="E52" s="21" t="s">
+        <v>668</v>
+      </c>
+      <c r="F52" s="71" t="s">
         <v>244</v>
       </c>
-      <c r="G51" s="14" t="s">
-        <v>712</v>
-      </c>
-      <c r="H51" s="14" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="18"/>
-      <c r="B52" s="97"/>
-      <c r="C52" s="97"/>
-      <c r="D52" s="48" t="s">
-        <v>300</v>
-      </c>
-      <c r="E52" s="48" t="s">
-        <v>713</v>
-      </c>
-      <c r="F52" s="14" t="s">
-        <v>708</v>
-      </c>
       <c r="G52" s="14" t="s">
-        <v>714</v>
+        <v>676</v>
       </c>
       <c r="H52" s="14" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" s="17" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="18"/>
-      <c r="B53" s="97"/>
-      <c r="C53" s="106"/>
+      <c r="B53" s="103"/>
+      <c r="C53" s="103"/>
       <c r="D53" s="48" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="E53" s="48" t="s">
-        <v>447</v>
-      </c>
-      <c r="F53" s="71" t="s">
+        <v>677</v>
+      </c>
+      <c r="F53" s="14" t="s">
+        <v>672</v>
+      </c>
+      <c r="G53" s="14" t="s">
+        <v>678</v>
+      </c>
+      <c r="H53" s="14" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" s="17" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A54" s="18"/>
+      <c r="B54" s="103"/>
+      <c r="C54" s="111"/>
+      <c r="D54" s="48" t="s">
+        <v>299</v>
+      </c>
+      <c r="E54" s="48" t="s">
+        <v>411</v>
+      </c>
+      <c r="F54" s="71" t="s">
         <v>244</v>
       </c>
-      <c r="G53" s="14" t="s">
-        <v>716</v>
-      </c>
-      <c r="H53" s="14" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" s="17" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="A54" s="18"/>
-      <c r="B54" s="104" t="s">
-        <v>283</v>
-      </c>
-      <c r="C54" s="104" t="s">
-        <v>230</v>
-      </c>
-      <c r="D54" s="22" t="s">
-        <v>231</v>
-      </c>
-      <c r="E54" s="48" t="s">
-        <v>1121</v>
-      </c>
-      <c r="F54" s="14" t="s">
-        <v>1120</v>
-      </c>
       <c r="G54" s="14" t="s">
-        <v>273</v>
+        <v>680</v>
       </c>
       <c r="H54" s="14" t="s">
-        <v>278</v>
+        <v>681</v>
       </c>
     </row>
     <row r="55" spans="1:8" s="17" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A55" s="18"/>
-      <c r="B55" s="101"/>
-      <c r="C55" s="101"/>
+      <c r="B55" s="104" t="s">
+        <v>283</v>
+      </c>
+      <c r="C55" s="104" t="s">
+        <v>230</v>
+      </c>
       <c r="D55" s="22" t="s">
+        <v>231</v>
+      </c>
+      <c r="E55" s="48" t="s">
+        <v>1085</v>
+      </c>
+      <c r="F55" s="14" t="s">
+        <v>1084</v>
+      </c>
+      <c r="G55" s="14" t="s">
+        <v>273</v>
+      </c>
+      <c r="H55" s="14" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" s="17" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="A56" s="18"/>
+      <c r="B56" s="107"/>
+      <c r="C56" s="107"/>
+      <c r="D56" s="22" t="s">
         <v>232</v>
       </c>
-      <c r="E55" s="48" t="s">
-        <v>1122</v>
-      </c>
-      <c r="F55" s="14" t="s">
-        <v>272</v>
-      </c>
-      <c r="G55" s="14" t="s">
-        <v>274</v>
-      </c>
-      <c r="H55" s="14" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="A56" s="18"/>
-      <c r="B56" s="101"/>
-      <c r="C56" s="101"/>
-      <c r="D56" s="22" t="s">
-        <v>233</v>
-      </c>
-      <c r="E56" s="71" t="s">
-        <v>1123</v>
+      <c r="E56" s="48" t="s">
+        <v>1086</v>
       </c>
       <c r="F56" s="14" t="s">
         <v>272</v>
       </c>
       <c r="G56" s="14" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H56" s="14" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="57" spans="1:8" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A57" s="18"/>
-      <c r="B57" s="101"/>
-      <c r="C57" s="101"/>
+      <c r="B57" s="107"/>
+      <c r="C57" s="107"/>
       <c r="D57" s="22" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E57" s="71" t="s">
-        <v>1124</v>
+        <v>1087</v>
       </c>
       <c r="F57" s="14" t="s">
         <v>272</v>
       </c>
       <c r="G57" s="14" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H57" s="14" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" s="17" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A58" s="18"/>
-      <c r="B58" s="101"/>
-      <c r="C58" s="101"/>
-      <c r="D58" s="48" t="s">
-        <v>235</v>
-      </c>
-      <c r="E58" s="48" t="s">
-        <v>1125</v>
+      <c r="B58" s="107"/>
+      <c r="C58" s="107"/>
+      <c r="D58" s="22" t="s">
+        <v>234</v>
+      </c>
+      <c r="E58" s="71" t="s">
+        <v>1088</v>
       </c>
       <c r="F58" s="14" t="s">
         <v>272</v>
       </c>
       <c r="G58" s="14" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H58" s="14" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="59" spans="1:8" s="17" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A59" s="18"/>
-      <c r="B59" s="101"/>
-      <c r="C59" s="101"/>
-      <c r="D59" s="107" t="s">
-        <v>284</v>
+      <c r="B59" s="107"/>
+      <c r="C59" s="107"/>
+      <c r="D59" s="48" t="s">
+        <v>235</v>
       </c>
       <c r="E59" s="48" t="s">
-        <v>1126</v>
+        <v>1089</v>
       </c>
       <c r="F59" s="14" t="s">
         <v>272</v>
       </c>
       <c r="G59" s="14" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="H59" s="14" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="60" spans="1:8" s="17" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A60" s="18"/>
-      <c r="B60" s="101"/>
-      <c r="C60" s="101"/>
-      <c r="D60" s="107"/>
-      <c r="E60" s="71" t="s">
-        <v>1127</v>
+      <c r="B60" s="107"/>
+      <c r="C60" s="107"/>
+      <c r="D60" s="110" t="s">
+        <v>284</v>
+      </c>
+      <c r="E60" s="48" t="s">
+        <v>1090</v>
       </c>
       <c r="F60" s="14" t="s">
         <v>272</v>
       </c>
       <c r="G60" s="14" t="s">
-        <v>378</v>
+        <v>285</v>
       </c>
       <c r="H60" s="14" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="61" spans="1:8" s="17" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A61" s="18"/>
-      <c r="B61" s="101"/>
-      <c r="C61" s="101"/>
-      <c r="D61" s="47" t="s">
-        <v>374</v>
-      </c>
-      <c r="E61" s="48" t="s">
-        <v>1128</v>
+      <c r="B61" s="107"/>
+      <c r="C61" s="107"/>
+      <c r="D61" s="110"/>
+      <c r="E61" s="71" t="s">
+        <v>1091</v>
       </c>
       <c r="F61" s="14" t="s">
         <v>272</v>
       </c>
       <c r="G61" s="14" t="s">
-        <v>382</v>
+        <v>342</v>
       </c>
       <c r="H61" s="14" t="s">
-        <v>383</v>
+        <v>287</v>
       </c>
     </row>
     <row r="62" spans="1:8" s="17" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A62" s="18"/>
-      <c r="B62" s="101"/>
-      <c r="C62" s="101"/>
+      <c r="B62" s="107"/>
+      <c r="C62" s="107"/>
       <c r="D62" s="47" t="s">
-        <v>377</v>
-      </c>
-      <c r="E62" s="71" t="s">
-        <v>1129</v>
+        <v>338</v>
+      </c>
+      <c r="E62" s="48" t="s">
+        <v>1092</v>
       </c>
       <c r="F62" s="14" t="s">
         <v>272</v>
       </c>
       <c r="G62" s="14" t="s">
-        <v>381</v>
+        <v>346</v>
       </c>
       <c r="H62" s="14" t="s">
-        <v>384</v>
+        <v>347</v>
       </c>
     </row>
     <row r="63" spans="1:8" s="17" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A63" s="18"/>
-      <c r="B63" s="101"/>
-      <c r="C63" s="101"/>
+      <c r="B63" s="107"/>
+      <c r="C63" s="107"/>
       <c r="D63" s="47" t="s">
-        <v>375</v>
-      </c>
-      <c r="E63" s="48" t="s">
-        <v>1130</v>
+        <v>341</v>
+      </c>
+      <c r="E63" s="71" t="s">
+        <v>1093</v>
       </c>
       <c r="F63" s="14" t="s">
         <v>272</v>
       </c>
       <c r="G63" s="14" t="s">
-        <v>379</v>
+        <v>345</v>
       </c>
       <c r="H63" s="14" t="s">
-        <v>385</v>
+        <v>348</v>
       </c>
     </row>
     <row r="64" spans="1:8" s="17" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A64" s="18"/>
-      <c r="B64" s="101"/>
-      <c r="C64" s="101"/>
+      <c r="B64" s="107"/>
+      <c r="C64" s="107"/>
       <c r="D64" s="47" t="s">
-        <v>376</v>
+        <v>339</v>
       </c>
       <c r="E64" s="48" t="s">
-        <v>1131</v>
+        <v>1094</v>
       </c>
       <c r="F64" s="14" t="s">
         <v>272</v>
       </c>
       <c r="G64" s="14" t="s">
-        <v>380</v>
+        <v>343</v>
       </c>
       <c r="H64" s="14" t="s">
-        <v>386</v>
+        <v>349</v>
       </c>
     </row>
     <row r="65" spans="1:9" s="17" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A65" s="18"/>
-      <c r="B65" s="101" t="s">
-        <v>369</v>
-      </c>
-      <c r="C65" s="15" t="s">
-        <v>362</v>
-      </c>
+      <c r="B65" s="107"/>
+      <c r="C65" s="107"/>
       <c r="D65" s="47" t="s">
-        <v>363</v>
-      </c>
-      <c r="E65" s="47" t="s">
-        <v>363</v>
+        <v>340</v>
+      </c>
+      <c r="E65" s="48" t="s">
+        <v>1095</v>
       </c>
       <c r="F65" s="14" t="s">
-        <v>364</v>
+        <v>272</v>
       </c>
       <c r="G65" s="14" t="s">
-        <v>365</v>
+        <v>344</v>
       </c>
       <c r="H65" s="14" t="s">
-        <v>366</v>
+        <v>350</v>
       </c>
     </row>
     <row r="66" spans="1:9" s="17" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A66" s="18"/>
-      <c r="B66" s="101"/>
-      <c r="C66" s="97" t="s">
-        <v>357</v>
-      </c>
-      <c r="D66" s="48" t="s">
-        <v>358</v>
-      </c>
-      <c r="E66" s="48" t="s">
-        <v>358</v>
+      <c r="B66" s="107" t="s">
+        <v>333</v>
+      </c>
+      <c r="C66" s="15" t="s">
+        <v>326</v>
+      </c>
+      <c r="D66" s="47" t="s">
+        <v>327</v>
+      </c>
+      <c r="E66" s="47" t="s">
+        <v>327</v>
       </c>
       <c r="F66" s="14" t="s">
-        <v>724</v>
+        <v>328</v>
       </c>
       <c r="G66" s="14" t="s">
-        <v>727</v>
+        <v>329</v>
       </c>
       <c r="H66" s="14" t="s">
-        <v>728</v>
+        <v>330</v>
       </c>
     </row>
     <row r="67" spans="1:9" s="17" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A67" s="18"/>
-      <c r="B67" s="101"/>
-      <c r="C67" s="97"/>
+      <c r="B67" s="107"/>
+      <c r="C67" s="103" t="s">
+        <v>321</v>
+      </c>
       <c r="D67" s="48" t="s">
-        <v>359</v>
+        <v>322</v>
       </c>
       <c r="E67" s="48" t="s">
-        <v>360</v>
+        <v>322</v>
       </c>
       <c r="F67" s="14" t="s">
-        <v>724</v>
+        <v>688</v>
       </c>
       <c r="G67" s="14" t="s">
-        <v>725</v>
+        <v>691</v>
       </c>
       <c r="H67" s="14" t="s">
-        <v>726</v>
+        <v>692</v>
       </c>
     </row>
     <row r="68" spans="1:9" s="17" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A68" s="18"/>
-      <c r="B68" s="101"/>
-      <c r="C68" s="97" t="s">
-        <v>356</v>
-      </c>
+      <c r="B68" s="107"/>
+      <c r="C68" s="103"/>
       <c r="D68" s="48" t="s">
-        <v>361</v>
+        <v>323</v>
       </c>
       <c r="E68" s="48" t="s">
-        <v>729</v>
+        <v>324</v>
       </c>
       <c r="F68" s="14" t="s">
-        <v>627</v>
+        <v>688</v>
       </c>
       <c r="G68" s="14" t="s">
-        <v>730</v>
+        <v>689</v>
       </c>
       <c r="H68" s="14" t="s">
-        <v>731</v>
+        <v>690</v>
       </c>
     </row>
     <row r="69" spans="1:9" s="17" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A69" s="18"/>
-      <c r="B69" s="101"/>
-      <c r="C69" s="97"/>
+      <c r="B69" s="107"/>
+      <c r="C69" s="103" t="s">
+        <v>320</v>
+      </c>
       <c r="D69" s="48" t="s">
-        <v>732</v>
+        <v>325</v>
       </c>
       <c r="E69" s="48" t="s">
-        <v>367</v>
+        <v>693</v>
       </c>
       <c r="F69" s="14" t="s">
-        <v>733</v>
+        <v>591</v>
       </c>
       <c r="G69" s="14" t="s">
-        <v>734</v>
+        <v>694</v>
       </c>
       <c r="H69" s="14" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.2">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" s="17" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A70" s="18"/>
-      <c r="B70" s="101"/>
-      <c r="C70" s="14" t="s">
-        <v>735</v>
-      </c>
+      <c r="B70" s="107"/>
+      <c r="C70" s="103"/>
       <c r="D70" s="48" t="s">
-        <v>735</v>
+        <v>696</v>
       </c>
       <c r="E70" s="48" t="s">
-        <v>723</v>
+        <v>331</v>
       </c>
       <c r="F70" s="14" t="s">
-        <v>736</v>
+        <v>697</v>
       </c>
       <c r="G70" s="14" t="s">
-        <v>750</v>
+        <v>698</v>
       </c>
       <c r="H70" s="14" t="s">
-        <v>738</v>
+        <v>695</v>
       </c>
     </row>
     <row r="71" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="18"/>
-      <c r="B71" s="101"/>
-      <c r="C71" s="97" t="s">
-        <v>368</v>
-      </c>
-      <c r="D71" s="49" t="s">
-        <v>737</v>
-      </c>
-      <c r="E71" s="49" t="s">
-        <v>737</v>
+      <c r="B71" s="107"/>
+      <c r="C71" s="14" t="s">
+        <v>699</v>
+      </c>
+      <c r="D71" s="48" t="s">
+        <v>699</v>
+      </c>
+      <c r="E71" s="48" t="s">
+        <v>687</v>
       </c>
       <c r="F71" s="14" t="s">
-        <v>708</v>
-      </c>
-      <c r="G71" s="13" t="s">
-        <v>737</v>
-      </c>
-      <c r="H71" s="13" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" s="17" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+        <v>700</v>
+      </c>
+      <c r="G71" s="14" t="s">
+        <v>714</v>
+      </c>
+      <c r="H71" s="14" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="18"/>
-      <c r="B72" s="101"/>
-      <c r="C72" s="97"/>
+      <c r="B72" s="107"/>
+      <c r="C72" s="103" t="s">
+        <v>332</v>
+      </c>
       <c r="D72" s="49" t="s">
-        <v>722</v>
+        <v>701</v>
       </c>
       <c r="E72" s="49" t="s">
-        <v>722</v>
+        <v>701</v>
       </c>
       <c r="F72" s="14" t="s">
-        <v>708</v>
+        <v>672</v>
       </c>
       <c r="G72" s="13" t="s">
-        <v>722</v>
+        <v>701</v>
       </c>
       <c r="H72" s="13" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.2">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" s="17" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A73" s="18"/>
-      <c r="B73" s="101"/>
-      <c r="C73" s="97"/>
+      <c r="B73" s="107"/>
+      <c r="C73" s="103"/>
       <c r="D73" s="49" t="s">
-        <v>431</v>
+        <v>686</v>
       </c>
       <c r="E73" s="49" t="s">
-        <v>431</v>
+        <v>686</v>
       </c>
       <c r="F73" s="14" t="s">
-        <v>708</v>
+        <v>672</v>
       </c>
       <c r="G73" s="13" t="s">
-        <v>431</v>
+        <v>686</v>
       </c>
       <c r="H73" s="13" t="s">
-        <v>431</v>
+        <v>704</v>
       </c>
     </row>
     <row r="74" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="18"/>
-      <c r="B74" s="101"/>
-      <c r="C74" s="97"/>
+      <c r="B74" s="107"/>
+      <c r="C74" s="103"/>
       <c r="D74" s="49" t="s">
-        <v>741</v>
+        <v>395</v>
       </c>
       <c r="E74" s="49" t="s">
-        <v>741</v>
+        <v>395</v>
       </c>
       <c r="F74" s="14" t="s">
-        <v>708</v>
+        <v>672</v>
       </c>
       <c r="G74" s="13" t="s">
-        <v>741</v>
+        <v>395</v>
       </c>
       <c r="H74" s="13" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" s="17" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="18"/>
-      <c r="B75" s="101"/>
-      <c r="C75" s="97" t="s">
-        <v>397</v>
-      </c>
-      <c r="D75" s="48" t="s">
-        <v>744</v>
-      </c>
-      <c r="E75" s="48" t="s">
-        <v>743</v>
+      <c r="B75" s="107"/>
+      <c r="C75" s="103"/>
+      <c r="D75" s="49" t="s">
+        <v>705</v>
+      </c>
+      <c r="E75" s="49" t="s">
+        <v>705</v>
       </c>
       <c r="F75" s="14" t="s">
-        <v>708</v>
-      </c>
-      <c r="G75" s="14" t="s">
-        <v>748</v>
-      </c>
-      <c r="H75" s="14" t="s">
-        <v>742</v>
+        <v>672</v>
+      </c>
+      <c r="G75" s="13" t="s">
+        <v>705</v>
+      </c>
+      <c r="H75" s="13" t="s">
+        <v>705</v>
       </c>
     </row>
     <row r="76" spans="1:9" s="17" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A76" s="18"/>
-      <c r="B76" s="101"/>
-      <c r="C76" s="97"/>
+      <c r="B76" s="107"/>
+      <c r="C76" s="103" t="s">
+        <v>361</v>
+      </c>
       <c r="D76" s="48" t="s">
-        <v>745</v>
+        <v>708</v>
       </c>
       <c r="E76" s="48" t="s">
-        <v>396</v>
+        <v>707</v>
       </c>
       <c r="F76" s="14" t="s">
-        <v>708</v>
+        <v>672</v>
       </c>
       <c r="G76" s="14" t="s">
-        <v>749</v>
+        <v>712</v>
       </c>
       <c r="H76" s="14" t="s">
-        <v>396</v>
+        <v>706</v>
       </c>
     </row>
     <row r="77" spans="1:9" s="17" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A77" s="18"/>
-      <c r="B77" s="101"/>
-      <c r="C77" s="97" t="s">
-        <v>370</v>
-      </c>
+      <c r="B77" s="107"/>
+      <c r="C77" s="103"/>
       <c r="D77" s="48" t="s">
-        <v>371</v>
+        <v>709</v>
       </c>
       <c r="E77" s="48" t="s">
-        <v>747</v>
+        <v>360</v>
       </c>
       <c r="F77" s="14" t="s">
-        <v>708</v>
+        <v>672</v>
       </c>
       <c r="G77" s="14" t="s">
-        <v>751</v>
+        <v>713</v>
       </c>
       <c r="H77" s="14" t="s">
-        <v>746</v>
+        <v>360</v>
       </c>
     </row>
     <row r="78" spans="1:9" s="17" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A78" s="18"/>
-      <c r="B78" s="101"/>
-      <c r="C78" s="97"/>
+      <c r="B78" s="107"/>
+      <c r="C78" s="103" t="s">
+        <v>334</v>
+      </c>
       <c r="D78" s="48" t="s">
-        <v>372</v>
+        <v>335</v>
       </c>
       <c r="E78" s="48" t="s">
-        <v>753</v>
+        <v>711</v>
       </c>
       <c r="F78" s="14" t="s">
-        <v>708</v>
+        <v>672</v>
       </c>
       <c r="G78" s="14" t="s">
-        <v>752</v>
+        <v>715</v>
       </c>
       <c r="H78" s="14" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I79" s="17"/>
+        <v>710</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" s="17" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A79" s="18"/>
+      <c r="B79" s="107"/>
+      <c r="C79" s="103"/>
+      <c r="D79" s="48" t="s">
+        <v>336</v>
+      </c>
+      <c r="E79" s="48" t="s">
+        <v>717</v>
+      </c>
+      <c r="F79" s="14" t="s">
+        <v>672</v>
+      </c>
+      <c r="G79" s="14" t="s">
+        <v>716</v>
+      </c>
+      <c r="H79" s="14" t="s">
+        <v>718</v>
+      </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="I80" s="17"/>
@@ -13426,35 +13279,38 @@
     <row r="133" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I133" s="17"/>
     </row>
+    <row r="134" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I134" s="17"/>
+    </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B54:B64"/>
-    <mergeCell ref="C71:C74"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="C54:C64"/>
-    <mergeCell ref="B65:B78"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="C77:C78"/>
     <mergeCell ref="C8:C18"/>
     <mergeCell ref="B2:B19"/>
     <mergeCell ref="D28:D30"/>
-    <mergeCell ref="C48:C53"/>
-    <mergeCell ref="B39:B47"/>
+    <mergeCell ref="C49:C54"/>
+    <mergeCell ref="B39:B48"/>
     <mergeCell ref="D39:D43"/>
     <mergeCell ref="C39:C43"/>
     <mergeCell ref="B20:B33"/>
     <mergeCell ref="C20:C33"/>
     <mergeCell ref="D24:D27"/>
-    <mergeCell ref="B48:B53"/>
+    <mergeCell ref="B49:B54"/>
     <mergeCell ref="C34:C38"/>
     <mergeCell ref="B34:B38"/>
-    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="C44:C47"/>
     <mergeCell ref="C6:C7"/>
+    <mergeCell ref="B55:B65"/>
+    <mergeCell ref="C72:C75"/>
+    <mergeCell ref="D60:D61"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="C55:C65"/>
+    <mergeCell ref="B66:B79"/>
+    <mergeCell ref="C76:C77"/>
+    <mergeCell ref="C78:C79"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="I2:I133">
+  <conditionalFormatting sqref="I2:I134">
     <cfRule type="containsText" dxfId="13" priority="1" stopIfTrue="1" operator="containsText" text="fail">
       <formula>NOT(ISERROR(SEARCH("fail",I2)))</formula>
     </cfRule>
@@ -13463,7 +13319,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I133">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I134">
       <formula1>"pass,fail,non"</formula1>
     </dataValidation>
   </dataValidations>
@@ -13476,9 +13332,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G19" sqref="G19"/>
+      <selection pane="bottomLeft" activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -13523,648 +13379,648 @@
         <v>8</v>
       </c>
       <c r="J1" s="57" t="s">
-        <v>994</v>
+        <v>958</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A2" s="73"/>
-      <c r="B2" s="108" t="s">
-        <v>1003</v>
+      <c r="B2" s="112" t="s">
+        <v>967</v>
       </c>
       <c r="C2" s="73" t="s">
-        <v>998</v>
+        <v>962</v>
       </c>
       <c r="D2" s="73"/>
       <c r="E2" s="73" t="s">
-        <v>1229</v>
+        <v>1190</v>
       </c>
       <c r="F2" s="73" t="s">
-        <v>1230</v>
+        <v>1191</v>
       </c>
       <c r="G2" s="73" t="s">
-        <v>1231</v>
+        <v>1192</v>
       </c>
       <c r="H2" s="73" t="s">
-        <v>1232</v>
+        <v>1193</v>
       </c>
       <c r="I2" s="73"/>
       <c r="J2" s="73"/>
     </row>
     <row r="3" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="73"/>
-      <c r="B3" s="107"/>
+      <c r="B3" s="110"/>
       <c r="C3" s="73" t="s">
-        <v>1005</v>
+        <v>969</v>
       </c>
       <c r="D3" s="73" t="s">
-        <v>997</v>
+        <v>961</v>
       </c>
       <c r="E3" s="73" t="s">
-        <v>1233</v>
+        <v>1194</v>
       </c>
       <c r="F3" s="73" t="s">
-        <v>1163</v>
+        <v>1124</v>
       </c>
       <c r="G3" s="73" t="s">
-        <v>1234</v>
+        <v>1195</v>
       </c>
       <c r="H3" s="73" t="s">
-        <v>1235</v>
+        <v>1196</v>
       </c>
       <c r="I3" s="73"/>
       <c r="J3" s="73"/>
     </row>
     <row r="4" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A4" s="73"/>
-      <c r="B4" s="107"/>
+      <c r="B4" s="110"/>
       <c r="C4" s="73" t="s">
-        <v>999</v>
+        <v>963</v>
       </c>
       <c r="D4" s="73"/>
       <c r="E4" s="73" t="s">
-        <v>1236</v>
+        <v>1197</v>
       </c>
       <c r="F4" s="73" t="s">
-        <v>1163</v>
+        <v>1124</v>
       </c>
       <c r="G4" s="73" t="s">
-        <v>1237</v>
+        <v>1198</v>
       </c>
       <c r="H4" s="73" t="s">
-        <v>1238</v>
+        <v>1199</v>
       </c>
       <c r="I4" s="73"/>
       <c r="J4" s="73"/>
     </row>
     <row r="5" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="73"/>
-      <c r="B5" s="107"/>
+      <c r="B5" s="110"/>
       <c r="C5" s="73" t="s">
-        <v>1000</v>
+        <v>964</v>
       </c>
       <c r="E5" s="73" t="s">
-        <v>996</v>
+        <v>960</v>
       </c>
       <c r="F5" s="73" t="s">
-        <v>1163</v>
+        <v>1124</v>
       </c>
       <c r="G5" s="73" t="s">
-        <v>1239</v>
+        <v>1200</v>
       </c>
       <c r="H5" s="73" t="s">
-        <v>1240</v>
+        <v>1201</v>
       </c>
       <c r="I5" s="73"/>
       <c r="J5" s="73"/>
     </row>
     <row r="6" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="73"/>
-      <c r="B6" s="107"/>
-      <c r="C6" s="107" t="s">
-        <v>1001</v>
-      </c>
-      <c r="D6" s="107" t="s">
-        <v>1011</v>
+      <c r="B6" s="110"/>
+      <c r="C6" s="110" t="s">
+        <v>965</v>
+      </c>
+      <c r="D6" s="110" t="s">
+        <v>975</v>
       </c>
       <c r="E6" s="73" t="s">
-        <v>1243</v>
+        <v>1204</v>
       </c>
       <c r="F6" s="73" t="s">
-        <v>1163</v>
+        <v>1124</v>
       </c>
       <c r="G6" s="73" t="s">
-        <v>1244</v>
+        <v>1205</v>
       </c>
       <c r="H6" s="73" t="s">
-        <v>1245</v>
+        <v>1206</v>
       </c>
       <c r="I6" s="73"/>
       <c r="J6" s="73"/>
     </row>
     <row r="7" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A7" s="73"/>
-      <c r="B7" s="107"/>
-      <c r="C7" s="107"/>
-      <c r="D7" s="107"/>
+      <c r="B7" s="110"/>
+      <c r="C7" s="110"/>
+      <c r="D7" s="110"/>
       <c r="E7" s="73" t="s">
-        <v>1247</v>
+        <v>1208</v>
       </c>
       <c r="F7" s="73" t="s">
-        <v>1163</v>
+        <v>1124</v>
       </c>
       <c r="G7" s="73" t="s">
-        <v>1246</v>
+        <v>1207</v>
       </c>
       <c r="H7" s="73" t="s">
-        <v>1248</v>
+        <v>1209</v>
       </c>
       <c r="I7" s="73"/>
       <c r="J7" s="73"/>
     </row>
     <row r="8" spans="1:10" ht="57" x14ac:dyDescent="0.2">
       <c r="A8" s="73"/>
-      <c r="B8" s="107"/>
-      <c r="C8" s="107"/>
+      <c r="B8" s="110"/>
+      <c r="C8" s="110"/>
       <c r="D8" s="73" t="s">
-        <v>1241</v>
+        <v>1202</v>
       </c>
       <c r="E8" s="73" t="s">
-        <v>1242</v>
+        <v>1203</v>
       </c>
       <c r="F8" s="73" t="s">
-        <v>1163</v>
+        <v>1124</v>
       </c>
       <c r="G8" s="73" t="s">
-        <v>1249</v>
+        <v>1210</v>
       </c>
       <c r="H8" s="73" t="s">
-        <v>1250</v>
+        <v>1211</v>
       </c>
       <c r="I8" s="73"/>
       <c r="J8" s="73"/>
     </row>
     <row r="9" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A9" s="73"/>
-      <c r="B9" s="107"/>
-      <c r="C9" s="107"/>
+      <c r="B9" s="110"/>
+      <c r="C9" s="110"/>
       <c r="D9" s="73" t="s">
-        <v>1251</v>
+        <v>1212</v>
       </c>
       <c r="E9" s="73" t="s">
-        <v>1251</v>
+        <v>1212</v>
       </c>
       <c r="F9" s="73" t="s">
-        <v>1163</v>
+        <v>1124</v>
       </c>
       <c r="G9" s="73" t="s">
-        <v>1254</v>
+        <v>1215</v>
       </c>
       <c r="H9" s="73" t="s">
-        <v>1255</v>
+        <v>1216</v>
       </c>
       <c r="I9" s="73"/>
       <c r="J9" s="73"/>
     </row>
     <row r="10" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A10" s="73"/>
-      <c r="B10" s="107"/>
-      <c r="C10" s="107"/>
+      <c r="B10" s="110"/>
+      <c r="C10" s="110"/>
       <c r="D10" s="73" t="s">
-        <v>1013</v>
+        <v>977</v>
       </c>
       <c r="E10" s="73" t="s">
-        <v>1013</v>
+        <v>977</v>
       </c>
       <c r="F10" s="73" t="s">
-        <v>1163</v>
+        <v>1124</v>
       </c>
       <c r="G10" s="73" t="s">
-        <v>1254</v>
+        <v>1215</v>
       </c>
       <c r="H10" s="73" t="s">
-        <v>1255</v>
+        <v>1216</v>
       </c>
       <c r="I10" s="73"/>
       <c r="J10" s="73"/>
     </row>
     <row r="11" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A11" s="73"/>
-      <c r="B11" s="107"/>
-      <c r="C11" s="107"/>
+      <c r="B11" s="110"/>
+      <c r="C11" s="110"/>
       <c r="D11" s="73" t="s">
-        <v>1012</v>
+        <v>976</v>
       </c>
       <c r="E11" s="73" t="s">
-        <v>1252</v>
+        <v>1213</v>
       </c>
       <c r="F11" s="73" t="s">
-        <v>1163</v>
+        <v>1124</v>
       </c>
       <c r="G11" s="73" t="s">
-        <v>1256</v>
+        <v>1217</v>
       </c>
       <c r="H11" s="73" t="s">
-        <v>1257</v>
+        <v>1218</v>
       </c>
       <c r="I11" s="73"/>
       <c r="J11" s="73"/>
     </row>
     <row r="12" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A12" s="73"/>
-      <c r="B12" s="107"/>
-      <c r="C12" s="107"/>
+      <c r="B12" s="110"/>
+      <c r="C12" s="110"/>
       <c r="D12" s="73" t="s">
-        <v>1014</v>
+        <v>978</v>
       </c>
       <c r="E12" s="73" t="s">
-        <v>1253</v>
+        <v>1214</v>
       </c>
       <c r="F12" s="73" t="s">
-        <v>1163</v>
+        <v>1124</v>
       </c>
       <c r="G12" s="73" t="s">
-        <v>1259</v>
+        <v>1220</v>
       </c>
       <c r="H12" s="73" t="s">
-        <v>1258</v>
+        <v>1219</v>
       </c>
       <c r="I12" s="73"/>
       <c r="J12" s="73"/>
     </row>
     <row r="13" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A13" s="73"/>
-      <c r="B13" s="107"/>
-      <c r="C13" s="107"/>
+      <c r="B13" s="110"/>
+      <c r="C13" s="110"/>
       <c r="D13" s="73" t="s">
-        <v>1015</v>
+        <v>979</v>
       </c>
       <c r="E13" s="73" t="s">
-        <v>1016</v>
+        <v>980</v>
       </c>
       <c r="F13" s="73" t="s">
-        <v>1163</v>
+        <v>1124</v>
       </c>
       <c r="G13" s="73" t="s">
-        <v>1260</v>
+        <v>1221</v>
       </c>
       <c r="H13" s="73" t="s">
-        <v>1264</v>
+        <v>1225</v>
       </c>
       <c r="I13" s="73"/>
       <c r="J13" s="73"/>
     </row>
     <row r="14" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A14" s="73"/>
-      <c r="B14" s="107"/>
-      <c r="C14" s="107"/>
-      <c r="D14" s="107" t="s">
-        <v>1017</v>
+      <c r="B14" s="110"/>
+      <c r="C14" s="110"/>
+      <c r="D14" s="110" t="s">
+        <v>981</v>
       </c>
       <c r="E14" s="73" t="s">
-        <v>1261</v>
+        <v>1222</v>
       </c>
       <c r="F14" s="73" t="s">
-        <v>1163</v>
+        <v>1124</v>
       </c>
       <c r="G14" s="73" t="s">
-        <v>1163</v>
+        <v>1124</v>
       </c>
       <c r="H14" s="73" t="s">
-        <v>1018</v>
+        <v>982</v>
       </c>
       <c r="I14" s="73"/>
       <c r="J14" s="73"/>
     </row>
     <row r="15" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A15" s="73"/>
-      <c r="B15" s="107"/>
-      <c r="C15" s="107"/>
-      <c r="D15" s="107"/>
+      <c r="B15" s="110"/>
+      <c r="C15" s="110"/>
+      <c r="D15" s="110"/>
       <c r="E15" s="73" t="s">
-        <v>1262</v>
+        <v>1223</v>
       </c>
       <c r="F15" s="73" t="s">
-        <v>1163</v>
+        <v>1124</v>
       </c>
       <c r="G15" s="73" t="s">
-        <v>1163</v>
+        <v>1124</v>
       </c>
       <c r="H15" s="73" t="s">
-        <v>1019</v>
+        <v>983</v>
       </c>
       <c r="I15" s="73"/>
       <c r="J15" s="73"/>
     </row>
     <row r="16" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A16" s="73"/>
-      <c r="B16" s="107"/>
-      <c r="C16" s="107"/>
-      <c r="D16" s="107"/>
+      <c r="B16" s="110"/>
+      <c r="C16" s="110"/>
+      <c r="D16" s="110"/>
       <c r="E16" s="73" t="s">
-        <v>1263</v>
+        <v>1224</v>
       </c>
       <c r="F16" s="73" t="s">
-        <v>1163</v>
+        <v>1124</v>
       </c>
       <c r="G16" s="73" t="s">
-        <v>1163</v>
+        <v>1124</v>
       </c>
       <c r="H16" s="73" t="s">
-        <v>1020</v>
+        <v>984</v>
       </c>
       <c r="I16" s="73"/>
       <c r="J16" s="73"/>
     </row>
     <row r="17" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A17" s="73"/>
-      <c r="B17" s="107"/>
-      <c r="C17" s="107"/>
+      <c r="B17" s="110"/>
+      <c r="C17" s="110"/>
       <c r="D17" s="73" t="s">
-        <v>1021</v>
+        <v>985</v>
       </c>
       <c r="E17" s="73" t="s">
-        <v>1022</v>
+        <v>986</v>
       </c>
       <c r="F17" s="73" t="s">
-        <v>1163</v>
+        <v>1124</v>
       </c>
       <c r="G17" s="73" t="s">
-        <v>1163</v>
+        <v>1124</v>
       </c>
       <c r="H17" s="73" t="s">
-        <v>1022</v>
+        <v>986</v>
       </c>
       <c r="I17" s="73"/>
       <c r="J17" s="73"/>
     </row>
     <row r="18" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A18" s="73"/>
-      <c r="B18" s="107" t="s">
-        <v>1004</v>
+      <c r="B18" s="110" t="s">
+        <v>968</v>
       </c>
       <c r="C18" s="73" t="s">
-        <v>1006</v>
+        <v>970</v>
       </c>
       <c r="D18" s="73"/>
       <c r="E18" s="73" t="s">
-        <v>1006</v>
+        <v>970</v>
       </c>
       <c r="F18" s="73" t="s">
-        <v>1163</v>
+        <v>1124</v>
       </c>
       <c r="G18" s="73" t="s">
-        <v>1006</v>
+        <v>970</v>
       </c>
       <c r="H18" s="73" t="s">
-        <v>1265</v>
+        <v>1226</v>
       </c>
       <c r="I18" s="73"/>
       <c r="J18" s="73"/>
     </row>
     <row r="19" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A19" s="73"/>
-      <c r="B19" s="107"/>
+      <c r="B19" s="110"/>
       <c r="C19" s="73" t="s">
-        <v>1007</v>
+        <v>971</v>
       </c>
       <c r="D19" s="73"/>
       <c r="E19" s="73" t="s">
-        <v>1007</v>
+        <v>971</v>
       </c>
       <c r="F19" s="73" t="s">
-        <v>1163</v>
+        <v>1124</v>
       </c>
       <c r="G19" s="73" t="s">
-        <v>1007</v>
+        <v>971</v>
       </c>
       <c r="H19" s="73" t="s">
-        <v>1266</v>
+        <v>1227</v>
       </c>
       <c r="I19" s="73"/>
       <c r="J19" s="73"/>
     </row>
     <row r="20" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A20" s="73"/>
-      <c r="B20" s="107" t="s">
-        <v>1009</v>
+      <c r="B20" s="110" t="s">
+        <v>973</v>
       </c>
       <c r="C20" s="73" t="s">
-        <v>1023</v>
+        <v>987</v>
       </c>
       <c r="D20" s="73"/>
       <c r="E20" s="73" t="s">
-        <v>1008</v>
+        <v>972</v>
       </c>
       <c r="F20" s="73" t="s">
-        <v>1163</v>
+        <v>1124</v>
       </c>
       <c r="G20" s="73" t="s">
-        <v>1272</v>
+        <v>1233</v>
       </c>
       <c r="H20" s="73" t="s">
-        <v>1008</v>
+        <v>972</v>
       </c>
       <c r="I20" s="73"/>
       <c r="J20" s="73"/>
     </row>
     <row r="21" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A21" s="73"/>
-      <c r="B21" s="107"/>
+      <c r="B21" s="110"/>
       <c r="C21" s="73" t="s">
-        <v>1024</v>
+        <v>988</v>
       </c>
       <c r="D21" s="73"/>
       <c r="E21" s="73" t="s">
-        <v>1010</v>
+        <v>974</v>
       </c>
       <c r="F21" s="73" t="s">
-        <v>1163</v>
+        <v>1124</v>
       </c>
       <c r="G21" s="73" t="s">
-        <v>1273</v>
+        <v>1234</v>
       </c>
       <c r="H21" s="73" t="s">
-        <v>1010</v>
+        <v>974</v>
       </c>
       <c r="I21" s="73"/>
       <c r="J21" s="73"/>
     </row>
     <row r="22" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A22" s="73"/>
-      <c r="B22" s="97" t="s">
-        <v>1002</v>
+      <c r="B22" s="103" t="s">
+        <v>966</v>
       </c>
       <c r="C22" s="73" t="s">
-        <v>1025</v>
+        <v>989</v>
       </c>
       <c r="D22" s="73"/>
       <c r="E22" s="73" t="s">
-        <v>1271</v>
+        <v>1232</v>
       </c>
       <c r="F22" s="73" t="s">
-        <v>1163</v>
+        <v>1124</v>
       </c>
       <c r="G22" s="73"/>
       <c r="H22" s="73" t="s">
-        <v>1267</v>
+        <v>1228</v>
       </c>
       <c r="I22" s="73"/>
       <c r="J22" s="73"/>
     </row>
     <row r="23" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A23" s="73"/>
-      <c r="B23" s="97"/>
+      <c r="B23" s="103"/>
       <c r="C23" s="73" t="s">
-        <v>1026</v>
+        <v>990</v>
       </c>
       <c r="D23" s="73"/>
       <c r="E23" s="73" t="s">
-        <v>1028</v>
+        <v>992</v>
       </c>
       <c r="F23" s="73" t="s">
-        <v>1163</v>
+        <v>1124</v>
       </c>
       <c r="G23" s="73" t="s">
-        <v>1268</v>
+        <v>1229</v>
       </c>
       <c r="H23" s="73" t="s">
-        <v>1028</v>
+        <v>992</v>
       </c>
       <c r="I23" s="73"/>
       <c r="J23" s="73"/>
     </row>
     <row r="24" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A24" s="73"/>
-      <c r="B24" s="97"/>
+      <c r="B24" s="103"/>
       <c r="C24" s="73" t="s">
-        <v>1027</v>
+        <v>991</v>
       </c>
       <c r="D24" s="73"/>
       <c r="E24" s="73" t="s">
-        <v>1270</v>
+        <v>1231</v>
       </c>
       <c r="F24" s="73" t="s">
-        <v>1163</v>
+        <v>1124</v>
       </c>
       <c r="G24" s="73" t="s">
-        <v>1269</v>
+        <v>1230</v>
       </c>
       <c r="H24" s="73" t="s">
-        <v>1270</v>
+        <v>1231</v>
       </c>
       <c r="I24" s="73"/>
       <c r="J24" s="73"/>
     </row>
     <row r="25" spans="1:10" ht="57" x14ac:dyDescent="0.2">
       <c r="A25" s="73"/>
-      <c r="B25" s="97"/>
-      <c r="C25" s="107" t="s">
-        <v>1035</v>
+      <c r="B25" s="103"/>
+      <c r="C25" s="110" t="s">
+        <v>999</v>
       </c>
       <c r="D25" s="73" t="s">
-        <v>1037</v>
+        <v>1001</v>
       </c>
       <c r="E25" s="73" t="s">
-        <v>1036</v>
+        <v>1000</v>
       </c>
       <c r="F25" s="73" t="s">
-        <v>1163</v>
+        <v>1124</v>
       </c>
       <c r="G25" s="73" t="s">
-        <v>1274</v>
+        <v>1235</v>
       </c>
       <c r="H25" s="73" t="s">
-        <v>1275</v>
+        <v>1236</v>
       </c>
       <c r="I25" s="73"/>
       <c r="J25" s="73"/>
     </row>
     <row r="26" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A26" s="73"/>
-      <c r="B26" s="97"/>
-      <c r="C26" s="107"/>
+      <c r="B26" s="103"/>
+      <c r="C26" s="110"/>
       <c r="D26" s="73" t="s">
-        <v>1038</v>
+        <v>1002</v>
       </c>
       <c r="E26" s="73" t="s">
-        <v>1276</v>
+        <v>1237</v>
       </c>
       <c r="F26" s="73" t="s">
-        <v>1163</v>
+        <v>1124</v>
       </c>
       <c r="G26" s="73" t="s">
-        <v>1277</v>
+        <v>1238</v>
       </c>
       <c r="H26" s="73" t="s">
-        <v>1278</v>
+        <v>1239</v>
       </c>
       <c r="I26" s="73"/>
       <c r="J26" s="73"/>
     </row>
     <row r="27" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A27" s="73"/>
-      <c r="B27" s="97"/>
+      <c r="B27" s="103"/>
       <c r="C27" s="73" t="s">
-        <v>1029</v>
+        <v>993</v>
       </c>
       <c r="D27" s="73"/>
       <c r="E27" s="73" t="s">
-        <v>1039</v>
+        <v>1003</v>
       </c>
       <c r="F27" s="73" t="s">
-        <v>1163</v>
+        <v>1124</v>
       </c>
       <c r="G27" s="73" t="s">
-        <v>1039</v>
+        <v>1003</v>
       </c>
       <c r="H27" s="73" t="s">
-        <v>1279</v>
+        <v>1240</v>
       </c>
       <c r="I27" s="73"/>
       <c r="J27" s="73"/>
     </row>
     <row r="28" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A28" s="73"/>
-      <c r="B28" s="97"/>
+      <c r="B28" s="103"/>
       <c r="C28" s="73" t="s">
-        <v>1030</v>
+        <v>994</v>
       </c>
       <c r="D28" s="73"/>
       <c r="E28" s="73" t="s">
-        <v>1040</v>
+        <v>1004</v>
       </c>
       <c r="F28" s="73" t="s">
-        <v>1163</v>
+        <v>1124</v>
       </c>
       <c r="G28" s="73" t="s">
-        <v>1040</v>
+        <v>1004</v>
       </c>
       <c r="H28" s="73" t="s">
-        <v>1030</v>
+        <v>994</v>
       </c>
       <c r="I28" s="73"/>
       <c r="J28" s="73"/>
     </row>
     <row r="29" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A29" s="73"/>
-      <c r="B29" s="97"/>
+      <c r="B29" s="103"/>
       <c r="C29" s="73" t="s">
-        <v>1031</v>
+        <v>995</v>
       </c>
       <c r="D29" s="73"/>
       <c r="E29" s="73" t="s">
-        <v>1033</v>
+        <v>997</v>
       </c>
       <c r="F29" s="73" t="s">
-        <v>1163</v>
+        <v>1124</v>
       </c>
       <c r="G29" s="73" t="s">
-        <v>1033</v>
+        <v>997</v>
       </c>
       <c r="H29" s="73" t="s">
-        <v>1033</v>
+        <v>997</v>
       </c>
       <c r="I29" s="73"/>
       <c r="J29" s="73"/>
     </row>
     <row r="30" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A30" s="73"/>
-      <c r="B30" s="97"/>
+      <c r="B30" s="103"/>
       <c r="C30" s="73" t="s">
-        <v>1034</v>
+        <v>998</v>
       </c>
       <c r="D30" s="73"/>
       <c r="E30" s="73" t="s">
-        <v>1032</v>
+        <v>996</v>
       </c>
       <c r="F30" s="73" t="s">
-        <v>1163</v>
+        <v>1124</v>
       </c>
       <c r="G30" s="73" t="s">
-        <v>1032</v>
+        <v>996</v>
       </c>
       <c r="H30" s="73" t="s">
-        <v>1032</v>
+        <v>996</v>
       </c>
       <c r="I30" s="73"/>
       <c r="J30" s="73"/>
@@ -14204,8 +14060,8 @@
   <dimension ref="A1:J109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -14251,148 +14107,91 @@
         <v>8</v>
       </c>
       <c r="J1" s="43" t="s">
-        <v>994</v>
+        <v>958</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="72" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="74"/>
-      <c r="B2" s="110" t="s">
-        <v>295</v>
-      </c>
-      <c r="C2" s="110" t="s">
-        <v>302</v>
-      </c>
-      <c r="D2" s="110" t="s">
-        <v>303</v>
-      </c>
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
     </row>
     <row r="3" spans="1:10" s="72" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="74"/>
-      <c r="B3" s="110"/>
-      <c r="C3" s="110"/>
-      <c r="D3" s="110" t="s">
-        <v>304</v>
-      </c>
+      <c r="B3" s="77"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
     </row>
     <row r="4" spans="1:10" s="72" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="74"/>
-      <c r="B4" s="110"/>
-      <c r="C4" s="110"/>
-      <c r="D4" s="110" t="s">
-        <v>305</v>
-      </c>
+      <c r="B4" s="77"/>
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
     </row>
     <row r="5" spans="1:10" s="72" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="74"/>
-      <c r="B5" s="110"/>
-      <c r="C5" s="110"/>
-      <c r="D5" s="110" t="s">
-        <v>306</v>
-      </c>
+      <c r="B5" s="77"/>
+      <c r="C5" s="77"/>
+      <c r="D5" s="77"/>
     </row>
     <row r="6" spans="1:10" s="72" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="74"/>
-      <c r="B6" s="110"/>
-      <c r="C6" s="110"/>
-      <c r="D6" s="110" t="s">
-        <v>307</v>
-      </c>
+      <c r="B6" s="77"/>
+      <c r="C6" s="77"/>
+      <c r="D6" s="77"/>
     </row>
     <row r="7" spans="1:10" s="72" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="74"/>
       <c r="B7" s="67"/>
-      <c r="C7" s="68" t="s">
-        <v>308</v>
-      </c>
-      <c r="D7" s="72" t="s">
-        <v>309</v>
-      </c>
+      <c r="C7" s="68"/>
     </row>
     <row r="8" spans="1:10" s="72" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="74"/>
       <c r="B8" s="67"/>
       <c r="C8" s="68"/>
-      <c r="D8" s="72" t="s">
-        <v>310</v>
-      </c>
     </row>
     <row r="9" spans="1:10" s="72" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="74"/>
       <c r="B9" s="67"/>
       <c r="C9" s="68"/>
-      <c r="D9" s="68" t="s">
-        <v>289</v>
-      </c>
+      <c r="D9" s="68"/>
     </row>
     <row r="10" spans="1:10" s="72" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="74"/>
       <c r="B10" s="67"/>
       <c r="C10" s="68"/>
-      <c r="D10" s="68" t="s">
-        <v>311</v>
-      </c>
+      <c r="D10" s="68"/>
     </row>
     <row r="11" spans="1:10" s="72" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="74"/>
-      <c r="B11" s="67" t="s">
-        <v>312</v>
-      </c>
-      <c r="C11" s="68" t="s">
-        <v>313</v>
-      </c>
-      <c r="D11" s="72" t="s">
-        <v>314</v>
-      </c>
+      <c r="B11" s="67"/>
+      <c r="C11" s="68"/>
     </row>
     <row r="12" spans="1:10" s="72" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="74"/>
       <c r="B12" s="67"/>
       <c r="C12" s="68"/>
-      <c r="D12" s="72" t="s">
-        <v>315</v>
-      </c>
     </row>
     <row r="13" spans="1:10" s="72" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="74"/>
       <c r="B13" s="67"/>
-      <c r="C13" s="68" t="s">
-        <v>316</v>
-      </c>
+      <c r="C13" s="68"/>
     </row>
     <row r="14" spans="1:10" s="72" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="74"/>
       <c r="B14" s="67"/>
-      <c r="C14" s="68" t="s">
-        <v>1135</v>
-      </c>
-      <c r="D14" s="72" t="s">
-        <v>1283</v>
-      </c>
     </row>
     <row r="15" spans="1:10" s="72" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="74"/>
       <c r="B15" s="67"/>
-      <c r="C15" s="68" t="s">
-        <v>1284</v>
-      </c>
     </row>
     <row r="16" spans="1:10" s="72" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="74"/>
       <c r="B16" s="67"/>
-      <c r="C16" s="68" t="s">
-        <v>1136</v>
-      </c>
-      <c r="D16" s="72" t="s">
-        <v>1285</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" s="72" customFormat="1" ht="40.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:6" s="72" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="74"/>
       <c r="B17" s="67"/>
-      <c r="C17" s="68"/>
-      <c r="D17" s="72" t="s">
-        <v>1287</v>
-      </c>
     </row>
     <row r="18" spans="1:6" s="72" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="74"/>
@@ -14406,15 +14205,9 @@
     </row>
     <row r="20" spans="1:6" s="72" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="74"/>
-      <c r="B20" s="67" t="s">
-        <v>1134</v>
-      </c>
-      <c r="C20" s="68" t="s">
-        <v>1280</v>
-      </c>
-      <c r="D20" s="68" t="s">
-        <v>1136</v>
-      </c>
+      <c r="B20" s="67"/>
+      <c r="C20" s="68"/>
+      <c r="D20" s="68"/>
     </row>
     <row r="21" spans="1:6" s="72" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="74"/>
@@ -14432,7 +14225,6 @@
       <c r="A23" s="74"/>
       <c r="B23" s="68"/>
       <c r="D23" s="68"/>
-      <c r="E23" s="7"/>
     </row>
     <row r="24" spans="1:6" s="72" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="74"/>
@@ -14453,86 +14245,51 @@
     <row r="26" spans="1:6" s="72" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="74"/>
       <c r="B26" s="68"/>
-      <c r="C26" s="68" t="s">
-        <v>1281</v>
-      </c>
-      <c r="D26" s="111" t="s">
-        <v>1282</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>1288</v>
-      </c>
+      <c r="C26" s="68"/>
+      <c r="D26" s="113"/>
+      <c r="E26" s="7"/>
     </row>
     <row r="27" spans="1:6" s="72" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="74"/>
-      <c r="D27" s="111"/>
-      <c r="E27" s="72" t="s">
-        <v>1289</v>
-      </c>
+      <c r="D27" s="113"/>
     </row>
     <row r="28" spans="1:6" s="72" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="74"/>
-      <c r="D28" s="111"/>
-      <c r="E28" s="72" t="s">
-        <v>1290</v>
-      </c>
+      <c r="D28" s="113"/>
     </row>
     <row r="29" spans="1:6" s="72" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="74"/>
-      <c r="D29" s="111"/>
-      <c r="E29" s="72" t="s">
-        <v>1291</v>
-      </c>
+      <c r="D29" s="113"/>
     </row>
     <row r="30" spans="1:6" s="72" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="74"/>
       <c r="C30" s="74"/>
-      <c r="D30" s="111"/>
-      <c r="E30" s="72" t="s">
-        <v>1292</v>
-      </c>
+      <c r="D30" s="113"/>
     </row>
     <row r="31" spans="1:6" s="72" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="74"/>
       <c r="C31" s="74"/>
-      <c r="D31" s="111"/>
-      <c r="E31" s="72" t="s">
-        <v>1293</v>
-      </c>
+      <c r="D31" s="113"/>
     </row>
     <row r="32" spans="1:6" s="72" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="74"/>
       <c r="C32" s="74"/>
-      <c r="D32" s="111" t="s">
-        <v>1294</v>
-      </c>
-      <c r="E32" s="72" t="s">
-        <v>1297</v>
-      </c>
+      <c r="D32" s="113"/>
     </row>
     <row r="33" spans="1:5" s="72" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="74"/>
       <c r="C33" s="74"/>
-      <c r="D33" s="111"/>
-      <c r="E33" s="72" t="s">
-        <v>1295</v>
-      </c>
+      <c r="D33" s="113"/>
     </row>
     <row r="34" spans="1:5" s="72" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="74"/>
       <c r="C34" s="74"/>
-      <c r="D34" s="111"/>
-      <c r="E34" s="72" t="s">
-        <v>1296</v>
-      </c>
+      <c r="D34" s="113"/>
     </row>
     <row r="35" spans="1:5" s="72" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="74"/>
       <c r="C35" s="74"/>
-      <c r="D35" s="111"/>
-      <c r="E35" s="72" t="s">
-        <v>1286</v>
-      </c>
+      <c r="D35" s="113"/>
     </row>
     <row r="36" spans="1:5" s="72" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="74"/>
@@ -14824,7 +14581,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
+      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -14871,463 +14628,463 @@
         <v>8</v>
       </c>
       <c r="J1" s="76" t="s">
-        <v>994</v>
+        <v>958</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="56" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="73"/>
-      <c r="B2" s="108" t="s">
-        <v>1075</v>
+      <c r="B2" s="112" t="s">
+        <v>1039</v>
       </c>
       <c r="C2" s="73" t="s">
-        <v>1077</v>
+        <v>1041</v>
       </c>
       <c r="D2" s="73"/>
       <c r="E2" s="73" t="s">
-        <v>1098</v>
+        <v>1062</v>
       </c>
       <c r="F2" s="73" t="s">
-        <v>1091</v>
+        <v>1055</v>
       </c>
       <c r="G2" s="73" t="s">
-        <v>1099</v>
+        <v>1063</v>
       </c>
       <c r="H2" s="73" t="s">
-        <v>1100</v>
+        <v>1064</v>
       </c>
       <c r="I2" s="73"/>
       <c r="J2" s="73"/>
     </row>
     <row r="3" spans="1:10" s="56" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A3" s="73"/>
-      <c r="B3" s="107"/>
-      <c r="C3" s="107" t="s">
-        <v>1078</v>
+      <c r="B3" s="110"/>
+      <c r="C3" s="110" t="s">
+        <v>1042</v>
       </c>
       <c r="D3" s="73" t="s">
-        <v>1093</v>
+        <v>1057</v>
       </c>
       <c r="E3" s="73" t="s">
-        <v>1092</v>
+        <v>1056</v>
       </c>
       <c r="F3" s="73" t="s">
-        <v>1091</v>
+        <v>1055</v>
       </c>
       <c r="G3" s="73" t="s">
-        <v>1093</v>
+        <v>1057</v>
       </c>
       <c r="H3" s="73" t="s">
-        <v>1102</v>
+        <v>1066</v>
       </c>
       <c r="I3" s="73"/>
       <c r="J3" s="73"/>
     </row>
     <row r="4" spans="1:10" s="56" customFormat="1" ht="57" x14ac:dyDescent="0.2">
       <c r="A4" s="73"/>
-      <c r="B4" s="107"/>
-      <c r="C4" s="107"/>
+      <c r="B4" s="110"/>
+      <c r="C4" s="110"/>
       <c r="D4" s="73" t="s">
-        <v>1103</v>
+        <v>1067</v>
       </c>
       <c r="E4" s="73" t="s">
-        <v>1104</v>
+        <v>1068</v>
       </c>
       <c r="F4" s="73" t="s">
-        <v>1091</v>
+        <v>1055</v>
       </c>
       <c r="G4" s="73" t="s">
-        <v>1105</v>
+        <v>1069</v>
       </c>
       <c r="H4" s="73" t="s">
-        <v>1106</v>
+        <v>1070</v>
       </c>
       <c r="I4" s="73"/>
       <c r="J4" s="73"/>
     </row>
     <row r="5" spans="1:10" s="56" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A5" s="73"/>
-      <c r="B5" s="107"/>
-      <c r="C5" s="107"/>
+      <c r="B5" s="110"/>
+      <c r="C5" s="110"/>
       <c r="D5" s="73" t="s">
-        <v>1094</v>
+        <v>1058</v>
       </c>
       <c r="E5" s="73" t="s">
-        <v>1079</v>
+        <v>1043</v>
       </c>
       <c r="F5" s="73" t="s">
-        <v>1091</v>
+        <v>1055</v>
       </c>
       <c r="G5" s="73" t="s">
-        <v>1113</v>
+        <v>1077</v>
       </c>
       <c r="H5" s="73" t="s">
-        <v>1114</v>
+        <v>1078</v>
       </c>
       <c r="I5" s="73"/>
       <c r="J5" s="73"/>
     </row>
     <row r="6" spans="1:10" s="56" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A6" s="73"/>
-      <c r="B6" s="107"/>
-      <c r="C6" s="107" t="s">
-        <v>1069</v>
+      <c r="B6" s="110"/>
+      <c r="C6" s="110" t="s">
+        <v>1033</v>
       </c>
       <c r="D6" s="73" t="s">
-        <v>1097</v>
+        <v>1061</v>
       </c>
       <c r="E6" s="73" t="s">
-        <v>1096</v>
+        <v>1060</v>
       </c>
       <c r="F6" s="73" t="s">
-        <v>1101</v>
+        <v>1065</v>
       </c>
       <c r="G6" s="73" t="s">
-        <v>1112</v>
+        <v>1076</v>
       </c>
       <c r="H6" s="73" t="s">
-        <v>1111</v>
+        <v>1075</v>
       </c>
       <c r="I6" s="73"/>
       <c r="J6" s="73"/>
     </row>
     <row r="7" spans="1:10" s="56" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="73"/>
-      <c r="B7" s="107"/>
-      <c r="C7" s="107"/>
+      <c r="B7" s="110"/>
+      <c r="C7" s="110"/>
       <c r="D7" s="73" t="s">
-        <v>1107</v>
+        <v>1071</v>
       </c>
       <c r="E7" s="73" t="s">
-        <v>1107</v>
+        <v>1071</v>
       </c>
       <c r="F7" s="73" t="s">
-        <v>1108</v>
+        <v>1072</v>
       </c>
       <c r="G7" s="73" t="s">
-        <v>1109</v>
+        <v>1073</v>
       </c>
       <c r="H7" s="73" t="s">
-        <v>1110</v>
+        <v>1074</v>
       </c>
       <c r="I7" s="73"/>
       <c r="J7" s="73"/>
     </row>
     <row r="8" spans="1:10" s="56" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A8" s="73"/>
-      <c r="B8" s="107"/>
+      <c r="B8" s="110"/>
       <c r="C8" s="73" t="s">
-        <v>1070</v>
+        <v>1034</v>
       </c>
       <c r="D8" s="73" t="s">
-        <v>1071</v>
+        <v>1035</v>
       </c>
       <c r="E8" s="73" t="s">
-        <v>1115</v>
+        <v>1079</v>
       </c>
       <c r="F8" s="73"/>
       <c r="G8" s="73" t="s">
-        <v>1076</v>
+        <v>1040</v>
       </c>
       <c r="H8" s="73" t="s">
-        <v>1071</v>
+        <v>1035</v>
       </c>
       <c r="I8" s="73"/>
       <c r="J8" s="73"/>
     </row>
     <row r="9" spans="1:10" s="56" customFormat="1" ht="57" x14ac:dyDescent="0.2">
       <c r="A9" s="73"/>
-      <c r="B9" s="107"/>
-      <c r="C9" s="107" t="s">
-        <v>1072</v>
+      <c r="B9" s="110"/>
+      <c r="C9" s="110" t="s">
+        <v>1036</v>
       </c>
       <c r="D9" s="73" t="s">
-        <v>1116</v>
+        <v>1080</v>
       </c>
       <c r="E9" s="73" t="s">
-        <v>1117</v>
+        <v>1081</v>
       </c>
       <c r="F9" s="73" t="s">
-        <v>1118</v>
+        <v>1082</v>
       </c>
       <c r="G9" s="73" t="s">
-        <v>1119</v>
+        <v>1083</v>
       </c>
       <c r="H9" s="73" t="s">
-        <v>1204</v>
+        <v>1165</v>
       </c>
       <c r="I9" s="73"/>
       <c r="J9" s="73"/>
     </row>
     <row r="10" spans="1:10" s="56" customFormat="1" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A10" s="73"/>
-      <c r="B10" s="107"/>
-      <c r="C10" s="107"/>
+      <c r="B10" s="110"/>
+      <c r="C10" s="110"/>
       <c r="D10" s="73" t="s">
-        <v>1205</v>
+        <v>1166</v>
       </c>
       <c r="E10" s="73" t="s">
-        <v>1201</v>
+        <v>1162</v>
       </c>
       <c r="F10" s="73" t="s">
-        <v>1118</v>
+        <v>1082</v>
       </c>
       <c r="G10" s="73" t="s">
-        <v>1209</v>
+        <v>1170</v>
       </c>
       <c r="H10" s="73" t="s">
-        <v>1208</v>
+        <v>1169</v>
       </c>
       <c r="I10" s="73"/>
       <c r="J10" s="73"/>
     </row>
     <row r="11" spans="1:10" s="56" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A11" s="73"/>
-      <c r="B11" s="107"/>
-      <c r="C11" s="107"/>
+      <c r="B11" s="110"/>
+      <c r="C11" s="110"/>
       <c r="D11" s="73" t="s">
-        <v>1133</v>
+        <v>1097</v>
       </c>
       <c r="E11" s="73" t="s">
-        <v>1203</v>
+        <v>1164</v>
       </c>
       <c r="F11" s="73" t="s">
-        <v>1118</v>
+        <v>1082</v>
       </c>
       <c r="G11" s="73" t="s">
-        <v>1202</v>
+        <v>1163</v>
       </c>
       <c r="H11" s="73" t="s">
-        <v>1132</v>
+        <v>1096</v>
       </c>
       <c r="I11" s="73"/>
       <c r="J11" s="73"/>
     </row>
     <row r="12" spans="1:10" s="56" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A12" s="73"/>
-      <c r="B12" s="107"/>
-      <c r="C12" s="107"/>
+      <c r="B12" s="110"/>
+      <c r="C12" s="110"/>
       <c r="D12" s="73" t="s">
-        <v>1080</v>
+        <v>1044</v>
       </c>
       <c r="E12" s="73" t="s">
-        <v>1206</v>
+        <v>1167</v>
       </c>
       <c r="F12" s="73" t="s">
-        <v>1118</v>
+        <v>1082</v>
       </c>
       <c r="G12" s="73" t="s">
-        <v>1207</v>
+        <v>1168</v>
       </c>
       <c r="H12" s="73" t="s">
-        <v>1073</v>
+        <v>1037</v>
       </c>
       <c r="I12" s="73"/>
       <c r="J12" s="73"/>
     </row>
     <row r="13" spans="1:10" s="56" customFormat="1" ht="57" x14ac:dyDescent="0.2">
       <c r="A13" s="73"/>
-      <c r="B13" s="107"/>
-      <c r="C13" s="107"/>
-      <c r="D13" s="107" t="s">
-        <v>1210</v>
+      <c r="B13" s="110"/>
+      <c r="C13" s="110"/>
+      <c r="D13" s="110" t="s">
+        <v>1171</v>
       </c>
       <c r="E13" s="73" t="s">
-        <v>1081</v>
+        <v>1045</v>
       </c>
       <c r="F13" s="73" t="s">
-        <v>1118</v>
+        <v>1082</v>
       </c>
       <c r="G13" s="73" t="s">
-        <v>1211</v>
+        <v>1172</v>
       </c>
       <c r="H13" s="73" t="s">
-        <v>1212</v>
+        <v>1173</v>
       </c>
       <c r="I13" s="73"/>
       <c r="J13" s="73"/>
     </row>
     <row r="14" spans="1:10" s="56" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A14" s="73"/>
-      <c r="B14" s="107"/>
-      <c r="C14" s="107"/>
-      <c r="D14" s="107"/>
+      <c r="B14" s="110"/>
+      <c r="C14" s="110"/>
+      <c r="D14" s="110"/>
       <c r="E14" s="73" t="s">
-        <v>1074</v>
+        <v>1038</v>
       </c>
       <c r="F14" s="73" t="s">
-        <v>1118</v>
+        <v>1082</v>
       </c>
       <c r="G14" s="73" t="s">
-        <v>1215</v>
+        <v>1176</v>
       </c>
       <c r="H14" s="73" t="s">
-        <v>1216</v>
+        <v>1177</v>
       </c>
       <c r="I14" s="73"/>
       <c r="J14" s="73"/>
     </row>
     <row r="15" spans="1:10" s="56" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A15" s="73"/>
-      <c r="B15" s="107"/>
-      <c r="C15" s="107"/>
-      <c r="D15" s="107"/>
+      <c r="B15" s="110"/>
+      <c r="C15" s="110"/>
+      <c r="D15" s="110"/>
       <c r="E15" s="73" t="s">
+        <v>1046</v>
+      </c>
+      <c r="F15" s="73" t="s">
         <v>1082</v>
       </c>
-      <c r="F15" s="73" t="s">
-        <v>1118</v>
-      </c>
       <c r="G15" s="73" t="s">
-        <v>1214</v>
+        <v>1175</v>
       </c>
       <c r="H15" s="73" t="s">
-        <v>1213</v>
+        <v>1174</v>
       </c>
       <c r="I15" s="73"/>
       <c r="J15" s="73"/>
     </row>
     <row r="16" spans="1:10" ht="128.25" x14ac:dyDescent="0.2">
       <c r="A16" s="73"/>
-      <c r="B16" s="107"/>
-      <c r="C16" s="108" t="s">
-        <v>1068</v>
+      <c r="B16" s="110"/>
+      <c r="C16" s="112" t="s">
+        <v>1032</v>
       </c>
       <c r="D16" s="73" t="s">
-        <v>1219</v>
+        <v>1180</v>
       </c>
       <c r="E16" s="73" t="s">
-        <v>1220</v>
+        <v>1181</v>
       </c>
       <c r="F16" s="73"/>
       <c r="G16" s="73" t="s">
-        <v>1083</v>
+        <v>1047</v>
       </c>
       <c r="H16" s="75" t="s">
-        <v>1041</v>
+        <v>1005</v>
       </c>
       <c r="I16" s="73"/>
       <c r="J16" s="73"/>
     </row>
     <row r="17" spans="1:10" ht="156.75" x14ac:dyDescent="0.2">
       <c r="A17" s="73"/>
-      <c r="B17" s="107"/>
-      <c r="C17" s="109"/>
-      <c r="D17" s="107" t="s">
-        <v>1217</v>
+      <c r="B17" s="110"/>
+      <c r="C17" s="114"/>
+      <c r="D17" s="110" t="s">
+        <v>1178</v>
       </c>
       <c r="E17" s="73" t="s">
-        <v>1218</v>
+        <v>1179</v>
       </c>
       <c r="F17" s="73" t="s">
-        <v>1084</v>
+        <v>1048</v>
       </c>
       <c r="G17" s="73" t="s">
-        <v>1095</v>
+        <v>1059</v>
       </c>
       <c r="H17" s="75" t="s">
-        <v>1042</v>
+        <v>1006</v>
       </c>
       <c r="I17" s="73"/>
       <c r="J17" s="73"/>
     </row>
     <row r="18" spans="1:10" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A18" s="73"/>
-      <c r="B18" s="107"/>
-      <c r="C18" s="109"/>
-      <c r="D18" s="107"/>
+      <c r="B18" s="110"/>
+      <c r="C18" s="114"/>
+      <c r="D18" s="110"/>
       <c r="E18" s="73"/>
       <c r="F18" s="73" t="s">
-        <v>1085</v>
+        <v>1049</v>
       </c>
       <c r="G18" s="73" t="s">
-        <v>1086</v>
+        <v>1050</v>
       </c>
       <c r="H18" s="75" t="s">
-        <v>1043</v>
+        <v>1007</v>
       </c>
       <c r="I18" s="73"/>
       <c r="J18" s="73"/>
     </row>
     <row r="19" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A19" s="73"/>
-      <c r="B19" s="107"/>
-      <c r="C19" s="109"/>
-      <c r="D19" s="107"/>
+      <c r="B19" s="110"/>
+      <c r="C19" s="114"/>
+      <c r="D19" s="110"/>
       <c r="E19" s="73" t="s">
-        <v>1225</v>
+        <v>1186</v>
       </c>
       <c r="F19" s="73"/>
       <c r="G19" s="73" t="s">
-        <v>1224</v>
+        <v>1185</v>
       </c>
       <c r="H19" s="75" t="s">
-        <v>1223</v>
+        <v>1184</v>
       </c>
       <c r="I19" s="73"/>
       <c r="J19" s="73"/>
     </row>
     <row r="20" spans="1:10" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A20" s="73"/>
-      <c r="B20" s="107"/>
-      <c r="C20" s="109"/>
+      <c r="B20" s="110"/>
+      <c r="C20" s="114"/>
       <c r="D20" s="73" t="s">
-        <v>1221</v>
+        <v>1182</v>
       </c>
       <c r="E20" s="73" t="s">
-        <v>1222</v>
+        <v>1183</v>
       </c>
       <c r="F20" s="73" t="s">
-        <v>1084</v>
+        <v>1048</v>
       </c>
       <c r="G20" s="73" t="s">
-        <v>1087</v>
+        <v>1051</v>
       </c>
       <c r="H20" s="75" t="s">
-        <v>1044</v>
+        <v>1008</v>
       </c>
       <c r="I20" s="73"/>
       <c r="J20" s="73"/>
     </row>
     <row r="21" spans="1:10" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A21" s="73"/>
-      <c r="B21" s="107"/>
-      <c r="C21" s="109"/>
+      <c r="B21" s="110"/>
+      <c r="C21" s="114"/>
       <c r="D21" s="73" t="s">
-        <v>1226</v>
+        <v>1187</v>
       </c>
       <c r="E21" s="73" t="s">
-        <v>1227</v>
+        <v>1188</v>
       </c>
       <c r="F21" s="73" t="s">
-        <v>1088</v>
+        <v>1052</v>
       </c>
       <c r="G21" s="73" t="s">
-        <v>1089</v>
+        <v>1053</v>
       </c>
       <c r="H21" s="75" t="s">
-        <v>1045</v>
+        <v>1009</v>
       </c>
       <c r="I21" s="73"/>
       <c r="J21" s="73"/>
     </row>
     <row r="22" spans="1:10" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A22" s="73"/>
-      <c r="B22" s="107"/>
-      <c r="C22" s="109"/>
+      <c r="B22" s="110"/>
+      <c r="C22" s="114"/>
       <c r="D22" s="73" t="s">
-        <v>1228</v>
+        <v>1189</v>
       </c>
       <c r="E22" s="73" t="s">
-        <v>1227</v>
+        <v>1188</v>
       </c>
       <c r="F22" s="73" t="s">
-        <v>1088</v>
+        <v>1052</v>
       </c>
       <c r="G22" s="73" t="s">
-        <v>1090</v>
+        <v>1054</v>
       </c>
       <c r="H22" s="75" t="s">
-        <v>1046</v>
+        <v>1010</v>
       </c>
       <c r="I22" s="73"/>
       <c r="J22" s="73"/>
@@ -15367,7 +15124,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F11" activeCellId="1" sqref="A1:XFD1 F11"/>
+      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -15413,328 +15170,328 @@
         <v>8</v>
       </c>
       <c r="J1" s="76" t="s">
-        <v>967</v>
+        <v>931</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="73"/>
-      <c r="B2" s="108" t="s">
-        <v>1200</v>
-      </c>
-      <c r="C2" s="108" t="s">
-        <v>1150</v>
+      <c r="B2" s="112" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C2" s="112" t="s">
+        <v>1111</v>
       </c>
       <c r="D2" s="73" t="s">
-        <v>1160</v>
+        <v>1121</v>
       </c>
       <c r="E2" s="73" t="s">
-        <v>1159</v>
+        <v>1120</v>
       </c>
       <c r="F2" s="73" t="s">
         <v>244</v>
       </c>
       <c r="G2" s="73" t="s">
-        <v>1099</v>
+        <v>1063</v>
       </c>
       <c r="H2" s="73" t="s">
-        <v>1140</v>
+        <v>1101</v>
       </c>
       <c r="I2" s="73"/>
       <c r="J2" s="73"/>
     </row>
     <row r="3" spans="1:10" s="4" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A3" s="73"/>
-      <c r="B3" s="107"/>
-      <c r="C3" s="107"/>
+      <c r="B3" s="110"/>
+      <c r="C3" s="110"/>
       <c r="D3" s="73" t="s">
-        <v>1156</v>
+        <v>1117</v>
       </c>
       <c r="E3" s="73" t="s">
-        <v>1157</v>
+        <v>1118</v>
       </c>
       <c r="F3" s="73" t="s">
         <v>244</v>
       </c>
       <c r="G3" s="73" t="s">
-        <v>1141</v>
+        <v>1102</v>
       </c>
       <c r="H3" s="73" t="s">
-        <v>1158</v>
+        <v>1119</v>
       </c>
       <c r="I3" s="73"/>
       <c r="J3" s="73"/>
     </row>
     <row r="4" spans="1:10" s="4" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A4" s="73"/>
-      <c r="B4" s="107"/>
-      <c r="C4" s="107"/>
+      <c r="B4" s="110"/>
+      <c r="C4" s="110"/>
       <c r="D4" s="73" t="s">
-        <v>1142</v>
+        <v>1103</v>
       </c>
       <c r="E4" s="73" t="s">
-        <v>1143</v>
+        <v>1104</v>
       </c>
       <c r="F4" s="73" t="s">
         <v>244</v>
       </c>
       <c r="G4" s="73" t="s">
-        <v>1145</v>
+        <v>1106</v>
       </c>
       <c r="H4" s="73" t="s">
-        <v>1151</v>
+        <v>1112</v>
       </c>
       <c r="I4" s="73"/>
       <c r="J4" s="73"/>
     </row>
     <row r="5" spans="1:10" s="4" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A5" s="73"/>
-      <c r="B5" s="107"/>
-      <c r="C5" s="107" t="s">
-        <v>1139</v>
+      <c r="B5" s="110"/>
+      <c r="C5" s="110" t="s">
+        <v>1100</v>
       </c>
       <c r="D5" s="73" t="s">
-        <v>1147</v>
+        <v>1108</v>
       </c>
       <c r="E5" s="73" t="s">
-        <v>1147</v>
+        <v>1108</v>
       </c>
       <c r="F5" s="73" t="s">
-        <v>1148</v>
+        <v>1109</v>
       </c>
       <c r="G5" s="73" t="s">
-        <v>1144</v>
+        <v>1105</v>
       </c>
       <c r="H5" s="73" t="s">
-        <v>1146</v>
+        <v>1107</v>
       </c>
       <c r="I5" s="73"/>
       <c r="J5" s="73"/>
     </row>
     <row r="6" spans="1:10" s="4" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A6" s="73"/>
-      <c r="B6" s="107"/>
-      <c r="C6" s="107"/>
+      <c r="B6" s="110"/>
+      <c r="C6" s="110"/>
       <c r="D6" s="73" t="s">
-        <v>1152</v>
+        <v>1113</v>
       </c>
       <c r="E6" s="73" t="s">
-        <v>1155</v>
+        <v>1116</v>
       </c>
       <c r="F6" s="73" t="s">
-        <v>1149</v>
+        <v>1110</v>
       </c>
       <c r="G6" s="73" t="s">
-        <v>1153</v>
+        <v>1114</v>
       </c>
       <c r="H6" s="73" t="s">
-        <v>1169</v>
+        <v>1130</v>
       </c>
       <c r="I6" s="73"/>
       <c r="J6" s="73"/>
     </row>
     <row r="7" spans="1:10" s="4" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A7" s="73"/>
-      <c r="B7" s="107"/>
+      <c r="B7" s="110"/>
       <c r="C7" s="73" t="s">
-        <v>1154</v>
+        <v>1115</v>
       </c>
       <c r="D7" s="73" t="s">
-        <v>1161</v>
+        <v>1122</v>
       </c>
       <c r="E7" s="73" t="s">
-        <v>1162</v>
+        <v>1123</v>
       </c>
       <c r="F7" s="73" t="s">
-        <v>1163</v>
+        <v>1124</v>
       </c>
       <c r="G7" s="73" t="s">
-        <v>1164</v>
+        <v>1125</v>
       </c>
       <c r="H7" s="73" t="s">
-        <v>1165</v>
+        <v>1126</v>
       </c>
       <c r="I7" s="73"/>
       <c r="J7" s="73"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B8" s="107"/>
+      <c r="B8" s="110"/>
       <c r="C8" s="73" t="s">
-        <v>1166</v>
+        <v>1127</v>
       </c>
       <c r="D8" s="73" t="s">
-        <v>1167</v>
+        <v>1128</v>
       </c>
       <c r="E8" s="73" t="s">
-        <v>1167</v>
+        <v>1128</v>
       </c>
       <c r="F8" s="73" t="s">
-        <v>1190</v>
+        <v>1151</v>
       </c>
       <c r="G8" s="73" t="s">
-        <v>1192</v>
+        <v>1153</v>
       </c>
       <c r="H8" s="73" t="s">
-        <v>1193</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="B9" s="107"/>
-      <c r="C9" s="107" t="s">
-        <v>1170</v>
+      <c r="B9" s="110"/>
+      <c r="C9" s="110" t="s">
+        <v>1131</v>
       </c>
       <c r="D9" s="73" t="s">
-        <v>1175</v>
+        <v>1136</v>
       </c>
       <c r="E9" s="73" t="s">
-        <v>1175</v>
+        <v>1136</v>
       </c>
       <c r="F9" s="73" t="s">
-        <v>1190</v>
+        <v>1151</v>
       </c>
       <c r="G9" s="73" t="s">
-        <v>1195</v>
+        <v>1156</v>
       </c>
       <c r="H9" s="73" t="s">
-        <v>1176</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B10" s="107"/>
-      <c r="C10" s="107"/>
+      <c r="B10" s="110"/>
+      <c r="C10" s="110"/>
       <c r="D10" s="73" t="s">
-        <v>1170</v>
+        <v>1131</v>
       </c>
       <c r="E10" s="73" t="s">
-        <v>1170</v>
+        <v>1131</v>
       </c>
       <c r="F10" s="73" t="s">
-        <v>1190</v>
+        <v>1151</v>
       </c>
       <c r="G10" s="73" t="s">
-        <v>1196</v>
+        <v>1157</v>
       </c>
       <c r="H10" s="73" t="s">
-        <v>1172</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="B11" s="107"/>
-      <c r="C11" s="107" t="s">
-        <v>1171</v>
+      <c r="B11" s="110"/>
+      <c r="C11" s="110" t="s">
+        <v>1132</v>
       </c>
       <c r="D11" s="73" t="s">
-        <v>1174</v>
+        <v>1135</v>
       </c>
       <c r="E11" s="73" t="s">
-        <v>1174</v>
+        <v>1135</v>
       </c>
       <c r="F11" s="73" t="s">
-        <v>1190</v>
+        <v>1151</v>
       </c>
       <c r="G11" s="73" t="s">
-        <v>1197</v>
+        <v>1158</v>
       </c>
       <c r="H11" s="73" t="s">
-        <v>1177</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B12" s="107"/>
-      <c r="C12" s="107"/>
+      <c r="B12" s="110"/>
+      <c r="C12" s="110"/>
       <c r="D12" s="73" t="s">
-        <v>1171</v>
+        <v>1132</v>
       </c>
       <c r="E12" s="73" t="s">
-        <v>1171</v>
+        <v>1132</v>
       </c>
       <c r="F12" s="73" t="s">
-        <v>1190</v>
+        <v>1151</v>
       </c>
       <c r="G12" s="73" t="s">
-        <v>1198</v>
+        <v>1159</v>
       </c>
       <c r="H12" s="73" t="s">
-        <v>1173</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B13" s="107"/>
+      <c r="B13" s="110"/>
       <c r="C13" s="73" t="s">
-        <v>1168</v>
+        <v>1129</v>
       </c>
       <c r="D13" s="73" t="s">
-        <v>1178</v>
+        <v>1139</v>
       </c>
       <c r="E13" s="73" t="s">
-        <v>1178</v>
+        <v>1139</v>
       </c>
       <c r="F13" s="73" t="s">
-        <v>1190</v>
+        <v>1151</v>
       </c>
       <c r="G13" s="73" t="s">
-        <v>1199</v>
+        <v>1160</v>
       </c>
       <c r="H13" s="73" t="s">
-        <v>1179</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B14" s="107"/>
-      <c r="C14" s="107" t="s">
-        <v>1180</v>
+      <c r="B14" s="110"/>
+      <c r="C14" s="110" t="s">
+        <v>1141</v>
       </c>
       <c r="D14" s="73" t="s">
-        <v>1181</v>
+        <v>1142</v>
       </c>
       <c r="E14" s="73" t="s">
-        <v>1182</v>
+        <v>1143</v>
       </c>
       <c r="F14" s="73" t="s">
-        <v>1190</v>
+        <v>1151</v>
       </c>
       <c r="G14" s="73" t="s">
-        <v>1099</v>
+        <v>1063</v>
       </c>
       <c r="H14" s="73" t="s">
-        <v>1183</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B15" s="107"/>
-      <c r="C15" s="107"/>
+      <c r="B15" s="110"/>
+      <c r="C15" s="110"/>
       <c r="D15" s="73" t="s">
-        <v>1184</v>
+        <v>1145</v>
       </c>
       <c r="E15" s="73" t="s">
-        <v>1185</v>
+        <v>1146</v>
       </c>
       <c r="F15" s="73" t="s">
-        <v>1190</v>
+        <v>1151</v>
       </c>
       <c r="G15" s="73" t="s">
-        <v>1186</v>
+        <v>1147</v>
       </c>
       <c r="H15" s="73" t="s">
-        <v>1187</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="B16" s="107"/>
-      <c r="C16" s="107"/>
+      <c r="B16" s="110"/>
+      <c r="C16" s="110"/>
       <c r="D16" s="73" t="s">
-        <v>1188</v>
+        <v>1149</v>
       </c>
       <c r="E16" s="73" t="s">
-        <v>1189</v>
+        <v>1150</v>
       </c>
       <c r="F16" s="73" t="s">
-        <v>1190</v>
+        <v>1151</v>
       </c>
       <c r="G16" s="73" t="s">
-        <v>1194</v>
+        <v>1155</v>
       </c>
       <c r="H16" s="73" t="s">
-        <v>1191</v>
+        <v>1152</v>
       </c>
     </row>
   </sheetData>
@@ -15770,7 +15527,7 @@
   <dimension ref="A1:J103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -15790,7 +15547,7 @@
   <sheetData>
     <row r="1" spans="1:10" s="45" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="10" t="s">
-        <v>993</v>
+        <v>957</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>1</v>
@@ -15817,18 +15574,14 @@
         <v>8</v>
       </c>
       <c r="J1" s="44" t="s">
-        <v>994</v>
+        <v>958</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="19"/>
-      <c r="B2" s="66" t="s">
-        <v>317</v>
-      </c>
+      <c r="B2" s="66"/>
       <c r="C2" s="66"/>
-      <c r="D2" s="66" t="s">
-        <v>318</v>
-      </c>
+      <c r="D2" s="66"/>
       <c r="E2" s="66"/>
       <c r="F2" s="58"/>
       <c r="G2" s="59"/>
@@ -15840,12 +15593,8 @@
       <c r="A3" s="19"/>
       <c r="B3" s="66"/>
       <c r="C3" s="66"/>
-      <c r="D3" s="66" t="s">
-        <v>319</v>
-      </c>
-      <c r="E3" s="66" t="s">
-        <v>320</v>
-      </c>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
       <c r="F3" s="58"/>
       <c r="G3" s="59"/>
       <c r="H3" s="58"/>
@@ -15857,9 +15606,7 @@
       <c r="B4" s="66"/>
       <c r="C4" s="66"/>
       <c r="D4" s="66"/>
-      <c r="E4" s="66" t="s">
-        <v>321</v>
-      </c>
+      <c r="E4" s="66"/>
       <c r="F4" s="58"/>
       <c r="G4" s="59"/>
       <c r="H4" s="58"/>
@@ -15871,9 +15618,7 @@
       <c r="B5" s="66"/>
       <c r="C5" s="66"/>
       <c r="D5" s="66"/>
-      <c r="E5" s="66" t="s">
-        <v>322</v>
-      </c>
+      <c r="E5" s="66"/>
       <c r="F5" s="58"/>
       <c r="G5" s="59"/>
       <c r="H5" s="58"/>
@@ -15884,9 +15629,7 @@
       <c r="A6" s="19"/>
       <c r="B6" s="66"/>
       <c r="C6" s="66"/>
-      <c r="D6" s="66" t="s">
-        <v>323</v>
-      </c>
+      <c r="D6" s="66"/>
       <c r="E6" s="66"/>
       <c r="F6" s="58"/>
       <c r="G6" s="59"/>
@@ -15896,13 +15639,9 @@
     </row>
     <row r="7" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="19"/>
-      <c r="B7" s="67" t="s">
-        <v>324</v>
-      </c>
+      <c r="B7" s="67"/>
       <c r="C7" s="19"/>
-      <c r="D7" s="63" t="s">
-        <v>325</v>
-      </c>
+      <c r="D7" s="63"/>
       <c r="E7" s="59"/>
       <c r="F7" s="59"/>
       <c r="G7" s="59"/>
@@ -15914,9 +15653,7 @@
       <c r="A8" s="19"/>
       <c r="B8" s="67"/>
       <c r="C8" s="19"/>
-      <c r="D8" s="63" t="s">
-        <v>326</v>
-      </c>
+      <c r="D8" s="63"/>
       <c r="E8" s="59"/>
       <c r="F8" s="58"/>
       <c r="G8" s="59"/>
@@ -15928,9 +15665,7 @@
       <c r="A9" s="19"/>
       <c r="B9" s="67"/>
       <c r="C9" s="19"/>
-      <c r="D9" s="63" t="s">
-        <v>327</v>
-      </c>
+      <c r="D9" s="63"/>
       <c r="E9" s="63"/>
       <c r="F9" s="58"/>
       <c r="G9" s="59"/>
@@ -15942,9 +15677,7 @@
       <c r="A10" s="19"/>
       <c r="B10" s="67"/>
       <c r="C10" s="19"/>
-      <c r="D10" s="63" t="s">
-        <v>328</v>
-      </c>
+      <c r="D10" s="63"/>
       <c r="E10" s="63"/>
       <c r="F10" s="58"/>
       <c r="G10" s="59"/>
@@ -15954,13 +15687,9 @@
     </row>
     <row r="11" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="19"/>
-      <c r="B11" s="67" t="s">
-        <v>329</v>
-      </c>
+      <c r="B11" s="67"/>
       <c r="C11" s="19"/>
-      <c r="D11" s="63" t="s">
-        <v>330</v>
-      </c>
+      <c r="D11" s="63"/>
       <c r="E11" s="58"/>
       <c r="F11" s="58"/>
       <c r="G11" s="59"/>
@@ -15972,9 +15701,7 @@
       <c r="A12" s="19"/>
       <c r="B12" s="67"/>
       <c r="C12" s="59"/>
-      <c r="D12" s="63" t="s">
-        <v>331</v>
-      </c>
+      <c r="D12" s="63"/>
       <c r="E12" s="59"/>
       <c r="F12" s="58"/>
       <c r="G12" s="59"/>
@@ -15986,9 +15713,7 @@
       <c r="A13" s="19"/>
       <c r="B13" s="67"/>
       <c r="C13" s="19"/>
-      <c r="D13" s="63" t="s">
-        <v>332</v>
-      </c>
+      <c r="D13" s="63"/>
       <c r="E13" s="59"/>
       <c r="F13" s="59"/>
       <c r="G13" s="59"/>
@@ -16000,9 +15725,7 @@
       <c r="A14" s="19"/>
       <c r="B14" s="67"/>
       <c r="C14" s="19"/>
-      <c r="D14" s="63" t="s">
-        <v>333</v>
-      </c>
+      <c r="D14" s="63"/>
       <c r="E14" s="59"/>
       <c r="F14" s="59"/>
       <c r="G14" s="59"/>
@@ -16012,9 +15735,7 @@
     </row>
     <row r="15" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="19"/>
-      <c r="B15" s="67" t="s">
-        <v>334</v>
-      </c>
+      <c r="B15" s="67"/>
       <c r="C15" s="19"/>
       <c r="D15" s="63"/>
       <c r="E15" s="59"/>
@@ -16026,9 +15747,7 @@
     </row>
     <row r="16" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="19"/>
-      <c r="B16" s="68" t="s">
-        <v>335</v>
-      </c>
+      <c r="B16" s="68"/>
       <c r="C16" s="19"/>
       <c r="D16" s="68"/>
       <c r="E16" s="59"/>
